--- a/auc_results_2.xlsx
+++ b/auc_results_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\deeplearning\model_building_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBDAA3C5-B344-4883-81C1-798203679367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52A308E8-6BBA-44F9-B72B-8E81417C3FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA728105-F3DD-4EDE-BFFC-2610425E74B1}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>Folder</t>
   </si>
@@ -265,94 +265,107 @@
     <t>Zhongda_GRU_BN_model_oversample_FocalLoss_50</t>
   </si>
   <si>
+    <t>Zhongda_GRU_BN_ResBlock_model_origin_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_GRU_BN_ResBlock_model_origin_FocalLoss_60</t>
+  </si>
+  <si>
+    <t>Zhongda_GRU_BN_ResBlock_model_oversample_FocalLoss_40</t>
+  </si>
+  <si>
+    <t>Zhongda_GRU_BN_ResBlock_model_oversample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_GRU_BN_ResBlock_model_undersample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_GRU_BN_single_model_undersample_FocalLoss_100</t>
+  </si>
+  <si>
+    <t>Zhongda_GRU_BN_single_model_undersample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_3layers_model_origin_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_3layers_model_origin_FocalLoss_60</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_3layers_model_oversample_FocalLoss_40</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_3layers_model_oversample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_3layers_model_undersample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_4layers_model_origin_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_4layers_model_origin_FocalLoss_60</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_4layers_model_oversample_FocalLoss_40</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_4layers_model_oversample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_4layers_model_undersample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_model_origin_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_model_origin_FocalLoss_60</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_model_oversample_FocalLoss_40</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_model_oversample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_model_undersample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_ResBlock_model_origin_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_ResBlock_model_origin_FocalLoss_60</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_ResBlock_model_oversample_FocalLoss_40</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_ResBlock_model_oversample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_ResBlock_model_undersample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_single_model_undersample_FocalLoss_100</t>
+  </si>
+  <si>
+    <t>Zhongda_RNN_BN_single_model_undersample_FocalLoss_50</t>
+  </si>
+  <si>
+    <t>4、3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>48、97</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
     <t>Zhongda_GRU_BN_model_undersample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_GRU_BN_ResBlock_model_origin_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_GRU_BN_ResBlock_model_origin_FocalLoss_60</t>
-  </si>
-  <si>
-    <t>Zhongda_GRU_BN_ResBlock_model_oversample_FocalLoss_40</t>
-  </si>
-  <si>
-    <t>Zhongda_GRU_BN_ResBlock_model_oversample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_GRU_BN_ResBlock_model_undersample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_GRU_BN_single_model_undersample_FocalLoss_100</t>
-  </si>
-  <si>
-    <t>Zhongda_GRU_BN_single_model_undersample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_3layers_model_origin_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_3layers_model_origin_FocalLoss_60</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_3layers_model_oversample_FocalLoss_40</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_3layers_model_oversample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_3layers_model_undersample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_4layers_model_origin_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_4layers_model_origin_FocalLoss_60</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_4layers_model_oversample_FocalLoss_40</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_4layers_model_oversample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_4layers_model_undersample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_model_origin_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_model_origin_FocalLoss_60</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_model_oversample_FocalLoss_40</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_model_oversample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_model_undersample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_ResBlock_model_origin_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_ResBlock_model_origin_FocalLoss_60</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_ResBlock_model_oversample_FocalLoss_40</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_ResBlock_model_oversample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_ResBlock_model_undersample_FocalLoss_50</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_single_model_undersample_FocalLoss_100</t>
-  </si>
-  <si>
-    <t>Zhongda_RNN_BN_single_model_undersample_FocalLoss_50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -520,7 +533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,6 +716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,11 +970,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1314,15 +1339,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694E68C3-06E6-4DD2-9A74-D9631B28CDF6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q94"/>
+  <dimension ref="A1:S94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="A35" sqref="A35:S94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="59.5546875" customWidth="1"/>
+    <col min="1" max="1" width="57.77734375" customWidth="1"/>
+    <col min="2" max="18" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -2915,3396 +2941,3462 @@
         <v>0.135498565988806</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="1">
-        <v>0.84567247906361098</v>
+        <v>108</v>
+      </c>
+      <c r="B31">
+        <v>0.80307565373827405</v>
       </c>
       <c r="C31">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="D31">
-        <v>0.114009636901962</v>
+        <v>6.9266795296101399E-2</v>
       </c>
       <c r="E31">
-        <v>0.122091941580178</v>
+        <v>6.9266795296101399E-2</v>
       </c>
       <c r="F31">
-        <v>487</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>0.82959971901326801</v>
+        <v>0.80307565373827405</v>
       </c>
       <c r="H31">
-        <v>0.1012874404287</v>
+        <v>5.5626476914771898E-2</v>
       </c>
       <c r="I31">
-        <v>0.82959971901326801</v>
+        <v>0.80307565373827405</v>
       </c>
       <c r="J31">
-        <v>0.122091941580178</v>
+        <v>6.9266795296101399E-2</v>
       </c>
       <c r="K31">
-        <v>487</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>0.95968211596557296</v>
+        <v>0.87234244903437597</v>
       </c>
       <c r="M31">
-        <v>0.84567247906361098</v>
+        <v>0.80307565373827405</v>
       </c>
       <c r="N31">
-        <v>0.114009636901962</v>
+        <v>6.9266795296101399E-2</v>
       </c>
       <c r="O31">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>9.64148122760244E-2</v>
+        <v>5.5626476914771898E-2</v>
       </c>
       <c r="Q31">
-        <v>0.1012874404287</v>
+        <v>5.5626476914771898E-2</v>
       </c>
     </row>
     <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="B32">
-        <v>0.81808892742135197</v>
+        <v>0.80767640487110304</v>
       </c>
       <c r="C32">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>0.116380145279579</v>
+        <v>7.1009923340673201E-2</v>
       </c>
       <c r="E32">
-        <v>0.11945556741013399</v>
+        <v>7.1392896826616106E-2</v>
       </c>
       <c r="F32">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0.79750267725558699</v>
+        <v>0.80464603928809997</v>
       </c>
       <c r="H32">
-        <v>9.5266134822667894E-2</v>
+        <v>5.7446011664840597E-2</v>
       </c>
       <c r="I32">
-        <v>0.79750267725558699</v>
+        <v>0.80464603928809997</v>
       </c>
       <c r="J32">
-        <v>0.11945556741013399</v>
+        <v>7.1392896826616106E-2</v>
       </c>
       <c r="K32">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="L32">
-        <v>0.93446907270093105</v>
+        <v>0.87868632821177695</v>
       </c>
       <c r="M32">
-        <v>0.81808892742135197</v>
+        <v>0.80767640487110304</v>
       </c>
       <c r="N32">
-        <v>0.116380145279579</v>
+        <v>7.1009923340673201E-2</v>
       </c>
       <c r="O32">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="P32">
-        <v>9.5209308224911998E-2</v>
+        <v>5.7353039593967599E-2</v>
       </c>
       <c r="Q32">
-        <v>9.5266134822667894E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.7446011664840597E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="B33">
-        <v>0.82859997047512501</v>
+        <v>0.76782970902985703</v>
       </c>
       <c r="C33">
-        <v>78</v>
+        <v>19</v>
       </c>
       <c r="D33">
-        <v>9.4913984879054905E-2</v>
+        <v>0.101452154384649</v>
       </c>
       <c r="E33">
-        <v>0.10993982030687199</v>
+        <v>0.105941246763622</v>
       </c>
       <c r="F33">
-        <v>172</v>
+        <v>50</v>
       </c>
       <c r="G33">
-        <v>0.79418191075981504</v>
+        <v>0.75833358354413505</v>
       </c>
       <c r="H33">
-        <v>8.9566102475354695E-2</v>
+        <v>8.0834388424770198E-2</v>
       </c>
       <c r="I33">
-        <v>0.82385503536729698</v>
+        <v>0.763925325837017</v>
       </c>
       <c r="J33">
-        <v>0.10871585246234899</v>
+        <v>0.105814515752834</v>
       </c>
       <c r="K33">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="L33">
-        <v>0.93257088782964603</v>
+        <v>0.86973984158985196</v>
       </c>
       <c r="M33">
-        <v>0.82385503536729698</v>
+        <v>0.763925325837017</v>
       </c>
       <c r="N33">
-        <v>0.10871585246234899</v>
+        <v>0.105814515752834</v>
       </c>
       <c r="O33">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="P33">
-        <v>7.8645725068461403E-2</v>
+        <v>7.78979781816177E-2</v>
       </c>
       <c r="Q33">
-        <v>8.7312216559902997E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.0338805303391395E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="B34">
-        <v>0.81338715367697201</v>
+        <v>0.81417954001245996</v>
       </c>
       <c r="C34">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="D34">
-        <v>0.101341282530792</v>
+        <v>0.106110795390418</v>
       </c>
       <c r="E34">
-        <v>0.10364062960399401</v>
+        <v>0.112211174696212</v>
       </c>
       <c r="F34">
-        <v>807</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>0.67627476148655197</v>
+        <v>0.80002057983851305</v>
       </c>
       <c r="H34">
-        <v>8.2429697347695396E-2</v>
+        <v>8.9771249044824294E-2</v>
       </c>
       <c r="I34">
-        <v>0.81338715367697201</v>
+        <v>0.80002057983851305</v>
       </c>
       <c r="J34">
-        <v>0.101341282530792</v>
+        <v>0.112211174696212</v>
       </c>
       <c r="K34">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="L34">
-        <v>0.91472843620776501</v>
+        <v>0.92029033540287897</v>
       </c>
       <c r="M34">
-        <v>0.81338715367697201</v>
+        <v>0.81417954001245996</v>
       </c>
       <c r="N34">
-        <v>0.101341282530792</v>
+        <v>0.106110795390418</v>
       </c>
       <c r="O34">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="P34">
-        <v>8.2429697347695396E-2</v>
+        <v>8.6393238581327206E-2</v>
       </c>
       <c r="Q34">
-        <v>7.0089542065757696E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <v>8.9771249044824294E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35">
+        <v>0.80970874211523203</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>0.101284762815966</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.13458572414259001</v>
+      </c>
+      <c r="F35" s="2">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>0.77641131403207198</v>
+      </c>
+      <c r="H35">
+        <v>0.10482654445727201</v>
+      </c>
+      <c r="I35">
+        <v>0.78894812629640398</v>
+      </c>
+      <c r="J35">
+        <v>0.13286874125598599</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <v>0.92181686755239101</v>
+      </c>
+      <c r="M35">
+        <v>0.78894812629640398</v>
+      </c>
+      <c r="N35">
+        <v>0.13286874125598599</v>
+      </c>
+      <c r="O35">
+        <v>9</v>
+      </c>
+      <c r="P35">
+        <v>8.2011157895156103E-2</v>
+      </c>
+      <c r="Q35">
+        <v>0.104493878931506</v>
+      </c>
+      <c r="R35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36">
+        <v>0.81786639618878898</v>
+      </c>
+      <c r="C36">
+        <v>22</v>
+      </c>
+      <c r="D36">
+        <v>0.108257881395315</v>
+      </c>
+      <c r="E36">
+        <v>0.108257881395315</v>
+      </c>
+      <c r="F36">
+        <v>22</v>
+      </c>
+      <c r="G36">
+        <v>0.81786639618878898</v>
+      </c>
+      <c r="H36">
+        <v>8.8540483315819804E-2</v>
+      </c>
+      <c r="I36">
+        <v>0.81786639618878898</v>
+      </c>
+      <c r="J36">
+        <v>0.108257881395315</v>
+      </c>
+      <c r="K36">
+        <v>22</v>
+      </c>
+      <c r="L36">
+        <v>0.92612427758410398</v>
+      </c>
+      <c r="M36">
+        <v>0.81786639618878898</v>
+      </c>
+      <c r="N36">
+        <v>0.108257881395315</v>
+      </c>
+      <c r="O36">
+        <v>22</v>
+      </c>
+      <c r="P36">
+        <v>8.8540483315819804E-2</v>
+      </c>
+      <c r="Q36">
+        <v>8.8540483315819804E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>102</v>
+      </c>
+      <c r="B37">
+        <v>0.59472058334146505</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>3.09300159319825E-2</v>
+      </c>
+      <c r="E37">
+        <v>3.0981153128851999E-2</v>
+      </c>
+      <c r="F37">
+        <v>40</v>
+      </c>
+      <c r="G37">
+        <v>0.56656811488679204</v>
+      </c>
+      <c r="H37">
+        <v>1.83947171178294E-2</v>
+      </c>
+      <c r="I37">
+        <v>0.59472058334146505</v>
+      </c>
+      <c r="J37">
+        <v>3.09300159319825E-2</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>0.62565059927344702</v>
+      </c>
+      <c r="M37">
+        <v>0.59472058334146505</v>
+      </c>
+      <c r="N37">
+        <v>3.09300159319825E-2</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>1.83947171178294E-2</v>
+      </c>
+      <c r="Q37">
+        <v>1.7552933525232701E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38">
+        <v>0.81810644217753403</v>
+      </c>
+      <c r="C38">
+        <v>9</v>
+      </c>
+      <c r="D38">
+        <v>9.4032896448846603E-2</v>
+      </c>
+      <c r="E38">
+        <v>0.102589048424001</v>
+      </c>
+      <c r="F38">
         <v>50</v>
       </c>
-      <c r="B35" s="1">
-        <v>0.84127111466410398</v>
-      </c>
-      <c r="C35">
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <v>0.10345484240477699</v>
-      </c>
-      <c r="E35">
-        <v>0.123255831431392</v>
-      </c>
-      <c r="F35">
-        <v>226</v>
-      </c>
-      <c r="G35">
-        <v>0.81996081698831202</v>
-      </c>
-      <c r="H35">
-        <v>0.101676238684241</v>
-      </c>
-      <c r="I35">
-        <v>0.825690175222625</v>
-      </c>
-      <c r="J35">
-        <v>0.12314090894545</v>
-      </c>
-      <c r="K35">
-        <v>236</v>
-      </c>
-      <c r="L35">
-        <v>0.95383200069489305</v>
-      </c>
-      <c r="M35">
-        <v>0.83626689861208003</v>
-      </c>
-      <c r="N35">
-        <v>0.117565102082812</v>
-      </c>
-      <c r="O35">
-        <v>97</v>
-      </c>
-      <c r="P35">
-        <v>8.7033570587266698E-2</v>
-      </c>
-      <c r="Q35">
-        <v>0.101064952239057</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36">
-        <v>0.82577946920280298</v>
-      </c>
-      <c r="C36">
-        <v>31</v>
-      </c>
-      <c r="D36">
-        <v>0.107778281069905</v>
-      </c>
-      <c r="E36">
-        <v>0.115777355101869</v>
-      </c>
-      <c r="F36">
-        <v>15</v>
-      </c>
-      <c r="G36">
-        <v>0.81803106617325005</v>
-      </c>
-      <c r="H36">
-        <v>9.4709473232701402E-2</v>
-      </c>
-      <c r="I36">
-        <v>0.81803106617325005</v>
-      </c>
-      <c r="J36">
-        <v>0.115777355101869</v>
-      </c>
-      <c r="K36">
-        <v>15</v>
-      </c>
-      <c r="L36">
-        <v>0.93685765449470004</v>
-      </c>
-      <c r="M36">
-        <v>0.82456891806346799</v>
-      </c>
-      <c r="N36">
-        <v>0.11228873643123199</v>
-      </c>
-      <c r="O36">
-        <v>27</v>
-      </c>
-      <c r="P36">
-        <v>8.9001091733497101E-2</v>
-      </c>
-      <c r="Q36">
-        <v>9.4709473232701402E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37">
-        <v>0.82332474484753404</v>
-      </c>
-      <c r="C37">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0.103068627403402</v>
-      </c>
-      <c r="E37">
-        <v>0.125891528557183</v>
-      </c>
-      <c r="F37">
-        <v>35</v>
-      </c>
-      <c r="G37">
-        <v>0.78071775470834104</v>
-      </c>
-      <c r="H37">
-        <v>9.8285751511965294E-2</v>
-      </c>
-      <c r="I37">
-        <v>0.78071775470834104</v>
-      </c>
-      <c r="J37">
-        <v>0.125891528557183</v>
-      </c>
-      <c r="K37">
-        <v>35</v>
-      </c>
-      <c r="L37">
-        <v>0.92639337225093699</v>
-      </c>
-      <c r="M37">
-        <v>0.82332474484753404</v>
-      </c>
-      <c r="N37">
-        <v>0.103068627403402</v>
-      </c>
-      <c r="O37">
-        <v>52</v>
-      </c>
-      <c r="P37">
-        <v>8.48589513586923E-2</v>
-      </c>
-      <c r="Q37">
-        <v>9.8285751511965294E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38">
-        <v>0.80439551572199497</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>0.131025425241689</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.131025425241689</v>
-      </c>
-      <c r="F38">
-        <v>2</v>
-      </c>
       <c r="G38">
-        <v>0.80439551572199497</v>
+        <v>0.81394011955072099</v>
       </c>
       <c r="H38">
-        <v>0.105396264509982</v>
+        <v>8.3501342338826195E-2</v>
       </c>
       <c r="I38">
-        <v>0.80439551572199497</v>
+        <v>0.81394011955072099</v>
       </c>
       <c r="J38">
-        <v>0.131025425241689</v>
+        <v>0.102589048424001</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="L38">
-        <v>0.935420940963684</v>
+        <v>0.91880045746967598</v>
       </c>
       <c r="M38">
-        <v>0.80439551572199497</v>
+        <v>0.81778413938743399</v>
       </c>
       <c r="N38">
-        <v>0.131025425241689</v>
+        <v>0.101016318082242</v>
       </c>
       <c r="O38">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="P38">
-        <v>0.105396264509982</v>
+        <v>7.6928918361414397E-2</v>
       </c>
       <c r="Q38">
-        <v>0.105396264509982</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.3501342338826195E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>100</v>
       </c>
       <c r="B39">
-        <v>0.83594631602124703</v>
+        <v>0.83776034434010604</v>
       </c>
       <c r="C39">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D39">
-        <v>0.10241671823878599</v>
-      </c>
-      <c r="E39">
-        <v>0.105376668341954</v>
-      </c>
-      <c r="F39">
-        <v>46</v>
+        <v>0.14755732104420199</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0.14962503316658801</v>
+      </c>
+      <c r="F39" s="2">
+        <v>4</v>
       </c>
       <c r="G39">
-        <v>0.82507356197596404</v>
-      </c>
-      <c r="H39">
-        <v>8.6943503098056693E-2</v>
+        <v>0.83248746443878896</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0.124560964477422</v>
       </c>
       <c r="I39">
-        <v>0.82507356197596404</v>
+        <v>0.83248746443878896</v>
       </c>
       <c r="J39">
-        <v>0.105376668341954</v>
-      </c>
-      <c r="K39">
-        <v>46</v>
-      </c>
-      <c r="L39">
-        <v>0.93836303426003398</v>
+        <v>0.14962503316658801</v>
+      </c>
+      <c r="K39" s="2">
+        <v>4</v>
+      </c>
+      <c r="L39" s="1">
+        <v>0.98531766538430898</v>
       </c>
       <c r="M39">
-        <v>0.83594631602124703</v>
+        <v>0.83776034434010604</v>
       </c>
       <c r="N39">
-        <v>0.10241671823878599</v>
-      </c>
-      <c r="O39">
-        <v>100</v>
+        <v>0.14755732104420199</v>
+      </c>
+      <c r="O39" s="2">
+        <v>3</v>
       </c>
       <c r="P39">
-        <v>8.5614878310699805E-2</v>
+        <v>0.123617672087894</v>
       </c>
       <c r="Q39">
-        <v>8.6943503098056693E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.124560964477422</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B40">
-        <v>0.70157904909886504</v>
+        <v>0.82098761956948696</v>
       </c>
       <c r="C40">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="D40">
-        <v>6.3213312644115296E-2</v>
+        <v>0.10240620540272399</v>
       </c>
       <c r="E40">
-        <v>6.3213312644115296E-2</v>
+        <v>0.124331322106701</v>
       </c>
       <c r="F40">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="G40">
-        <v>0.70157904909886504</v>
+        <v>0.76097221283931704</v>
       </c>
       <c r="H40">
-        <v>4.4349135775247697E-2</v>
+        <v>9.5647499275487699E-2</v>
       </c>
       <c r="I40">
-        <v>0.70157904909886504</v>
+        <v>0.78731581357293501</v>
       </c>
       <c r="J40">
-        <v>6.3213312644115296E-2</v>
+        <v>0.121485555893292</v>
       </c>
       <c r="K40">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="L40">
-        <v>0.76479236174298104</v>
+        <v>0.92378303450239896</v>
       </c>
       <c r="M40">
-        <v>0.70157904909886504</v>
+        <v>0.80913951253931404</v>
       </c>
       <c r="N40">
-        <v>6.3213312644115296E-2</v>
+        <v>0.114643521963084</v>
       </c>
       <c r="O40">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="P40">
-        <v>4.4349135775247697E-2</v>
+        <v>8.4074226802726901E-2</v>
       </c>
       <c r="Q40">
-        <v>4.4349135775247697E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.4612681308774205E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="B41">
-        <v>0.69513064757057796</v>
+        <v>0.78839125087886497</v>
       </c>
       <c r="C41">
         <v>27</v>
       </c>
       <c r="D41">
-        <v>4.5414335423674998E-2</v>
+        <v>5.0767364484091401E-2</v>
       </c>
       <c r="E41">
-        <v>6.0967947360242497E-2</v>
+        <v>8.4179019569897207E-2</v>
       </c>
       <c r="F41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G41">
-        <v>0.66914297170365999</v>
+        <v>0.63168422520973899</v>
       </c>
       <c r="H41">
-        <v>4.0796273475304998E-2</v>
+        <v>5.3174558755925999E-2</v>
       </c>
       <c r="I41">
-        <v>0.66914297170365999</v>
+        <v>0.63168422520973899</v>
       </c>
       <c r="J41">
-        <v>6.0967947360242497E-2</v>
+        <v>8.4179019569897207E-2</v>
       </c>
       <c r="K41">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="L41">
-        <v>0.74911606737036895</v>
+        <v>0.83915861536295699</v>
       </c>
       <c r="M41">
-        <v>0.69162316126336398</v>
+        <v>0.78839125087886497</v>
       </c>
       <c r="N41">
-        <v>5.7492906107004797E-2</v>
+        <v>5.0767364484091401E-2</v>
       </c>
       <c r="O41">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P41">
-        <v>3.15688963920467E-2</v>
+        <v>4.0024545989436097E-2</v>
       </c>
       <c r="Q41">
-        <v>4.0796273475304998E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.3174558755925999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>97</v>
       </c>
       <c r="B42">
-        <v>0.82899155038119599</v>
+        <v>0.62294811503691805</v>
       </c>
       <c r="C42">
+        <v>29</v>
+      </c>
+      <c r="D42">
+        <v>4.8751363636149403E-2</v>
+      </c>
+      <c r="E42">
+        <v>5.8215912188466501E-2</v>
+      </c>
+      <c r="F42">
+        <v>32</v>
+      </c>
+      <c r="G42">
+        <v>0.53152703027300496</v>
+      </c>
+      <c r="H42">
+        <v>3.0943330920169598E-2</v>
+      </c>
+      <c r="I42">
+        <v>0.53152703027300496</v>
+      </c>
+      <c r="J42">
+        <v>5.8215912188466501E-2</v>
+      </c>
+      <c r="K42">
+        <v>32</v>
+      </c>
+      <c r="L42">
+        <v>0.67169947867306801</v>
+      </c>
+      <c r="M42">
+        <v>0.62294811503691805</v>
+      </c>
+      <c r="N42">
+        <v>4.8751363636149403E-2</v>
+      </c>
+      <c r="O42">
+        <v>29</v>
+      </c>
+      <c r="P42">
+        <v>3.0369570082618601E-2</v>
+      </c>
+      <c r="Q42">
+        <v>3.0943330920169598E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B43">
+        <v>0.82213546162642004</v>
+      </c>
+      <c r="C43">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>0.12718788577458801</v>
+      </c>
+      <c r="E43">
+        <v>0.12885567689041699</v>
+      </c>
+      <c r="F43">
         <v>19</v>
       </c>
-      <c r="D42">
-        <v>0.119370367715673</v>
-      </c>
-      <c r="E42">
-        <v>0.12812442967194199</v>
-      </c>
-      <c r="F42">
-        <v>34</v>
-      </c>
-      <c r="G42">
-        <v>0.82563950753509796</v>
-      </c>
-      <c r="H42">
-        <v>0.10578459101755699</v>
-      </c>
-      <c r="I42">
-        <v>0.82563950753509796</v>
-      </c>
-      <c r="J42">
-        <v>0.12812442967194199</v>
-      </c>
-      <c r="K42">
-        <v>34</v>
-      </c>
-      <c r="L42">
-        <v>0.954504161584665</v>
-      </c>
-      <c r="M42">
-        <v>0.82810126906919002</v>
-      </c>
-      <c r="N42">
-        <v>0.12640289251547401</v>
-      </c>
-      <c r="O42">
-        <v>21</v>
-      </c>
-      <c r="P42">
-        <v>9.8957026202189505E-2</v>
-      </c>
-      <c r="Q42">
-        <v>0.10578459101755699</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="1">
-        <v>0.84757627050790296</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>0.14797902474751201</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.14797902474751201</v>
-      </c>
-      <c r="F43">
-        <v>6</v>
-      </c>
       <c r="G43">
-        <v>0.84757627050790296</v>
-      </c>
-      <c r="H43">
-        <v>0.125423509908893</v>
+        <v>0.81435687691880398</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0.10512297010751</v>
       </c>
       <c r="I43">
-        <v>0.84757627050790296</v>
+        <v>0.81763760968615995</v>
       </c>
       <c r="J43">
-        <v>0.14797902474751201</v>
-      </c>
-      <c r="K43">
-        <v>6</v>
+        <v>0.128569147091778</v>
+      </c>
+      <c r="K43" s="2">
+        <v>18</v>
       </c>
       <c r="L43">
-        <v>0.99555529525541497</v>
+        <v>0.94932334740100799</v>
       </c>
       <c r="M43">
-        <v>0.84757627050790296</v>
+        <v>0.82213546162642004</v>
       </c>
       <c r="N43">
-        <v>0.14797902474751201</v>
+        <v>0.12718788577458801</v>
       </c>
       <c r="O43">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P43">
-        <v>0.125423509908893</v>
+        <v>0.104565671184579</v>
       </c>
       <c r="Q43">
-        <v>0.125423509908893</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+        <v>0.104934506605739</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="B44">
-        <v>0.773903419881249</v>
+        <v>0.76269632165098999</v>
       </c>
       <c r="C44">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>6.9928161244141196E-2</v>
+        <v>9.9390849980228999E-2</v>
       </c>
       <c r="E44">
-        <v>6.9928161244141196E-2</v>
+        <v>0.10582565450575</v>
       </c>
       <c r="F44">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>0.773903419881249</v>
+        <v>0.73435682062137297</v>
       </c>
       <c r="H44">
-        <v>5.4117643132848302E-2</v>
+        <v>7.9837717795525606E-2</v>
       </c>
       <c r="I44">
-        <v>0.773903419881249</v>
+        <v>0.76236666891856297</v>
       </c>
       <c r="J44">
-        <v>6.9928161244141196E-2</v>
+        <v>0.104723515665732</v>
       </c>
       <c r="K44">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>0.84383158112539103</v>
+        <v>0.86709018458429599</v>
       </c>
       <c r="M44">
-        <v>0.773903419881249</v>
+        <v>0.76236666891856297</v>
       </c>
       <c r="N44">
-        <v>6.9928161244141196E-2</v>
+        <v>0.104723515665732</v>
       </c>
       <c r="O44">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P44">
-        <v>5.4117643132848302E-2</v>
+        <v>7.5805035685686098E-2</v>
       </c>
       <c r="Q44">
-        <v>5.4117643132848302E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+        <v>7.7713791183018494E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>60</v>
-      </c>
-      <c r="B45" s="1">
-        <v>0.84269278116813395</v>
+        <v>94</v>
+      </c>
+      <c r="B45">
+        <v>0.813361663451457</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45">
-        <v>0.12624748282131401</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.13094741572923599</v>
+        <v>0.11462299210172799</v>
+      </c>
+      <c r="E45">
+        <v>0.123840531691435</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G45">
-        <v>0.78281889992318499</v>
+        <v>0.766545189322003</v>
       </c>
       <c r="H45">
-        <v>0.106387842414169</v>
+        <v>9.785846325316E-2</v>
       </c>
       <c r="I45">
-        <v>0.84269278116813395</v>
+        <v>0.80436517766217996</v>
       </c>
       <c r="J45">
-        <v>0.12624748282131401</v>
+        <v>0.121659248772525</v>
       </c>
       <c r="K45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L45">
-        <v>0.96894026398944799</v>
+        <v>0.92798465555318499</v>
       </c>
       <c r="M45">
-        <v>0.84269278116813395</v>
+        <v>0.813361663451457</v>
       </c>
       <c r="N45">
-        <v>0.12624748282131401</v>
+        <v>0.11462299210172799</v>
       </c>
       <c r="O45">
         <v>1</v>
       </c>
       <c r="P45">
-        <v>0.106387842414169</v>
+        <v>9.3229947525644799E-2</v>
       </c>
       <c r="Q45">
-        <v>0.102508111928945</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.4929363811148998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B46">
-        <v>0.81313256418532598</v>
+        <v>0.66169028656643203</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>51</v>
       </c>
       <c r="D46">
-        <v>0.111798384405177</v>
+        <v>5.0671072618986499E-2</v>
       </c>
       <c r="E46">
-        <v>0.11614015766048801</v>
+        <v>5.0671072618986499E-2</v>
       </c>
       <c r="F46">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="G46">
-        <v>0.81073742127742598</v>
+        <v>0.66169028656643203</v>
       </c>
       <c r="H46">
-        <v>9.4159171928417995E-2</v>
+        <v>3.3528556561885699E-2</v>
       </c>
       <c r="I46">
-        <v>0.81073742127742598</v>
+        <v>0.66169028656643203</v>
       </c>
       <c r="J46">
-        <v>0.11614015766048801</v>
+        <v>5.0671072618986499E-2</v>
       </c>
       <c r="K46">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="L46">
-        <v>0.926877578937914</v>
+        <v>0.71236135918541799</v>
       </c>
       <c r="M46">
-        <v>0.81073742127742598</v>
+        <v>0.66169028656643203</v>
       </c>
       <c r="N46">
-        <v>0.11614015766048801</v>
+        <v>5.0671072618986499E-2</v>
       </c>
       <c r="O46">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="P46">
-        <v>9.09069069831583E-2</v>
+        <v>3.3528556561885699E-2</v>
       </c>
       <c r="Q46">
-        <v>9.4159171928417995E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.3528556561885699E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>92</v>
       </c>
       <c r="B47">
-        <v>0.82236377898379298</v>
+        <v>0.63661134505821104</v>
       </c>
       <c r="C47">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="D47">
-        <v>8.4728935351589499E-2</v>
+        <v>6.1829913304786897E-2</v>
       </c>
       <c r="E47">
-        <v>8.8021657468896203E-2</v>
+        <v>7.7044799038180206E-2</v>
       </c>
       <c r="F47">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G47">
-        <v>0.80960678121317198</v>
+        <v>0.56334399231352394</v>
       </c>
       <c r="H47">
-        <v>7.1262930780441394E-2</v>
+        <v>4.3402724677161601E-2</v>
       </c>
       <c r="I47">
-        <v>0.80960678121317198</v>
+        <v>0.56334399231352394</v>
       </c>
       <c r="J47">
-        <v>8.8021657468896203E-2</v>
+        <v>7.7044799038180206E-2</v>
       </c>
       <c r="K47">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="L47">
-        <v>0.90709271433538297</v>
+        <v>0.69844125836299797</v>
       </c>
       <c r="M47">
-        <v>0.82236377898379298</v>
+        <v>0.63661134505821104</v>
       </c>
       <c r="N47">
-        <v>8.4728935351589499E-2</v>
+        <v>6.1829913304786897E-2</v>
       </c>
       <c r="O47">
-        <v>100</v>
+        <v>44</v>
       </c>
       <c r="P47">
-        <v>6.96780074650067E-2</v>
+        <v>3.9361624273793E-2</v>
       </c>
       <c r="Q47">
-        <v>7.1262930780441394E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>4.3402724677161601E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B48">
-        <v>0.81403269754768304</v>
+        <v>0.82689384556488799</v>
       </c>
       <c r="C48">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D48">
-        <v>8.3990915130297994E-2</v>
+        <v>0.117869849701308</v>
       </c>
       <c r="E48">
-        <v>8.8021657468896203E-2</v>
+        <v>0.12256241317917101</v>
       </c>
       <c r="F48">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="G48">
-        <v>0.80960678121317198</v>
+        <v>0.81730670589971999</v>
       </c>
       <c r="H48">
-        <v>7.1262930780441394E-2</v>
+        <v>0.10017108218258899</v>
       </c>
       <c r="I48">
-        <v>0.80960678121317198</v>
+        <v>0.81730670589971999</v>
       </c>
       <c r="J48">
-        <v>8.8021657468896203E-2</v>
+        <v>0.12256241317917101</v>
       </c>
       <c r="K48">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="L48">
-        <v>0.89921183636590596</v>
+        <v>0.94476369526619597</v>
       </c>
       <c r="M48">
-        <v>0.81171386893457698</v>
+        <v>0.82689384556488799</v>
       </c>
       <c r="N48">
-        <v>8.7497967431329204E-2</v>
+        <v>0.117869849701308</v>
       </c>
       <c r="O48">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="P48">
-        <v>6.8371351213015102E-2</v>
+        <v>9.7465853295669994E-2</v>
       </c>
       <c r="Q48">
-        <v>7.1262930780441394E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.10017108218258899</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="B49">
-        <v>0.83612678056262402</v>
+        <v>0.82799883902187599</v>
       </c>
       <c r="C49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49">
-        <v>9.4437500108685499E-2</v>
+        <v>8.6303524471431206E-2</v>
       </c>
       <c r="E49">
-        <v>0.119633123862761</v>
+        <v>0.116219716655065</v>
       </c>
       <c r="F49">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>0.81723821069250802</v>
+        <v>0.81773268979114899</v>
       </c>
       <c r="H49">
-        <v>9.7768760085158696E-2</v>
+        <v>9.5036661507112097E-2</v>
       </c>
       <c r="I49">
-        <v>0.81723821069250802</v>
+        <v>0.81773268979114899</v>
       </c>
       <c r="J49">
-        <v>0.119633123862761</v>
+        <v>0.116219716655065</v>
       </c>
       <c r="K49">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="L49">
-        <v>0.93687133455527005</v>
+        <v>0.93654350683260401</v>
       </c>
       <c r="M49">
-        <v>0.81723821069250802</v>
+        <v>0.82702645729026703</v>
       </c>
       <c r="N49">
-        <v>0.119633123862761</v>
+        <v>0.109517049542337</v>
       </c>
       <c r="O49">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>7.8961722930257605E-2</v>
+        <v>7.1459218065841101E-2</v>
       </c>
       <c r="Q49">
-        <v>9.7768760085158696E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>9.5036661507112097E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="B50">
-        <v>0.80409244788734502</v>
+        <v>0.83487682122187901</v>
       </c>
       <c r="C50">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="D50">
-        <v>5.6643031039796198E-2</v>
+        <v>0.100731607260291</v>
       </c>
       <c r="E50">
-        <v>6.1536690644817697E-2</v>
+        <v>0.128559119082266</v>
       </c>
       <c r="F50">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G50">
-        <v>0.79473409472480505</v>
+        <v>0.79282389162869704</v>
       </c>
       <c r="H50">
-        <v>4.8905306131969598E-2</v>
+        <v>0.102938469897048</v>
       </c>
       <c r="I50">
-        <v>0.79473409472480505</v>
+        <v>0.80950356925709899</v>
       </c>
       <c r="J50">
-        <v>6.1536690644817697E-2</v>
+        <v>0.127162465746158</v>
       </c>
       <c r="K50">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="L50">
-        <v>0.86073547892714097</v>
+        <v>0.94388376878492797</v>
       </c>
       <c r="M50">
-        <v>0.80409244788734502</v>
+        <v>0.83062573968568498</v>
       </c>
       <c r="N50">
-        <v>5.6643031039796198E-2</v>
+        <v>0.113258029099243</v>
       </c>
       <c r="O50">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="P50">
-        <v>4.5546233484548601E-2</v>
+        <v>8.4098484066043297E-2</v>
       </c>
       <c r="Q50">
-        <v>4.8905306131969598E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.101924741095159</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B51">
-        <v>0.73390659755844201</v>
+        <v>0.69481788406732603</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="D51">
-        <v>5.1942646917981297E-2</v>
+        <v>4.1257725053118199E-2</v>
       </c>
       <c r="E51">
-        <v>5.1942646917981297E-2</v>
+        <v>9.5463806772286997E-2</v>
       </c>
       <c r="F51">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>0.73390659755844201</v>
+        <v>0.68720694059745302</v>
       </c>
       <c r="H51">
-        <v>3.8121051267755203E-2</v>
+        <v>6.56033905897698E-2</v>
       </c>
       <c r="I51">
-        <v>0.73390659755844201</v>
+        <v>0.68720694059745302</v>
       </c>
       <c r="J51">
-        <v>5.1942646917981297E-2</v>
+        <v>9.5463806772286997E-2</v>
       </c>
       <c r="K51">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L51">
-        <v>0.78584924447642401</v>
+        <v>0.78267074736973996</v>
       </c>
       <c r="M51">
-        <v>0.73390659755844201</v>
+        <v>0.68720694059745302</v>
       </c>
       <c r="N51">
-        <v>5.1942646917981297E-2</v>
+        <v>9.5463806772286997E-2</v>
       </c>
       <c r="O51">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P51">
-        <v>3.8121051267755203E-2</v>
+        <v>2.8666605222839099E-2</v>
       </c>
       <c r="Q51">
-        <v>3.8121051267755203E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.56033905897698E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="B52">
-        <v>0.78009551171862301</v>
+        <v>0.79692672326434999</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D52">
-        <v>8.2516763361971807E-2</v>
+        <v>5.46972291843172E-2</v>
       </c>
       <c r="E52">
-        <v>8.2516763361971807E-2</v>
+        <v>7.5675811599809295E-2</v>
       </c>
       <c r="F52">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="G52">
-        <v>0.78009551171862301</v>
+        <v>0.74035515546848196</v>
       </c>
       <c r="H52">
-        <v>6.4370956740221905E-2</v>
+        <v>5.6026977262180401E-2</v>
       </c>
       <c r="I52">
-        <v>0.78009551171862301</v>
+        <v>0.74035515546848196</v>
       </c>
       <c r="J52">
-        <v>8.2516763361971807E-2</v>
+        <v>7.5675811599809295E-2</v>
       </c>
       <c r="K52">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="L52">
-        <v>0.86261227508059402</v>
+        <v>0.85162395244866695</v>
       </c>
       <c r="M52">
-        <v>0.78009551171862301</v>
+        <v>0.79692672326434999</v>
       </c>
       <c r="N52">
-        <v>8.2516763361971807E-2</v>
+        <v>5.46972291843172E-2</v>
       </c>
       <c r="O52">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="P52">
-        <v>6.4370956740221905E-2</v>
+        <v>4.3589683625497103E-2</v>
       </c>
       <c r="Q52">
-        <v>6.4370956740221905E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.6026977262180401E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B53">
-        <v>0.815178350260094</v>
+        <v>0.80477083192589705</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53">
-        <v>0.104791285756637</v>
+        <v>6.7762516868234896E-2</v>
       </c>
       <c r="E53">
-        <v>0.10529297364416999</v>
+        <v>6.8217564458707095E-2</v>
       </c>
       <c r="F53">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="G53">
-        <v>0.81477379066863798</v>
+        <v>0.80244043106316998</v>
       </c>
       <c r="H53">
-        <v>8.5789955266833404E-2</v>
+        <v>5.4740531830324603E-2</v>
       </c>
       <c r="I53">
-        <v>0.81477379066863798</v>
+        <v>0.80244043106316998</v>
       </c>
       <c r="J53">
-        <v>0.10529297364416999</v>
+        <v>6.8217564458707095E-2</v>
       </c>
       <c r="K53">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="L53">
-        <v>0.92006676431280798</v>
+        <v>0.87253334879413202</v>
       </c>
       <c r="M53">
-        <v>0.81477379066863798</v>
+        <v>0.80477083192589705</v>
       </c>
       <c r="N53">
-        <v>0.10529297364416999</v>
+        <v>6.7762516868234896E-2</v>
       </c>
       <c r="O53">
         <v>3</v>
       </c>
       <c r="P53">
-        <v>8.5423587444729498E-2</v>
+        <v>5.4533297073441997E-2</v>
       </c>
       <c r="Q53">
-        <v>8.5789955266833404E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>5.4740531830324603E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="B54">
-        <v>0.78092793178252595</v>
+        <v>0.81710059475107699</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D54">
-        <v>7.6846409875860097E-2</v>
+        <v>6.1054359010763698E-2</v>
       </c>
       <c r="E54">
-        <v>7.7692405228075995E-2</v>
+        <v>7.83163647359333E-2</v>
       </c>
       <c r="F54">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G54">
-        <v>0.780521808373554</v>
+        <v>0.80112604244075603</v>
       </c>
       <c r="H54">
-        <v>6.0640616625508799E-2</v>
+        <v>6.2741279339245004E-2</v>
       </c>
       <c r="I54">
-        <v>0.780521808373554</v>
+        <v>0.80112604244075603</v>
       </c>
       <c r="J54">
-        <v>7.7692405228075995E-2</v>
+        <v>7.83163647359333E-2</v>
       </c>
       <c r="K54">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="L54">
-        <v>0.85821421360162997</v>
+        <v>0.88459380855102698</v>
       </c>
       <c r="M54">
-        <v>0.780521808373554</v>
+        <v>0.80758101200261201</v>
       </c>
       <c r="N54">
-        <v>7.7692405228075995E-2</v>
+        <v>7.7012796548414794E-2</v>
       </c>
       <c r="O54">
         <v>2</v>
       </c>
       <c r="P54">
-        <v>6.0011507929267703E-2</v>
+        <v>4.98875530598408E-2</v>
       </c>
       <c r="Q54">
+        <v>6.2741279339245004E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55">
+        <v>0.81108896745507997</v>
+      </c>
+      <c r="C55">
+        <v>8</v>
+      </c>
+      <c r="D55">
+        <v>8.7404340630519994E-2</v>
+      </c>
+      <c r="E55">
+        <v>9.4358894414039302E-2</v>
+      </c>
+      <c r="F55">
+        <v>28</v>
+      </c>
+      <c r="G55">
+        <v>0.80723884873005503</v>
+      </c>
+      <c r="H55">
+        <v>7.6170165294229902E-2</v>
+      </c>
+      <c r="I55">
+        <v>0.80723884873005503</v>
+      </c>
+      <c r="J55">
+        <v>9.4358894414039302E-2</v>
+      </c>
+      <c r="K55">
+        <v>28</v>
+      </c>
+      <c r="L55">
+        <v>0.90159774314409402</v>
+      </c>
+      <c r="M55">
+        <v>0.80723884873005503</v>
+      </c>
+      <c r="N55">
+        <v>9.4358894414039302E-2</v>
+      </c>
+      <c r="O55">
+        <v>28</v>
+      </c>
+      <c r="P55">
+        <v>7.0892696393100599E-2</v>
+      </c>
+      <c r="Q55">
+        <v>7.6170165294229902E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>83</v>
+      </c>
+      <c r="B56">
+        <v>0.80923772027933505</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>8.2260652358195699E-2</v>
+      </c>
+      <c r="E56">
+        <v>8.6746086378793802E-2</v>
+      </c>
+      <c r="F56">
+        <v>2</v>
+      </c>
+      <c r="G56">
+        <v>0.80921613959761096</v>
+      </c>
+      <c r="H56">
+        <v>7.0196333144648501E-2</v>
+      </c>
+      <c r="I56">
+        <v>0.80921613959761096</v>
+      </c>
+      <c r="J56">
+        <v>8.6746086378793802E-2</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>0.89596222597640496</v>
+      </c>
+      <c r="M56">
+        <v>0.80921613959761096</v>
+      </c>
+      <c r="N56">
+        <v>8.6746086378793802E-2</v>
+      </c>
+      <c r="O56">
+        <v>2</v>
+      </c>
+      <c r="P56">
+        <v>6.6568422783037207E-2</v>
+      </c>
+      <c r="Q56">
+        <v>7.0196333144648501E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>82</v>
+      </c>
+      <c r="B57">
+        <v>0.81709183737298596</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>9.8539979803038594E-2</v>
+      </c>
+      <c r="E57">
+        <v>9.8539979803038594E-2</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>0.81709183737298596</v>
+      </c>
+      <c r="H57">
+        <v>8.0516213151961794E-2</v>
+      </c>
+      <c r="I57">
+        <v>0.81709183737298596</v>
+      </c>
+      <c r="J57">
+        <v>9.8539979803038594E-2</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>0.91563181717602504</v>
+      </c>
+      <c r="M57">
+        <v>0.81709183737298596</v>
+      </c>
+      <c r="N57">
+        <v>9.8539979803038594E-2</v>
+      </c>
+      <c r="O57">
+        <v>1</v>
+      </c>
+      <c r="P57">
+        <v>8.0516213151961794E-2</v>
+      </c>
+      <c r="Q57">
+        <v>8.0516213151961794E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58">
+        <v>0.82872867265671302</v>
+      </c>
+      <c r="C58">
+        <v>10</v>
+      </c>
+      <c r="D58">
+        <v>7.5032867506288306E-2</v>
+      </c>
+      <c r="E58">
+        <v>8.5833775208981902E-2</v>
+      </c>
+      <c r="F58">
+        <v>34</v>
+      </c>
+      <c r="G58">
+        <v>0.74344979395140398</v>
+      </c>
+      <c r="H58">
+        <v>6.4306023880973298E-2</v>
+      </c>
+      <c r="I58">
+        <v>0.76193239679429903</v>
+      </c>
+      <c r="J58">
+        <v>8.4398595139844407E-2</v>
+      </c>
+      <c r="K58">
+        <v>31</v>
+      </c>
+      <c r="L58">
+        <v>0.90376154016300103</v>
+      </c>
+      <c r="M58">
+        <v>0.82872867265671302</v>
+      </c>
+      <c r="N58">
+        <v>7.5032867506288306E-2</v>
+      </c>
+      <c r="O58">
+        <v>10</v>
+      </c>
+      <c r="P58">
+        <v>6.2181888694113299E-2</v>
+      </c>
+      <c r="Q58">
+        <v>6.3813102493188695E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>80</v>
+      </c>
+      <c r="B59">
+        <v>0.79490814761436501</v>
+      </c>
+      <c r="C59">
+        <v>41</v>
+      </c>
+      <c r="D59">
+        <v>6.9129591770693999E-2</v>
+      </c>
+      <c r="E59">
+        <v>0.106917541323924</v>
+      </c>
+      <c r="F59">
+        <v>44</v>
+      </c>
+      <c r="G59">
+        <v>0.78579234254859698</v>
+      </c>
+      <c r="H59">
+        <v>8.4014985256463198E-2</v>
+      </c>
+      <c r="I59">
+        <v>0.78579234254859698</v>
+      </c>
+      <c r="J59">
+        <v>0.106917541323924</v>
+      </c>
+      <c r="K59">
+        <v>44</v>
+      </c>
+      <c r="L59">
+        <v>0.89270988387252104</v>
+      </c>
+      <c r="M59">
+        <v>0.78579234254859698</v>
+      </c>
+      <c r="N59">
+        <v>0.106917541323924</v>
+      </c>
+      <c r="O59">
+        <v>44</v>
+      </c>
+      <c r="P59">
+        <v>5.4951675739779597E-2</v>
+      </c>
+      <c r="Q59">
+        <v>8.4014985256463198E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.84387721655494696</v>
+      </c>
+      <c r="C60" s="2">
+        <v>35</v>
+      </c>
+      <c r="D60">
+        <v>9.7892795188504106E-2</v>
+      </c>
+      <c r="E60">
+        <v>9.8872553266767194E-2</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>0.70023354050787701</v>
+      </c>
+      <c r="H60">
+        <v>8.3157339808227093E-2</v>
+      </c>
+      <c r="I60">
+        <v>0.84262194023464698</v>
+      </c>
+      <c r="J60">
+        <v>9.8688790117511097E-2</v>
+      </c>
+      <c r="K60">
+        <v>40</v>
+      </c>
+      <c r="L60">
+        <v>0.94177001174345099</v>
+      </c>
+      <c r="M60">
+        <v>0.84387721655494696</v>
+      </c>
+      <c r="N60">
+        <v>9.7892795188504106E-2</v>
+      </c>
+      <c r="O60">
+        <v>35</v>
+      </c>
+      <c r="P60">
+        <v>8.2609499524458396E-2</v>
+      </c>
+      <c r="Q60">
+        <v>6.9233878033042207E-2</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+      <c r="S60">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61">
+        <v>0.83867048613456796</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>9.7305785707876902E-2</v>
+      </c>
+      <c r="E61">
+        <v>9.7574857389649799E-2</v>
+      </c>
+      <c r="F61">
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <v>0.82340590697662697</v>
+      </c>
+      <c r="H61">
+        <v>8.1607490603331306E-2</v>
+      </c>
+      <c r="I61">
+        <v>0.83867048613456796</v>
+      </c>
+      <c r="J61">
+        <v>9.7305785707876902E-2</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0.93597627184244503</v>
+      </c>
+      <c r="M61">
+        <v>0.83867048613456796</v>
+      </c>
+      <c r="N61">
+        <v>9.7305785707876902E-2</v>
+      </c>
+      <c r="O61">
+        <v>1</v>
+      </c>
+      <c r="P61">
+        <v>8.1607490603331306E-2</v>
+      </c>
+      <c r="Q61">
+        <v>8.0343713947039694E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62">
+        <v>0.82925990146698503</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>7.8117878787664796E-2</v>
+      </c>
+      <c r="E62">
+        <v>0.112763128276301</v>
+      </c>
+      <c r="F62">
+        <v>19</v>
+      </c>
+      <c r="G62">
+        <v>0.81505574696681904</v>
+      </c>
+      <c r="H62">
+        <v>9.1908235747556397E-2</v>
+      </c>
+      <c r="I62">
+        <v>0.81505574696681904</v>
+      </c>
+      <c r="J62">
+        <v>0.112763128276301</v>
+      </c>
+      <c r="K62">
+        <v>19</v>
+      </c>
+      <c r="L62">
+        <v>0.92793000737075804</v>
+      </c>
+      <c r="M62">
+        <v>0.817695001789007</v>
+      </c>
+      <c r="N62">
+        <v>0.11023500558175101</v>
+      </c>
+      <c r="O62">
+        <v>23</v>
+      </c>
+      <c r="P62">
+        <v>6.4780024466268904E-2</v>
+      </c>
+      <c r="Q62">
+        <v>9.1908235747556397E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>77</v>
+      </c>
+      <c r="B63" s="1">
+        <v>0.84637150549337803</v>
+      </c>
+      <c r="C63" s="2">
+        <v>38</v>
+      </c>
+      <c r="D63">
+        <v>7.8245179348537294E-2</v>
+      </c>
+      <c r="E63">
+        <v>9.5648187937887305E-2</v>
+      </c>
+      <c r="F63">
+        <v>33</v>
+      </c>
+      <c r="G63">
+        <v>0.79124255935625698</v>
+      </c>
+      <c r="H63">
+        <v>7.5680917021762301E-2</v>
+      </c>
+      <c r="I63">
+        <v>0.79124255935625698</v>
+      </c>
+      <c r="J63">
+        <v>9.5648187937887305E-2</v>
+      </c>
+      <c r="K63">
+        <v>33</v>
+      </c>
+      <c r="L63">
+        <v>0.92461668484191495</v>
+      </c>
+      <c r="M63">
+        <v>0.84637150549337803</v>
+      </c>
+      <c r="N63">
+        <v>7.8245179348537294E-2</v>
+      </c>
+      <c r="O63">
+        <v>38</v>
+      </c>
+      <c r="P63">
+        <v>6.6224490242820899E-2</v>
+      </c>
+      <c r="Q63">
+        <v>7.5680917021762301E-2</v>
+      </c>
+      <c r="R63">
+        <v>1</v>
+      </c>
+      <c r="S63">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>76</v>
+      </c>
+      <c r="B64">
+        <v>0.64999121134555804</v>
+      </c>
+      <c r="C64">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>3.8438939829242E-2</v>
+      </c>
+      <c r="E64">
+        <v>3.8438939829242E-2</v>
+      </c>
+      <c r="F64">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>0.64999121134555804</v>
+      </c>
+      <c r="H64">
+        <v>2.4984973062447999E-2</v>
+      </c>
+      <c r="I64">
+        <v>0.64999121134555804</v>
+      </c>
+      <c r="J64">
+        <v>3.8438939829242E-2</v>
+      </c>
+      <c r="K64">
+        <v>30</v>
+      </c>
+      <c r="L64">
+        <v>0.6884301511748</v>
+      </c>
+      <c r="M64">
+        <v>0.64999121134555804</v>
+      </c>
+      <c r="N64">
+        <v>3.8438939829242E-2</v>
+      </c>
+      <c r="O64">
+        <v>30</v>
+      </c>
+      <c r="P64">
+        <v>2.4984973062447999E-2</v>
+      </c>
+      <c r="Q64">
+        <v>2.4984973062447999E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65">
+        <v>0.82955984166660401</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>8.6040367654578204E-2</v>
+      </c>
+      <c r="E65">
+        <v>9.7688671408667896E-2</v>
+      </c>
+      <c r="F65">
+        <v>7</v>
+      </c>
+      <c r="G65">
+        <v>0.808437984001521</v>
+      </c>
+      <c r="H65">
+        <v>7.8975232573410506E-2</v>
+      </c>
+      <c r="I65">
+        <v>0.808437984001521</v>
+      </c>
+      <c r="J65">
+        <v>9.7688671408667896E-2</v>
+      </c>
+      <c r="K65">
+        <v>7</v>
+      </c>
+      <c r="L65">
+        <v>0.91560020932118202</v>
+      </c>
+      <c r="M65">
+        <v>0.82955984166660401</v>
+      </c>
+      <c r="N65">
+        <v>8.6040367654578204E-2</v>
+      </c>
+      <c r="O65">
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <v>7.1375633768468297E-2</v>
+      </c>
+      <c r="Q65">
+        <v>7.8975232573410506E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>74</v>
+      </c>
+      <c r="B66">
+        <v>0.77762327260717101</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>6.9772849388556102E-2</v>
+      </c>
+      <c r="E66">
+        <v>6.9772849388556102E-2</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <v>0.77762327260717101</v>
+      </c>
+      <c r="H66">
+        <v>5.42569914806562E-2</v>
+      </c>
+      <c r="I66">
+        <v>0.77762327260717101</v>
+      </c>
+      <c r="J66">
+        <v>6.9772849388556102E-2</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>0.847396121995727</v>
+      </c>
+      <c r="M66">
+        <v>0.77762327260717101</v>
+      </c>
+      <c r="N66">
+        <v>6.9772849388556102E-2</v>
+      </c>
+      <c r="O66">
+        <v>1</v>
+      </c>
+      <c r="P66">
+        <v>5.42569914806562E-2</v>
+      </c>
+      <c r="Q66">
+        <v>5.42569914806562E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0.84299569262103302</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>8.72364205158805E-2</v>
+      </c>
+      <c r="E67">
+        <v>8.72364205158805E-2</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67">
+        <v>0.84299569262103302</v>
+      </c>
+      <c r="H67">
+        <v>7.3539926734564401E-2</v>
+      </c>
+      <c r="I67">
+        <v>0.84299569262103302</v>
+      </c>
+      <c r="J67">
+        <v>8.72364205158805E-2</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>0.93023211313691301</v>
+      </c>
+      <c r="M67">
+        <v>0.84299569262103302</v>
+      </c>
+      <c r="N67">
+        <v>8.72364205158805E-2</v>
+      </c>
+      <c r="O67">
+        <v>1</v>
+      </c>
+      <c r="P67">
+        <v>7.3539926734564401E-2</v>
+      </c>
+      <c r="Q67">
+        <v>7.3539926734564401E-2</v>
+      </c>
+      <c r="R67">
+        <v>1</v>
+      </c>
+      <c r="S67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68">
+        <v>0.80471359620480198</v>
+      </c>
+      <c r="C68">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>6.6482656812145893E-2</v>
+      </c>
+      <c r="E68">
+        <v>7.5993584641255496E-2</v>
+      </c>
+      <c r="F68">
+        <v>38</v>
+      </c>
+      <c r="G68">
+        <v>0.79826347447724699</v>
+      </c>
+      <c r="H68">
+        <v>6.06629029137093E-2</v>
+      </c>
+      <c r="I68">
+        <v>0.79826347447724699</v>
+      </c>
+      <c r="J68">
+        <v>7.5993584641255496E-2</v>
+      </c>
+      <c r="K68">
+        <v>38</v>
+      </c>
+      <c r="L68">
+        <v>0.87425705911850204</v>
+      </c>
+      <c r="M68">
+        <v>0.79826347447724699</v>
+      </c>
+      <c r="N68">
+        <v>7.5993584641255496E-2</v>
+      </c>
+      <c r="O68">
+        <v>38</v>
+      </c>
+      <c r="P68">
+        <v>5.3499497848551597E-2</v>
+      </c>
+      <c r="Q68">
+        <v>6.06629029137093E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69">
+        <v>0.76366620127457296</v>
+      </c>
+      <c r="C69">
+        <v>44</v>
+      </c>
+      <c r="D69">
+        <v>4.9353737674168001E-2</v>
+      </c>
+      <c r="E69">
+        <v>5.14340909902503E-2</v>
+      </c>
+      <c r="F69">
+        <v>50</v>
+      </c>
+      <c r="G69">
+        <v>0.75110124029494796</v>
+      </c>
+      <c r="H69">
+        <v>3.8632209536220298E-2</v>
+      </c>
+      <c r="I69">
+        <v>0.75110124029494796</v>
+      </c>
+      <c r="J69">
+        <v>5.14340909902503E-2</v>
+      </c>
+      <c r="K69">
+        <v>50</v>
+      </c>
+      <c r="L69">
+        <v>0.81301993894874103</v>
+      </c>
+      <c r="M69">
+        <v>0.76366620127457296</v>
+      </c>
+      <c r="N69">
+        <v>4.9353737674168001E-2</v>
+      </c>
+      <c r="O69">
+        <v>44</v>
+      </c>
+      <c r="P69">
+        <v>3.7689781368333702E-2</v>
+      </c>
+      <c r="Q69">
+        <v>3.8632209536220298E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70">
+        <v>0.81430386350500295</v>
+      </c>
+      <c r="C70">
+        <v>17</v>
+      </c>
+      <c r="D70">
+        <v>7.4300605878978798E-2</v>
+      </c>
+      <c r="E70">
+        <v>7.8763926478089497E-2</v>
+      </c>
+      <c r="F70">
+        <v>10</v>
+      </c>
+      <c r="G70">
+        <v>0.80751189126839296</v>
+      </c>
+      <c r="H70">
+        <v>6.3602807234046696E-2</v>
+      </c>
+      <c r="I70">
+        <v>0.80751189126839296</v>
+      </c>
+      <c r="J70">
+        <v>7.8763926478089497E-2</v>
+      </c>
+      <c r="K70">
+        <v>10</v>
+      </c>
+      <c r="L70">
+        <v>0.88860446938398097</v>
+      </c>
+      <c r="M70">
+        <v>0.81430386350500295</v>
+      </c>
+      <c r="N70">
+        <v>7.4300605878978798E-2</v>
+      </c>
+      <c r="O70">
+        <v>17</v>
+      </c>
+      <c r="P70">
+        <v>6.0503270428015003E-2</v>
+      </c>
+      <c r="Q70">
+        <v>6.3602807234046696E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>0.78092793178252595</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>7.6846409875860097E-2</v>
+      </c>
+      <c r="E71">
+        <v>7.7692405228075995E-2</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71">
+        <v>0.780521808373554</v>
+      </c>
+      <c r="H71">
         <v>6.0640616625508799E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>70</v>
-      </c>
-      <c r="B55">
-        <v>0.81430386350500295</v>
-      </c>
-      <c r="C55">
-        <v>17</v>
-      </c>
-      <c r="D55">
-        <v>7.4300605878978798E-2</v>
-      </c>
-      <c r="E55">
-        <v>7.8763926478089497E-2</v>
-      </c>
-      <c r="F55">
-        <v>10</v>
-      </c>
-      <c r="G55">
-        <v>0.80751189126839296</v>
-      </c>
-      <c r="H55">
-        <v>6.3602807234046696E-2</v>
-      </c>
-      <c r="I55">
-        <v>0.80751189126839296</v>
-      </c>
-      <c r="J55">
-        <v>7.8763926478089497E-2</v>
-      </c>
-      <c r="K55">
-        <v>10</v>
-      </c>
-      <c r="L55">
-        <v>0.88860446938398097</v>
-      </c>
-      <c r="M55">
-        <v>0.81430386350500295</v>
-      </c>
-      <c r="N55">
-        <v>7.4300605878978798E-2</v>
-      </c>
-      <c r="O55">
-        <v>17</v>
-      </c>
-      <c r="P55">
-        <v>6.0503270428015003E-2</v>
-      </c>
-      <c r="Q55">
-        <v>6.3602807234046696E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>71</v>
-      </c>
-      <c r="B56">
-        <v>0.76366620127457296</v>
-      </c>
-      <c r="C56">
-        <v>44</v>
-      </c>
-      <c r="D56">
-        <v>4.9353737674168001E-2</v>
-      </c>
-      <c r="E56">
-        <v>5.14340909902503E-2</v>
-      </c>
-      <c r="F56">
-        <v>50</v>
-      </c>
-      <c r="G56">
-        <v>0.75110124029494796</v>
-      </c>
-      <c r="H56">
-        <v>3.8632209536220298E-2</v>
-      </c>
-      <c r="I56">
-        <v>0.75110124029494796</v>
-      </c>
-      <c r="J56">
-        <v>5.14340909902503E-2</v>
-      </c>
-      <c r="K56">
-        <v>50</v>
-      </c>
-      <c r="L56">
-        <v>0.81301993894874103</v>
-      </c>
-      <c r="M56">
-        <v>0.76366620127457296</v>
-      </c>
-      <c r="N56">
-        <v>4.9353737674168001E-2</v>
-      </c>
-      <c r="O56">
-        <v>44</v>
-      </c>
-      <c r="P56">
-        <v>3.7689781368333702E-2</v>
-      </c>
-      <c r="Q56">
-        <v>3.8632209536220298E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57">
-        <v>0.80471359620480198</v>
-      </c>
-      <c r="C57">
-        <v>30</v>
-      </c>
-      <c r="D57">
-        <v>6.6482656812145893E-2</v>
-      </c>
-      <c r="E57">
-        <v>7.5993584641255496E-2</v>
-      </c>
-      <c r="F57">
-        <v>38</v>
-      </c>
-      <c r="G57">
-        <v>0.79826347447724699</v>
-      </c>
-      <c r="H57">
-        <v>6.06629029137093E-2</v>
-      </c>
-      <c r="I57">
-        <v>0.79826347447724699</v>
-      </c>
-      <c r="J57">
-        <v>7.5993584641255496E-2</v>
-      </c>
-      <c r="K57">
-        <v>38</v>
-      </c>
-      <c r="L57">
-        <v>0.87425705911850204</v>
-      </c>
-      <c r="M57">
-        <v>0.79826347447724699</v>
-      </c>
-      <c r="N57">
-        <v>7.5993584641255496E-2</v>
-      </c>
-      <c r="O57">
-        <v>38</v>
-      </c>
-      <c r="P57">
-        <v>5.3499497848551597E-2</v>
-      </c>
-      <c r="Q57">
-        <v>6.06629029137093E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>73</v>
-      </c>
-      <c r="B58" s="1">
-        <v>0.84299569262103302</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
-      </c>
-      <c r="D58">
-        <v>8.72364205158805E-2</v>
-      </c>
-      <c r="E58">
-        <v>8.72364205158805E-2</v>
-      </c>
-      <c r="F58">
-        <v>1</v>
-      </c>
-      <c r="G58">
-        <v>0.84299569262103302</v>
-      </c>
-      <c r="H58">
-        <v>7.3539926734564401E-2</v>
-      </c>
-      <c r="I58">
-        <v>0.84299569262103302</v>
-      </c>
-      <c r="J58">
-        <v>8.72364205158805E-2</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>0.93023211313691301</v>
-      </c>
-      <c r="M58">
-        <v>0.84299569262103302</v>
-      </c>
-      <c r="N58">
-        <v>8.72364205158805E-2</v>
-      </c>
-      <c r="O58">
-        <v>1</v>
-      </c>
-      <c r="P58">
-        <v>7.3539926734564401E-2</v>
-      </c>
-      <c r="Q58">
-        <v>7.3539926734564401E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59">
-        <v>0.77762327260717101</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>6.9772849388556102E-2</v>
-      </c>
-      <c r="E59">
-        <v>6.9772849388556102E-2</v>
-      </c>
-      <c r="F59">
-        <v>1</v>
-      </c>
-      <c r="G59">
-        <v>0.77762327260717101</v>
-      </c>
-      <c r="H59">
-        <v>5.42569914806562E-2</v>
-      </c>
-      <c r="I59">
-        <v>0.77762327260717101</v>
-      </c>
-      <c r="J59">
-        <v>6.9772849388556102E-2</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>0.847396121995727</v>
-      </c>
-      <c r="M59">
-        <v>0.77762327260717101</v>
-      </c>
-      <c r="N59">
-        <v>6.9772849388556102E-2</v>
-      </c>
-      <c r="O59">
-        <v>1</v>
-      </c>
-      <c r="P59">
-        <v>5.42569914806562E-2</v>
-      </c>
-      <c r="Q59">
-        <v>5.42569914806562E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>75</v>
-      </c>
-      <c r="B60">
-        <v>0.82955984166660401</v>
-      </c>
-      <c r="C60">
-        <v>11</v>
-      </c>
-      <c r="D60">
-        <v>8.6040367654578204E-2</v>
-      </c>
-      <c r="E60">
-        <v>9.7688671408667896E-2</v>
-      </c>
-      <c r="F60">
-        <v>7</v>
-      </c>
-      <c r="G60">
-        <v>0.808437984001521</v>
-      </c>
-      <c r="H60">
-        <v>7.8975232573410506E-2</v>
-      </c>
-      <c r="I60">
-        <v>0.808437984001521</v>
-      </c>
-      <c r="J60">
-        <v>9.7688671408667896E-2</v>
-      </c>
-      <c r="K60">
-        <v>7</v>
-      </c>
-      <c r="L60">
-        <v>0.91560020932118202</v>
-      </c>
-      <c r="M60">
-        <v>0.82955984166660401</v>
-      </c>
-      <c r="N60">
-        <v>8.6040367654578204E-2</v>
-      </c>
-      <c r="O60">
-        <v>11</v>
-      </c>
-      <c r="P60">
-        <v>7.1375633768468297E-2</v>
-      </c>
-      <c r="Q60">
-        <v>7.8975232573410506E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>76</v>
-      </c>
-      <c r="B61">
-        <v>0.64999121134555804</v>
-      </c>
-      <c r="C61">
-        <v>30</v>
-      </c>
-      <c r="D61">
-        <v>3.8438939829242E-2</v>
-      </c>
-      <c r="E61">
-        <v>3.8438939829242E-2</v>
-      </c>
-      <c r="F61">
-        <v>30</v>
-      </c>
-      <c r="G61">
-        <v>0.64999121134555804</v>
-      </c>
-      <c r="H61">
-        <v>2.4984973062447999E-2</v>
-      </c>
-      <c r="I61">
-        <v>0.64999121134555804</v>
-      </c>
-      <c r="J61">
-        <v>3.8438939829242E-2</v>
-      </c>
-      <c r="K61">
-        <v>30</v>
-      </c>
-      <c r="L61">
-        <v>0.6884301511748</v>
-      </c>
-      <c r="M61">
-        <v>0.64999121134555804</v>
-      </c>
-      <c r="N61">
-        <v>3.8438939829242E-2</v>
-      </c>
-      <c r="O61">
-        <v>30</v>
-      </c>
-      <c r="P61">
-        <v>2.4984973062447999E-2</v>
-      </c>
-      <c r="Q61">
-        <v>2.4984973062447999E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>77</v>
-      </c>
-      <c r="B62" s="1">
-        <v>0.84637150549337803</v>
-      </c>
-      <c r="C62">
-        <v>38</v>
-      </c>
-      <c r="D62">
-        <v>7.8245179348537294E-2</v>
-      </c>
-      <c r="E62">
-        <v>9.5648187937887305E-2</v>
-      </c>
-      <c r="F62">
-        <v>33</v>
-      </c>
-      <c r="G62">
-        <v>0.79124255935625698</v>
-      </c>
-      <c r="H62">
-        <v>7.5680917021762301E-2</v>
-      </c>
-      <c r="I62">
-        <v>0.79124255935625698</v>
-      </c>
-      <c r="J62">
-        <v>9.5648187937887305E-2</v>
-      </c>
-      <c r="K62">
-        <v>33</v>
-      </c>
-      <c r="L62">
-        <v>0.92461668484191495</v>
-      </c>
-      <c r="M62">
-        <v>0.84637150549337803</v>
-      </c>
-      <c r="N62">
-        <v>7.8245179348537294E-2</v>
-      </c>
-      <c r="O62">
-        <v>38</v>
-      </c>
-      <c r="P62">
-        <v>6.6224490242820899E-2</v>
-      </c>
-      <c r="Q62">
-        <v>7.5680917021762301E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>78</v>
-      </c>
-      <c r="B63">
-        <v>0.82925990146698503</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>7.8117878787664796E-2</v>
-      </c>
-      <c r="E63">
-        <v>0.112763128276301</v>
-      </c>
-      <c r="F63">
-        <v>19</v>
-      </c>
-      <c r="G63">
-        <v>0.81505574696681904</v>
-      </c>
-      <c r="H63">
-        <v>9.1908235747556397E-2</v>
-      </c>
-      <c r="I63">
-        <v>0.81505574696681904</v>
-      </c>
-      <c r="J63">
-        <v>0.112763128276301</v>
-      </c>
-      <c r="K63">
-        <v>19</v>
-      </c>
-      <c r="L63">
-        <v>0.92793000737075804</v>
-      </c>
-      <c r="M63">
-        <v>0.817695001789007</v>
-      </c>
-      <c r="N63">
-        <v>0.11023500558175101</v>
-      </c>
-      <c r="O63">
-        <v>23</v>
-      </c>
-      <c r="P63">
-        <v>6.4780024466268904E-2</v>
-      </c>
-      <c r="Q63">
-        <v>9.1908235747556397E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64">
-        <v>0.83867048613456796</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>9.7305785707876902E-2</v>
-      </c>
-      <c r="E64">
-        <v>9.7574857389649799E-2</v>
-      </c>
-      <c r="F64">
+      <c r="I71">
+        <v>0.780521808373554</v>
+      </c>
+      <c r="J71">
+        <v>7.7692405228075995E-2</v>
+      </c>
+      <c r="K71">
         <v>2</v>
       </c>
-      <c r="G64">
-        <v>0.82340590697662697</v>
-      </c>
-      <c r="H64">
-        <v>8.1607490603331306E-2</v>
-      </c>
-      <c r="I64">
-        <v>0.83867048613456796</v>
-      </c>
-      <c r="J64">
-        <v>9.7305785707876902E-2</v>
-      </c>
-      <c r="K64">
-        <v>1</v>
-      </c>
-      <c r="L64">
-        <v>0.93597627184244503</v>
-      </c>
-      <c r="M64">
-        <v>0.83867048613456796</v>
-      </c>
-      <c r="N64">
-        <v>9.7305785707876902E-2</v>
-      </c>
-      <c r="O64">
-        <v>1</v>
-      </c>
-      <c r="P64">
-        <v>8.1607490603331306E-2</v>
-      </c>
-      <c r="Q64">
-        <v>8.0343713947039694E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>80</v>
-      </c>
-      <c r="B65" s="1">
-        <v>0.84387721655494696</v>
-      </c>
-      <c r="C65">
-        <v>35</v>
-      </c>
-      <c r="D65">
-        <v>9.7892795188504106E-2</v>
-      </c>
-      <c r="E65">
-        <v>9.8872553266767194E-2</v>
-      </c>
-      <c r="F65">
-        <v>1</v>
-      </c>
-      <c r="G65">
-        <v>0.70023354050787701</v>
-      </c>
-      <c r="H65">
-        <v>8.3157339808227093E-2</v>
-      </c>
-      <c r="I65">
-        <v>0.84262194023464698</v>
-      </c>
-      <c r="J65">
-        <v>9.8688790117511097E-2</v>
-      </c>
-      <c r="K65">
-        <v>40</v>
-      </c>
-      <c r="L65">
-        <v>0.94177001174345099</v>
-      </c>
-      <c r="M65">
-        <v>0.84387721655494696</v>
-      </c>
-      <c r="N65">
-        <v>9.7892795188504106E-2</v>
-      </c>
-      <c r="O65">
-        <v>35</v>
-      </c>
-      <c r="P65">
-        <v>8.2609499524458396E-2</v>
-      </c>
-      <c r="Q65">
-        <v>6.9233878033042207E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>81</v>
-      </c>
-      <c r="B66">
-        <v>0.79490814761436501</v>
-      </c>
-      <c r="C66">
-        <v>41</v>
-      </c>
-      <c r="D66">
-        <v>6.9129591770693999E-2</v>
-      </c>
-      <c r="E66">
-        <v>0.106917541323924</v>
-      </c>
-      <c r="F66">
-        <v>44</v>
-      </c>
-      <c r="G66">
-        <v>0.78579234254859698</v>
-      </c>
-      <c r="H66">
-        <v>8.4014985256463198E-2</v>
-      </c>
-      <c r="I66">
-        <v>0.78579234254859698</v>
-      </c>
-      <c r="J66">
-        <v>0.106917541323924</v>
-      </c>
-      <c r="K66">
-        <v>44</v>
-      </c>
-      <c r="L66">
-        <v>0.89270988387252104</v>
-      </c>
-      <c r="M66">
-        <v>0.78579234254859698</v>
-      </c>
-      <c r="N66">
-        <v>0.106917541323924</v>
-      </c>
-      <c r="O66">
-        <v>44</v>
-      </c>
-      <c r="P66">
-        <v>5.4951675739779597E-2</v>
-      </c>
-      <c r="Q66">
-        <v>8.4014985256463198E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>82</v>
-      </c>
-      <c r="B67">
-        <v>0.82872867265671302</v>
-      </c>
-      <c r="C67">
-        <v>10</v>
-      </c>
-      <c r="D67">
-        <v>7.5032867506288306E-2</v>
-      </c>
-      <c r="E67">
-        <v>8.5833775208981902E-2</v>
-      </c>
-      <c r="F67">
-        <v>34</v>
-      </c>
-      <c r="G67">
-        <v>0.74344979395140398</v>
-      </c>
-      <c r="H67">
-        <v>6.4306023880973298E-2</v>
-      </c>
-      <c r="I67">
-        <v>0.76193239679429903</v>
-      </c>
-      <c r="J67">
-        <v>8.4398595139844407E-2</v>
-      </c>
-      <c r="K67">
-        <v>31</v>
-      </c>
-      <c r="L67">
-        <v>0.90376154016300103</v>
-      </c>
-      <c r="M67">
-        <v>0.82872867265671302</v>
-      </c>
-      <c r="N67">
-        <v>7.5032867506288306E-2</v>
-      </c>
-      <c r="O67">
-        <v>10</v>
-      </c>
-      <c r="P67">
-        <v>6.2181888694113299E-2</v>
-      </c>
-      <c r="Q67">
-        <v>6.3813102493188695E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>83</v>
-      </c>
-      <c r="B68">
-        <v>0.81709183737298596</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68">
-        <v>9.8539979803038594E-2</v>
-      </c>
-      <c r="E68">
-        <v>9.8539979803038594E-2</v>
-      </c>
-      <c r="F68">
-        <v>1</v>
-      </c>
-      <c r="G68">
-        <v>0.81709183737298596</v>
-      </c>
-      <c r="H68">
-        <v>8.0516213151961794E-2</v>
-      </c>
-      <c r="I68">
-        <v>0.81709183737298596</v>
-      </c>
-      <c r="J68">
-        <v>9.8539979803038594E-2</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>0.91563181717602504</v>
-      </c>
-      <c r="M68">
-        <v>0.81709183737298596</v>
-      </c>
-      <c r="N68">
-        <v>9.8539979803038594E-2</v>
-      </c>
-      <c r="O68">
-        <v>1</v>
-      </c>
-      <c r="P68">
-        <v>8.0516213151961794E-2</v>
-      </c>
-      <c r="Q68">
-        <v>8.0516213151961794E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>84</v>
-      </c>
-      <c r="B69">
-        <v>0.80923772027933505</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
-      </c>
-      <c r="D69">
-        <v>8.2260652358195699E-2</v>
-      </c>
-      <c r="E69">
-        <v>8.6746086378793802E-2</v>
-      </c>
-      <c r="F69">
-        <v>2</v>
-      </c>
-      <c r="G69">
-        <v>0.80921613959761096</v>
-      </c>
-      <c r="H69">
-        <v>7.0196333144648501E-2</v>
-      </c>
-      <c r="I69">
-        <v>0.80921613959761096</v>
-      </c>
-      <c r="J69">
-        <v>8.6746086378793802E-2</v>
-      </c>
-      <c r="K69">
-        <v>2</v>
-      </c>
-      <c r="L69">
-        <v>0.89596222597640496</v>
-      </c>
-      <c r="M69">
-        <v>0.80921613959761096</v>
-      </c>
-      <c r="N69">
-        <v>8.6746086378793802E-2</v>
-      </c>
-      <c r="O69">
-        <v>2</v>
-      </c>
-      <c r="P69">
-        <v>6.6568422783037207E-2</v>
-      </c>
-      <c r="Q69">
-        <v>7.0196333144648501E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>85</v>
-      </c>
-      <c r="B70">
-        <v>0.81108896745507997</v>
-      </c>
-      <c r="C70">
-        <v>8</v>
-      </c>
-      <c r="D70">
-        <v>8.7404340630519994E-2</v>
-      </c>
-      <c r="E70">
-        <v>9.4358894414039302E-2</v>
-      </c>
-      <c r="F70">
-        <v>28</v>
-      </c>
-      <c r="G70">
-        <v>0.80723884873005503</v>
-      </c>
-      <c r="H70">
-        <v>7.6170165294229902E-2</v>
-      </c>
-      <c r="I70">
-        <v>0.80723884873005503</v>
-      </c>
-      <c r="J70">
-        <v>9.4358894414039302E-2</v>
-      </c>
-      <c r="K70">
-        <v>28</v>
-      </c>
-      <c r="L70">
-        <v>0.90159774314409402</v>
-      </c>
-      <c r="M70">
-        <v>0.80723884873005503</v>
-      </c>
-      <c r="N70">
-        <v>9.4358894414039302E-2</v>
-      </c>
-      <c r="O70">
-        <v>28</v>
-      </c>
-      <c r="P70">
-        <v>7.0892696393100599E-2</v>
-      </c>
-      <c r="Q70">
-        <v>7.6170165294229902E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71">
-        <v>0.81710059475107699</v>
-      </c>
-      <c r="C71">
-        <v>73</v>
-      </c>
-      <c r="D71">
-        <v>6.1054359010763698E-2</v>
-      </c>
-      <c r="E71">
-        <v>7.83163647359333E-2</v>
-      </c>
-      <c r="F71">
-        <v>28</v>
-      </c>
-      <c r="G71">
-        <v>0.80112604244075603</v>
-      </c>
-      <c r="H71">
-        <v>6.2741279339245004E-2</v>
-      </c>
-      <c r="I71">
-        <v>0.80112604244075603</v>
-      </c>
-      <c r="J71">
-        <v>7.83163647359333E-2</v>
-      </c>
-      <c r="K71">
-        <v>28</v>
-      </c>
       <c r="L71">
-        <v>0.88459380855102698</v>
+        <v>0.85821421360162997</v>
       </c>
       <c r="M71">
-        <v>0.80758101200261201</v>
+        <v>0.780521808373554</v>
       </c>
       <c r="N71">
-        <v>7.7012796548414794E-2</v>
+        <v>7.7692405228075995E-2</v>
       </c>
       <c r="O71">
         <v>2</v>
       </c>
       <c r="P71">
-        <v>4.98875530598408E-2</v>
+        <v>6.0011507929267703E-2</v>
       </c>
       <c r="Q71">
-        <v>6.2741279339245004E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.0640616625508799E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B72">
-        <v>0.80477083192589705</v>
+        <v>0.815178350260094</v>
       </c>
       <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <v>0.104791285756637</v>
+      </c>
+      <c r="E72">
+        <v>0.10529297364416999</v>
+      </c>
+      <c r="F72">
         <v>3</v>
       </c>
-      <c r="D72">
-        <v>6.7762516868234896E-2</v>
-      </c>
-      <c r="E72">
-        <v>6.8217564458707095E-2</v>
-      </c>
-      <c r="F72">
-        <v>48</v>
-      </c>
       <c r="G72">
-        <v>0.80244043106316998</v>
+        <v>0.81477379066863798</v>
       </c>
       <c r="H72">
-        <v>5.4740531830324603E-2</v>
+        <v>8.5789955266833404E-2</v>
       </c>
       <c r="I72">
-        <v>0.80244043106316998</v>
+        <v>0.81477379066863798</v>
       </c>
       <c r="J72">
-        <v>6.8217564458707095E-2</v>
+        <v>0.10529297364416999</v>
       </c>
       <c r="K72">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="L72">
-        <v>0.87253334879413202</v>
+        <v>0.92006676431280798</v>
       </c>
       <c r="M72">
-        <v>0.80477083192589705</v>
+        <v>0.81477379066863798</v>
       </c>
       <c r="N72">
-        <v>6.7762516868234896E-2</v>
+        <v>0.10529297364416999</v>
       </c>
       <c r="O72">
         <v>3</v>
       </c>
       <c r="P72">
-        <v>5.4533297073441997E-2</v>
+        <v>8.5423587444729498E-2</v>
       </c>
       <c r="Q72">
-        <v>5.4740531830324603E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>8.5789955266833404E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="B73">
-        <v>0.79692672326434999</v>
+        <v>0.78009551171862301</v>
       </c>
       <c r="C73">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D73">
-        <v>5.46972291843172E-2</v>
+        <v>8.2516763361971807E-2</v>
       </c>
       <c r="E73">
-        <v>7.5675811599809295E-2</v>
+        <v>8.2516763361971807E-2</v>
       </c>
       <c r="F73">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="G73">
-        <v>0.74035515546848196</v>
+        <v>0.78009551171862301</v>
       </c>
       <c r="H73">
-        <v>5.6026977262180401E-2</v>
+        <v>6.4370956740221905E-2</v>
       </c>
       <c r="I73">
-        <v>0.74035515546848196</v>
+        <v>0.78009551171862301</v>
       </c>
       <c r="J73">
-        <v>7.5675811599809295E-2</v>
+        <v>8.2516763361971807E-2</v>
       </c>
       <c r="K73">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L73">
-        <v>0.85162395244866695</v>
+        <v>0.86261227508059402</v>
       </c>
       <c r="M73">
-        <v>0.79692672326434999</v>
+        <v>0.78009551171862301</v>
       </c>
       <c r="N73">
-        <v>5.46972291843172E-2</v>
+        <v>8.2516763361971807E-2</v>
       </c>
       <c r="O73">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="P73">
-        <v>4.3589683625497103E-2</v>
+        <v>6.4370956740221905E-2</v>
       </c>
       <c r="Q73">
-        <v>5.6026977262180401E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>6.4370956740221905E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="B74">
-        <v>0.69481788406732603</v>
+        <v>0.73390659755844201</v>
       </c>
       <c r="C74">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D74">
-        <v>4.1257725053118199E-2</v>
+        <v>5.1942646917981297E-2</v>
       </c>
       <c r="E74">
-        <v>9.5463806772286997E-2</v>
+        <v>5.1942646917981297E-2</v>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="G74">
-        <v>0.68720694059745302</v>
+        <v>0.73390659755844201</v>
       </c>
       <c r="H74">
-        <v>6.56033905897698E-2</v>
+        <v>3.8121051267755203E-2</v>
       </c>
       <c r="I74">
-        <v>0.68720694059745302</v>
+        <v>0.73390659755844201</v>
       </c>
       <c r="J74">
-        <v>9.5463806772286997E-2</v>
+        <v>5.1942646917981297E-2</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="L74">
-        <v>0.78267074736973996</v>
+        <v>0.78584924447642401</v>
       </c>
       <c r="M74">
-        <v>0.68720694059745302</v>
+        <v>0.73390659755844201</v>
       </c>
       <c r="N74">
-        <v>9.5463806772286997E-2</v>
+        <v>5.1942646917981297E-2</v>
       </c>
       <c r="O74">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="P74">
-        <v>2.8666605222839099E-2</v>
+        <v>3.8121051267755203E-2</v>
       </c>
       <c r="Q74">
-        <v>6.56033905897698E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>3.8121051267755203E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B75">
-        <v>0.83487682122187901</v>
+        <v>0.80409244788734502</v>
       </c>
       <c r="C75">
+        <v>62</v>
+      </c>
+      <c r="D75">
+        <v>5.6643031039796198E-2</v>
+      </c>
+      <c r="E75">
+        <v>6.1536690644817697E-2</v>
+      </c>
+      <c r="F75">
+        <v>20</v>
+      </c>
+      <c r="G75">
+        <v>0.79473409472480505</v>
+      </c>
+      <c r="H75">
+        <v>4.8905306131969598E-2</v>
+      </c>
+      <c r="I75">
+        <v>0.79473409472480505</v>
+      </c>
+      <c r="J75">
+        <v>6.1536690644817697E-2</v>
+      </c>
+      <c r="K75">
+        <v>20</v>
+      </c>
+      <c r="L75">
+        <v>0.86073547892714097</v>
+      </c>
+      <c r="M75">
+        <v>0.80409244788734502</v>
+      </c>
+      <c r="N75">
+        <v>5.6643031039796198E-2</v>
+      </c>
+      <c r="O75">
+        <v>62</v>
+      </c>
+      <c r="P75">
+        <v>4.5546233484548601E-2</v>
+      </c>
+      <c r="Q75">
+        <v>4.8905306131969598E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>64</v>
+      </c>
+      <c r="B76">
+        <v>0.83612678056262402</v>
+      </c>
+      <c r="C76">
+        <v>8</v>
+      </c>
+      <c r="D76">
+        <v>9.4437500108685499E-2</v>
+      </c>
+      <c r="E76">
+        <v>0.119633123862761</v>
+      </c>
+      <c r="F76">
+        <v>17</v>
+      </c>
+      <c r="G76">
+        <v>0.81723821069250802</v>
+      </c>
+      <c r="H76">
+        <v>9.7768760085158696E-2</v>
+      </c>
+      <c r="I76">
+        <v>0.81723821069250802</v>
+      </c>
+      <c r="J76">
+        <v>0.119633123862761</v>
+      </c>
+      <c r="K76">
+        <v>17</v>
+      </c>
+      <c r="L76">
+        <v>0.93687133455527005</v>
+      </c>
+      <c r="M76">
+        <v>0.81723821069250802</v>
+      </c>
+      <c r="N76">
+        <v>0.119633123862761</v>
+      </c>
+      <c r="O76">
+        <v>17</v>
+      </c>
+      <c r="P76">
+        <v>7.8961722930257605E-2</v>
+      </c>
+      <c r="Q76">
+        <v>9.7768760085158696E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>63</v>
+      </c>
+      <c r="B77">
+        <v>0.81403269754768304</v>
+      </c>
+      <c r="C77">
+        <v>50</v>
+      </c>
+      <c r="D77">
+        <v>8.3990915130297994E-2</v>
+      </c>
+      <c r="E77">
+        <v>8.8021657468896203E-2</v>
+      </c>
+      <c r="F77">
+        <v>10</v>
+      </c>
+      <c r="G77">
+        <v>0.80960678121317198</v>
+      </c>
+      <c r="H77">
+        <v>7.1262930780441394E-2</v>
+      </c>
+      <c r="I77">
+        <v>0.80960678121317198</v>
+      </c>
+      <c r="J77">
+        <v>8.8021657468896203E-2</v>
+      </c>
+      <c r="K77">
+        <v>10</v>
+      </c>
+      <c r="L77">
+        <v>0.89921183636590596</v>
+      </c>
+      <c r="M77">
+        <v>0.81171386893457698</v>
+      </c>
+      <c r="N77">
+        <v>8.7497967431329204E-2</v>
+      </c>
+      <c r="O77">
+        <v>15</v>
+      </c>
+      <c r="P77">
+        <v>6.8371351213015102E-2</v>
+      </c>
+      <c r="Q77">
+        <v>7.1262930780441394E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78">
+        <v>0.82236377898379298</v>
+      </c>
+      <c r="C78">
+        <v>100</v>
+      </c>
+      <c r="D78">
+        <v>8.4728935351589499E-2</v>
+      </c>
+      <c r="E78">
+        <v>8.8021657468896203E-2</v>
+      </c>
+      <c r="F78">
+        <v>10</v>
+      </c>
+      <c r="G78">
+        <v>0.80960678121317198</v>
+      </c>
+      <c r="H78">
+        <v>7.1262930780441394E-2</v>
+      </c>
+      <c r="I78">
+        <v>0.80960678121317198</v>
+      </c>
+      <c r="J78">
+        <v>8.8021657468896203E-2</v>
+      </c>
+      <c r="K78">
+        <v>10</v>
+      </c>
+      <c r="L78">
+        <v>0.90709271433538297</v>
+      </c>
+      <c r="M78">
+        <v>0.82236377898379298</v>
+      </c>
+      <c r="N78">
+        <v>8.4728935351589499E-2</v>
+      </c>
+      <c r="O78">
+        <v>100</v>
+      </c>
+      <c r="P78">
+        <v>6.96780074650067E-2</v>
+      </c>
+      <c r="Q78">
+        <v>7.1262930780441394E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79">
+        <v>0.81313256418532598</v>
+      </c>
+      <c r="C79">
+        <v>85</v>
+      </c>
+      <c r="D79">
+        <v>0.111798384405177</v>
+      </c>
+      <c r="E79">
+        <v>0.11614015766048801</v>
+      </c>
+      <c r="F79">
+        <v>78</v>
+      </c>
+      <c r="G79">
+        <v>0.81073742127742598</v>
+      </c>
+      <c r="H79">
+        <v>9.4159171928417995E-2</v>
+      </c>
+      <c r="I79">
+        <v>0.81073742127742598</v>
+      </c>
+      <c r="J79">
+        <v>0.11614015766048801</v>
+      </c>
+      <c r="K79">
+        <v>78</v>
+      </c>
+      <c r="L79">
+        <v>0.926877578937914</v>
+      </c>
+      <c r="M79">
+        <v>0.81073742127742598</v>
+      </c>
+      <c r="N79">
+        <v>0.11614015766048801</v>
+      </c>
+      <c r="O79">
+        <v>78</v>
+      </c>
+      <c r="P79">
+        <v>9.09069069831583E-2</v>
+      </c>
+      <c r="Q79">
+        <v>9.4159171928417995E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0.84269278116813395</v>
+      </c>
+      <c r="C80" s="2">
         <v>1</v>
       </c>
-      <c r="D75">
-        <v>0.100731607260291</v>
-      </c>
-      <c r="E75">
-        <v>0.128559119082266</v>
-      </c>
-      <c r="F75">
-        <v>5</v>
-      </c>
-      <c r="G75">
-        <v>0.79282389162869704</v>
-      </c>
-      <c r="H75">
-        <v>0.102938469897048</v>
-      </c>
-      <c r="I75">
-        <v>0.80950356925709899</v>
-      </c>
-      <c r="J75">
-        <v>0.127162465746158</v>
-      </c>
-      <c r="K75">
+      <c r="D80">
+        <v>0.12624748282131401</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0.13094741572923599</v>
+      </c>
+      <c r="F80" s="2">
+        <v>3</v>
+      </c>
+      <c r="G80">
+        <v>0.78281889992318499</v>
+      </c>
+      <c r="H80" s="1">
+        <v>0.106387842414169</v>
+      </c>
+      <c r="I80">
+        <v>0.84269278116813395</v>
+      </c>
+      <c r="J80">
+        <v>0.12624748282131401</v>
+      </c>
+      <c r="K80" s="2">
+        <v>1</v>
+      </c>
+      <c r="L80" s="1">
+        <v>0.96894026398944799</v>
+      </c>
+      <c r="M80">
+        <v>0.84269278116813395</v>
+      </c>
+      <c r="N80">
+        <v>0.12624748282131401</v>
+      </c>
+      <c r="O80" s="2">
+        <v>1</v>
+      </c>
+      <c r="P80">
+        <v>0.106387842414169</v>
+      </c>
+      <c r="Q80">
+        <v>0.102508111928945</v>
+      </c>
+      <c r="R80">
         <v>4</v>
       </c>
-      <c r="L75">
-        <v>0.94388376878492797</v>
-      </c>
-      <c r="M75">
-        <v>0.83062573968568498</v>
-      </c>
-      <c r="N75">
-        <v>0.113258029099243</v>
-      </c>
-      <c r="O75">
-        <v>2</v>
-      </c>
-      <c r="P75">
-        <v>8.4098484066043297E-2</v>
-      </c>
-      <c r="Q75">
-        <v>0.101924741095159</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>91</v>
-      </c>
-      <c r="B76">
-        <v>0.82799883902187599</v>
-      </c>
-      <c r="C76">
-        <v>9</v>
-      </c>
-      <c r="D76">
-        <v>8.6303524471431206E-2</v>
-      </c>
-      <c r="E76">
-        <v>0.116219716655065</v>
-      </c>
-      <c r="F76">
-        <v>2</v>
-      </c>
-      <c r="G76">
-        <v>0.81773268979114899</v>
-      </c>
-      <c r="H76">
-        <v>9.5036661507112097E-2</v>
-      </c>
-      <c r="I76">
-        <v>0.81773268979114899</v>
-      </c>
-      <c r="J76">
-        <v>0.116219716655065</v>
-      </c>
-      <c r="K76">
-        <v>2</v>
-      </c>
-      <c r="L76">
-        <v>0.93654350683260401</v>
-      </c>
-      <c r="M76">
-        <v>0.82702645729026703</v>
-      </c>
-      <c r="N76">
-        <v>0.109517049542337</v>
-      </c>
-      <c r="O76">
+      <c r="S80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>59</v>
+      </c>
+      <c r="B81">
+        <v>0.773903419881249</v>
+      </c>
+      <c r="C81">
+        <v>50</v>
+      </c>
+      <c r="D81">
+        <v>6.9928161244141196E-2</v>
+      </c>
+      <c r="E81">
+        <v>6.9928161244141196E-2</v>
+      </c>
+      <c r="F81">
+        <v>50</v>
+      </c>
+      <c r="G81">
+        <v>0.773903419881249</v>
+      </c>
+      <c r="H81">
+        <v>5.4117643132848302E-2</v>
+      </c>
+      <c r="I81">
+        <v>0.773903419881249</v>
+      </c>
+      <c r="J81">
+        <v>6.9928161244141196E-2</v>
+      </c>
+      <c r="K81">
+        <v>50</v>
+      </c>
+      <c r="L81">
+        <v>0.84383158112539103</v>
+      </c>
+      <c r="M81">
+        <v>0.773903419881249</v>
+      </c>
+      <c r="N81">
+        <v>6.9928161244141196E-2</v>
+      </c>
+      <c r="O81">
+        <v>50</v>
+      </c>
+      <c r="P81">
+        <v>5.4117643132848302E-2</v>
+      </c>
+      <c r="Q81">
+        <v>5.4117643132848302E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>58</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0.84757627050790296</v>
+      </c>
+      <c r="C82" s="2">
+        <v>6</v>
+      </c>
+      <c r="D82">
+        <v>0.14797902474751201</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0.14797902474751201</v>
+      </c>
+      <c r="F82" s="2">
+        <v>6</v>
+      </c>
+      <c r="G82">
+        <v>0.84757627050790296</v>
+      </c>
+      <c r="H82" s="1">
+        <v>0.125423509908893</v>
+      </c>
+      <c r="I82">
+        <v>0.84757627050790296</v>
+      </c>
+      <c r="J82">
+        <v>0.14797902474751201</v>
+      </c>
+      <c r="K82" s="2">
+        <v>6</v>
+      </c>
+      <c r="L82" s="1">
+        <v>0.99555529525541497</v>
+      </c>
+      <c r="M82">
+        <v>0.84757627050790296</v>
+      </c>
+      <c r="N82">
+        <v>0.14797902474751201</v>
+      </c>
+      <c r="O82" s="2">
+        <v>6</v>
+      </c>
+      <c r="P82">
+        <v>0.125423509908893</v>
+      </c>
+      <c r="Q82">
+        <v>0.125423509908893</v>
+      </c>
+      <c r="R82">
         <v>4</v>
       </c>
-      <c r="P76">
-        <v>7.1459218065841101E-2</v>
-      </c>
-      <c r="Q76">
-        <v>9.5036661507112097E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B77">
-        <v>0.82689384556488799</v>
-      </c>
-      <c r="C77">
-        <v>11</v>
-      </c>
-      <c r="D77">
-        <v>0.117869849701308</v>
-      </c>
-      <c r="E77">
-        <v>0.12256241317917101</v>
-      </c>
-      <c r="F77">
-        <v>39</v>
-      </c>
-      <c r="G77">
-        <v>0.81730670589971999</v>
-      </c>
-      <c r="H77">
-        <v>0.10017108218258899</v>
-      </c>
-      <c r="I77">
-        <v>0.81730670589971999</v>
-      </c>
-      <c r="J77">
-        <v>0.12256241317917101</v>
-      </c>
-      <c r="K77">
-        <v>39</v>
-      </c>
-      <c r="L77">
-        <v>0.94476369526619597</v>
-      </c>
-      <c r="M77">
-        <v>0.82689384556488799</v>
-      </c>
-      <c r="N77">
-        <v>0.117869849701308</v>
-      </c>
-      <c r="O77">
-        <v>11</v>
-      </c>
-      <c r="P77">
-        <v>9.7465853295669994E-2</v>
-      </c>
-      <c r="Q77">
-        <v>0.10017108218258899</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>93</v>
-      </c>
-      <c r="B78">
-        <v>0.63661134505821104</v>
-      </c>
-      <c r="C78">
-        <v>44</v>
-      </c>
-      <c r="D78">
-        <v>6.1829913304786897E-2</v>
-      </c>
-      <c r="E78">
-        <v>7.7044799038180206E-2</v>
-      </c>
-      <c r="F78">
-        <v>13</v>
-      </c>
-      <c r="G78">
-        <v>0.56334399231352394</v>
-      </c>
-      <c r="H78">
-        <v>4.3402724677161601E-2</v>
-      </c>
-      <c r="I78">
-        <v>0.56334399231352394</v>
-      </c>
-      <c r="J78">
-        <v>7.7044799038180206E-2</v>
-      </c>
-      <c r="K78">
-        <v>13</v>
-      </c>
-      <c r="L78">
-        <v>0.69844125836299797</v>
-      </c>
-      <c r="M78">
-        <v>0.63661134505821104</v>
-      </c>
-      <c r="N78">
-        <v>6.1829913304786897E-2</v>
-      </c>
-      <c r="O78">
-        <v>44</v>
-      </c>
-      <c r="P78">
-        <v>3.9361624273793E-2</v>
-      </c>
-      <c r="Q78">
-        <v>4.3402724677161601E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>94</v>
-      </c>
-      <c r="B79">
-        <v>0.66169028656643203</v>
-      </c>
-      <c r="C79">
-        <v>51</v>
-      </c>
-      <c r="D79">
-        <v>5.0671072618986499E-2</v>
-      </c>
-      <c r="E79">
-        <v>5.0671072618986499E-2</v>
-      </c>
-      <c r="F79">
-        <v>51</v>
-      </c>
-      <c r="G79">
-        <v>0.66169028656643203</v>
-      </c>
-      <c r="H79">
-        <v>3.3528556561885699E-2</v>
-      </c>
-      <c r="I79">
-        <v>0.66169028656643203</v>
-      </c>
-      <c r="J79">
-        <v>5.0671072618986499E-2</v>
-      </c>
-      <c r="K79">
-        <v>51</v>
-      </c>
-      <c r="L79">
-        <v>0.71236135918541799</v>
-      </c>
-      <c r="M79">
-        <v>0.66169028656643203</v>
-      </c>
-      <c r="N79">
-        <v>5.0671072618986499E-2</v>
-      </c>
-      <c r="O79">
-        <v>51</v>
-      </c>
-      <c r="P79">
-        <v>3.3528556561885699E-2</v>
-      </c>
-      <c r="Q79">
-        <v>3.3528556561885699E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>95</v>
-      </c>
-      <c r="B80">
-        <v>0.813361663451457</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80">
-        <v>0.11462299210172799</v>
-      </c>
-      <c r="E80">
-        <v>0.123840531691435</v>
-      </c>
-      <c r="F80">
+      <c r="S82">
         <v>6</v>
       </c>
-      <c r="G80">
-        <v>0.766545189322003</v>
-      </c>
-      <c r="H80">
-        <v>9.785846325316E-2</v>
-      </c>
-      <c r="I80">
-        <v>0.80436517766217996</v>
-      </c>
-      <c r="J80">
-        <v>0.121659248772525</v>
-      </c>
-      <c r="K80">
-        <v>2</v>
-      </c>
-      <c r="L80">
-        <v>0.92798465555318499</v>
-      </c>
-      <c r="M80">
-        <v>0.813361663451457</v>
-      </c>
-      <c r="N80">
-        <v>0.11462299210172799</v>
-      </c>
-      <c r="O80">
-        <v>1</v>
-      </c>
-      <c r="P80">
-        <v>9.3229947525644799E-2</v>
-      </c>
-      <c r="Q80">
-        <v>9.4929363811148998E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>96</v>
-      </c>
-      <c r="B81">
-        <v>0.76269632165098999</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81">
-        <v>9.9390849980228999E-2</v>
-      </c>
-      <c r="E81">
-        <v>0.10582565450575</v>
-      </c>
-      <c r="F81">
-        <v>4</v>
-      </c>
-      <c r="G81">
-        <v>0.73435682062137297</v>
-      </c>
-      <c r="H81">
-        <v>7.9837717795525606E-2</v>
-      </c>
-      <c r="I81">
-        <v>0.76236666891856297</v>
-      </c>
-      <c r="J81">
-        <v>0.104723515665732</v>
-      </c>
-      <c r="K81">
-        <v>2</v>
-      </c>
-      <c r="L81">
-        <v>0.86709018458429599</v>
-      </c>
-      <c r="M81">
-        <v>0.76236666891856297</v>
-      </c>
-      <c r="N81">
-        <v>0.104723515665732</v>
-      </c>
-      <c r="O81">
-        <v>2</v>
-      </c>
-      <c r="P81">
-        <v>7.5805035685686098E-2</v>
-      </c>
-      <c r="Q81">
-        <v>7.7713791183018494E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>97</v>
-      </c>
-      <c r="B82">
-        <v>0.82213546162642004</v>
-      </c>
-      <c r="C82">
-        <v>12</v>
-      </c>
-      <c r="D82">
-        <v>0.12718788577458801</v>
-      </c>
-      <c r="E82">
-        <v>0.12885567689041699</v>
-      </c>
-      <c r="F82">
+    </row>
+    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>57</v>
+      </c>
+      <c r="B83">
+        <v>0.82899155038119599</v>
+      </c>
+      <c r="C83">
         <v>19</v>
       </c>
-      <c r="G82">
-        <v>0.81435687691880398</v>
-      </c>
-      <c r="H82">
-        <v>0.10512297010751</v>
-      </c>
-      <c r="I82">
-        <v>0.81763760968615995</v>
-      </c>
-      <c r="J82">
-        <v>0.128569147091778</v>
-      </c>
-      <c r="K82">
-        <v>18</v>
-      </c>
-      <c r="L82">
-        <v>0.94932334740100799</v>
-      </c>
-      <c r="M82">
-        <v>0.82213546162642004</v>
-      </c>
-      <c r="N82">
-        <v>0.12718788577458801</v>
-      </c>
-      <c r="O82">
-        <v>12</v>
-      </c>
-      <c r="P82">
-        <v>0.104565671184579</v>
-      </c>
-      <c r="Q82">
-        <v>0.104934506605739</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>98</v>
-      </c>
-      <c r="B83">
-        <v>0.62294811503691805</v>
-      </c>
-      <c r="C83">
-        <v>29</v>
-      </c>
       <c r="D83">
-        <v>4.8751363636149403E-2</v>
+        <v>0.119370367715673</v>
       </c>
       <c r="E83">
-        <v>5.8215912188466501E-2</v>
+        <v>0.12812442967194199</v>
       </c>
       <c r="F83">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G83">
-        <v>0.53152703027300496</v>
-      </c>
-      <c r="H83">
-        <v>3.0943330920169598E-2</v>
+        <v>0.82563950753509796</v>
+      </c>
+      <c r="H83" s="1">
+        <v>0.10578459101755699</v>
       </c>
       <c r="I83">
-        <v>0.53152703027300496</v>
+        <v>0.82563950753509796</v>
       </c>
       <c r="J83">
-        <v>5.8215912188466501E-2</v>
+        <v>0.12812442967194199</v>
       </c>
       <c r="K83">
-        <v>32</v>
-      </c>
-      <c r="L83">
-        <v>0.67169947867306801</v>
+        <v>34</v>
+      </c>
+      <c r="L83" s="1">
+        <v>0.954504161584665</v>
       </c>
       <c r="M83">
-        <v>0.62294811503691805</v>
+        <v>0.82810126906919002</v>
       </c>
       <c r="N83">
-        <v>4.8751363636149403E-2</v>
+        <v>0.12640289251547401</v>
       </c>
       <c r="O83">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="P83">
-        <v>3.0369570082618601E-2</v>
+        <v>9.8957026202189505E-2</v>
       </c>
       <c r="Q83">
-        <v>3.0943330920169598E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.10578459101755699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>99</v>
+        <v>56</v>
       </c>
       <c r="B84">
-        <v>0.78839125087886497</v>
+        <v>0.69513064757057796</v>
       </c>
       <c r="C84">
         <v>27</v>
       </c>
       <c r="D84">
-        <v>5.0767364484091401E-2</v>
+        <v>4.5414335423674998E-2</v>
       </c>
       <c r="E84">
-        <v>8.4179019569897207E-2</v>
+        <v>6.0967947360242497E-2</v>
       </c>
       <c r="F84">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="G84">
-        <v>0.63168422520973899</v>
+        <v>0.66914297170365999</v>
       </c>
       <c r="H84">
-        <v>5.3174558755925999E-2</v>
+        <v>4.0796273475304998E-2</v>
       </c>
       <c r="I84">
-        <v>0.63168422520973899</v>
+        <v>0.66914297170365999</v>
       </c>
       <c r="J84">
-        <v>8.4179019569897207E-2</v>
+        <v>6.0967947360242497E-2</v>
       </c>
       <c r="K84">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="L84">
-        <v>0.83915861536295699</v>
+        <v>0.74911606737036895</v>
       </c>
       <c r="M84">
-        <v>0.78839125087886497</v>
+        <v>0.69162316126336398</v>
       </c>
       <c r="N84">
-        <v>5.0767364484091401E-2</v>
+        <v>5.7492906107004797E-2</v>
       </c>
       <c r="O84">
+        <v>28</v>
+      </c>
+      <c r="P84">
+        <v>3.15688963920467E-2</v>
+      </c>
+      <c r="Q84">
+        <v>4.0796273475304998E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85">
+        <v>0.70157904909886504</v>
+      </c>
+      <c r="C85">
+        <v>50</v>
+      </c>
+      <c r="D85">
+        <v>6.3213312644115296E-2</v>
+      </c>
+      <c r="E85">
+        <v>6.3213312644115296E-2</v>
+      </c>
+      <c r="F85">
+        <v>50</v>
+      </c>
+      <c r="G85">
+        <v>0.70157904909886504</v>
+      </c>
+      <c r="H85">
+        <v>4.4349135775247697E-2</v>
+      </c>
+      <c r="I85">
+        <v>0.70157904909886504</v>
+      </c>
+      <c r="J85">
+        <v>6.3213312644115296E-2</v>
+      </c>
+      <c r="K85">
+        <v>50</v>
+      </c>
+      <c r="L85">
+        <v>0.76479236174298104</v>
+      </c>
+      <c r="M85">
+        <v>0.70157904909886504</v>
+      </c>
+      <c r="N85">
+        <v>6.3213312644115296E-2</v>
+      </c>
+      <c r="O85">
+        <v>50</v>
+      </c>
+      <c r="P85">
+        <v>4.4349135775247697E-2</v>
+      </c>
+      <c r="Q85">
+        <v>4.4349135775247697E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86">
+        <v>0.83594631602124703</v>
+      </c>
+      <c r="C86">
+        <v>100</v>
+      </c>
+      <c r="D86">
+        <v>0.10241671823878599</v>
+      </c>
+      <c r="E86">
+        <v>0.105376668341954</v>
+      </c>
+      <c r="F86">
+        <v>46</v>
+      </c>
+      <c r="G86">
+        <v>0.82507356197596404</v>
+      </c>
+      <c r="H86">
+        <v>8.6943503098056693E-2</v>
+      </c>
+      <c r="I86">
+        <v>0.82507356197596404</v>
+      </c>
+      <c r="J86">
+        <v>0.105376668341954</v>
+      </c>
+      <c r="K86">
+        <v>46</v>
+      </c>
+      <c r="L86">
+        <v>0.93836303426003398</v>
+      </c>
+      <c r="M86">
+        <v>0.83594631602124703</v>
+      </c>
+      <c r="N86">
+        <v>0.10241671823878599</v>
+      </c>
+      <c r="O86">
+        <v>100</v>
+      </c>
+      <c r="P86">
+        <v>8.5614878310699805E-2</v>
+      </c>
+      <c r="Q86">
+        <v>8.6943503098056693E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>53</v>
+      </c>
+      <c r="B87">
+        <v>0.80439551572199497</v>
+      </c>
+      <c r="C87" s="3">
+        <v>2</v>
+      </c>
+      <c r="D87">
+        <v>0.131025425241689</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0.131025425241689</v>
+      </c>
+      <c r="F87" s="2">
+        <v>2</v>
+      </c>
+      <c r="G87">
+        <v>0.80439551572199497</v>
+      </c>
+      <c r="H87" s="1">
+        <v>0.105396264509982</v>
+      </c>
+      <c r="I87">
+        <v>0.80439551572199497</v>
+      </c>
+      <c r="J87">
+        <v>0.131025425241689</v>
+      </c>
+      <c r="K87" s="2">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>0.935420940963684</v>
+      </c>
+      <c r="M87">
+        <v>0.80439551572199497</v>
+      </c>
+      <c r="N87">
+        <v>0.131025425241689</v>
+      </c>
+      <c r="O87" s="3">
+        <v>2</v>
+      </c>
+      <c r="P87">
+        <v>0.105396264509982</v>
+      </c>
+      <c r="Q87">
+        <v>0.105396264509982</v>
+      </c>
+      <c r="R87">
+        <v>2</v>
+      </c>
+      <c r="S87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88">
+        <v>0.82332474484753404</v>
+      </c>
+      <c r="C88">
+        <v>52</v>
+      </c>
+      <c r="D88">
+        <v>0.103068627403402</v>
+      </c>
+      <c r="E88">
+        <v>0.125891528557183</v>
+      </c>
+      <c r="F88">
+        <v>35</v>
+      </c>
+      <c r="G88">
+        <v>0.78071775470834104</v>
+      </c>
+      <c r="H88">
+        <v>9.8285751511965294E-2</v>
+      </c>
+      <c r="I88">
+        <v>0.78071775470834104</v>
+      </c>
+      <c r="J88">
+        <v>0.125891528557183</v>
+      </c>
+      <c r="K88">
+        <v>35</v>
+      </c>
+      <c r="L88">
+        <v>0.92639337225093699</v>
+      </c>
+      <c r="M88">
+        <v>0.82332474484753404</v>
+      </c>
+      <c r="N88">
+        <v>0.103068627403402</v>
+      </c>
+      <c r="O88">
+        <v>52</v>
+      </c>
+      <c r="P88">
+        <v>8.48589513586923E-2</v>
+      </c>
+      <c r="Q88">
+        <v>9.8285751511965294E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>51</v>
+      </c>
+      <c r="B89">
+        <v>0.82577946920280298</v>
+      </c>
+      <c r="C89">
+        <v>31</v>
+      </c>
+      <c r="D89">
+        <v>0.107778281069905</v>
+      </c>
+      <c r="E89">
+        <v>0.115777355101869</v>
+      </c>
+      <c r="F89">
+        <v>15</v>
+      </c>
+      <c r="G89">
+        <v>0.81803106617325005</v>
+      </c>
+      <c r="H89">
+        <v>9.4709473232701402E-2</v>
+      </c>
+      <c r="I89">
+        <v>0.81803106617325005</v>
+      </c>
+      <c r="J89">
+        <v>0.115777355101869</v>
+      </c>
+      <c r="K89">
+        <v>15</v>
+      </c>
+      <c r="L89">
+        <v>0.93685765449470004</v>
+      </c>
+      <c r="M89">
+        <v>0.82456891806346799</v>
+      </c>
+      <c r="N89">
+        <v>0.11228873643123199</v>
+      </c>
+      <c r="O89">
         <v>27</v>
       </c>
-      <c r="P84">
-        <v>4.0024545989436097E-2</v>
-      </c>
-      <c r="Q84">
-        <v>5.3174558755925999E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>100</v>
-      </c>
-      <c r="B85">
-        <v>0.82098761956948696</v>
-      </c>
-      <c r="C85">
-        <v>3</v>
-      </c>
-      <c r="D85">
-        <v>0.10240620540272399</v>
-      </c>
-      <c r="E85">
-        <v>0.124331322106701</v>
-      </c>
-      <c r="F85">
-        <v>23</v>
-      </c>
-      <c r="G85">
-        <v>0.76097221283931704</v>
-      </c>
-      <c r="H85">
-        <v>9.5647499275487699E-2</v>
-      </c>
-      <c r="I85">
-        <v>0.78731581357293501</v>
-      </c>
-      <c r="J85">
-        <v>0.121485555893292</v>
-      </c>
-      <c r="K85">
-        <v>11</v>
-      </c>
-      <c r="L85">
-        <v>0.92378303450239896</v>
-      </c>
-      <c r="M85">
-        <v>0.80913951253931404</v>
-      </c>
-      <c r="N85">
-        <v>0.114643521963084</v>
-      </c>
-      <c r="O85">
-        <v>6</v>
-      </c>
-      <c r="P85">
-        <v>8.4074226802726901E-2</v>
-      </c>
-      <c r="Q85">
-        <v>9.4612681308774205E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>101</v>
-      </c>
-      <c r="B86">
-        <v>0.83776034434010604</v>
-      </c>
-      <c r="C86">
-        <v>3</v>
-      </c>
-      <c r="D86">
-        <v>0.14755732104420199</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0.14962503316658801</v>
-      </c>
-      <c r="F86">
-        <v>4</v>
-      </c>
-      <c r="G86">
-        <v>0.83248746443878896</v>
-      </c>
-      <c r="H86">
-        <v>0.124560964477422</v>
-      </c>
-      <c r="I86">
-        <v>0.83248746443878896</v>
-      </c>
-      <c r="J86">
-        <v>0.14962503316658801</v>
-      </c>
-      <c r="K86">
-        <v>4</v>
-      </c>
-      <c r="L86">
-        <v>0.98531766538430898</v>
-      </c>
-      <c r="M86">
-        <v>0.83776034434010604</v>
-      </c>
-      <c r="N86">
-        <v>0.14755732104420199</v>
-      </c>
-      <c r="O86">
-        <v>3</v>
-      </c>
-      <c r="P86">
-        <v>0.123617672087894</v>
-      </c>
-      <c r="Q86">
-        <v>0.124560964477422</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>102</v>
-      </c>
-      <c r="B87">
-        <v>0.81810644217753403</v>
-      </c>
-      <c r="C87">
-        <v>9</v>
-      </c>
-      <c r="D87">
-        <v>9.4032896448846603E-2</v>
-      </c>
-      <c r="E87">
-        <v>0.102589048424001</v>
-      </c>
-      <c r="F87">
+      <c r="P89">
+        <v>8.9001091733497101E-2</v>
+      </c>
+      <c r="Q89">
+        <v>9.4709473232701402E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>50</v>
       </c>
-      <c r="G87">
-        <v>0.81394011955072099</v>
-      </c>
-      <c r="H87">
-        <v>8.3501342338826195E-2</v>
-      </c>
-      <c r="I87">
-        <v>0.81394011955072099</v>
-      </c>
-      <c r="J87">
-        <v>0.102589048424001</v>
-      </c>
-      <c r="K87">
-        <v>50</v>
-      </c>
-      <c r="L87">
-        <v>0.91880045746967598</v>
-      </c>
-      <c r="M87">
-        <v>0.81778413938743399</v>
-      </c>
-      <c r="N87">
-        <v>0.101016318082242</v>
-      </c>
-      <c r="O87">
-        <v>36</v>
-      </c>
-      <c r="P87">
-        <v>7.6928918361414397E-2</v>
-      </c>
-      <c r="Q87">
-        <v>8.3501342338826195E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>103</v>
-      </c>
-      <c r="B88">
-        <v>0.59472058334146505</v>
-      </c>
-      <c r="C88">
-        <v>4</v>
-      </c>
-      <c r="D88">
-        <v>3.09300159319825E-2</v>
-      </c>
-      <c r="E88">
-        <v>3.0981153128851999E-2</v>
-      </c>
-      <c r="F88">
-        <v>40</v>
-      </c>
-      <c r="G88">
-        <v>0.56656811488679204</v>
-      </c>
-      <c r="H88">
-        <v>1.83947171178294E-2</v>
-      </c>
-      <c r="I88">
-        <v>0.59472058334146505</v>
-      </c>
-      <c r="J88">
-        <v>3.09300159319825E-2</v>
-      </c>
-      <c r="K88">
-        <v>4</v>
-      </c>
-      <c r="L88">
-        <v>0.62565059927344702</v>
-      </c>
-      <c r="M88">
-        <v>0.59472058334146505</v>
-      </c>
-      <c r="N88">
-        <v>3.09300159319825E-2</v>
-      </c>
-      <c r="O88">
-        <v>4</v>
-      </c>
-      <c r="P88">
-        <v>1.83947171178294E-2</v>
-      </c>
-      <c r="Q88">
-        <v>1.7552933525232701E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>104</v>
-      </c>
-      <c r="B89">
-        <v>0.81786639618878898</v>
-      </c>
-      <c r="C89">
-        <v>22</v>
-      </c>
-      <c r="D89">
-        <v>0.108257881395315</v>
-      </c>
-      <c r="E89">
-        <v>0.108257881395315</v>
-      </c>
-      <c r="F89">
-        <v>22</v>
-      </c>
-      <c r="G89">
-        <v>0.81786639618878898</v>
-      </c>
-      <c r="H89">
-        <v>8.8540483315819804E-2</v>
-      </c>
-      <c r="I89">
-        <v>0.81786639618878898</v>
-      </c>
-      <c r="J89">
-        <v>0.108257881395315</v>
-      </c>
-      <c r="K89">
-        <v>22</v>
-      </c>
-      <c r="L89">
-        <v>0.92612427758410398</v>
-      </c>
-      <c r="M89">
-        <v>0.81786639618878898</v>
-      </c>
-      <c r="N89">
-        <v>0.108257881395315</v>
-      </c>
-      <c r="O89">
-        <v>22</v>
-      </c>
-      <c r="P89">
-        <v>8.8540483315819804E-2</v>
-      </c>
-      <c r="Q89">
-        <v>8.8540483315819804E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>105</v>
-      </c>
-      <c r="B90">
-        <v>0.80970874211523203</v>
-      </c>
-      <c r="C90">
-        <v>1</v>
+      <c r="B90" s="1">
+        <v>0.84127111466410398</v>
+      </c>
+      <c r="C90" s="2">
+        <v>48</v>
       </c>
       <c r="D90">
-        <v>0.101284762815966</v>
-      </c>
-      <c r="E90" s="1">
-        <v>0.13458572414259001</v>
+        <v>0.10345484240477699</v>
+      </c>
+      <c r="E90">
+        <v>0.123255831431392</v>
       </c>
       <c r="F90">
-        <v>12</v>
+        <v>226</v>
       </c>
       <c r="G90">
-        <v>0.77641131403207198</v>
+        <v>0.81996081698831202</v>
       </c>
       <c r="H90">
-        <v>0.10482654445727201</v>
+        <v>0.101676238684241</v>
       </c>
       <c r="I90">
-        <v>0.78894812629640398</v>
+        <v>0.825690175222625</v>
       </c>
       <c r="J90">
-        <v>0.13286874125598599</v>
+        <v>0.12314090894545</v>
       </c>
       <c r="K90">
-        <v>9</v>
-      </c>
-      <c r="L90">
-        <v>0.92181686755239101</v>
+        <v>236</v>
+      </c>
+      <c r="L90" s="1">
+        <v>0.95383200069489305</v>
       </c>
       <c r="M90">
-        <v>0.78894812629640398</v>
+        <v>0.83626689861208003</v>
       </c>
       <c r="N90">
-        <v>0.13286874125598599</v>
-      </c>
-      <c r="O90">
-        <v>9</v>
+        <v>0.117565102082812</v>
+      </c>
+      <c r="O90" s="2">
+        <v>97</v>
       </c>
       <c r="P90">
-        <v>8.2011157895156103E-2</v>
+        <v>8.7033570587266698E-2</v>
       </c>
       <c r="Q90">
-        <v>0.104493878931506</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>0.101064952239057</v>
+      </c>
+      <c r="R90">
+        <v>2</v>
+      </c>
+      <c r="S90" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="B91">
-        <v>0.81417954001245996</v>
+        <v>0.81338715367697201</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="D91">
-        <v>0.106110795390418</v>
+        <v>0.101341282530792</v>
       </c>
       <c r="E91">
-        <v>0.112211174696212</v>
+        <v>0.10364062960399401</v>
       </c>
       <c r="F91">
+        <v>807</v>
+      </c>
+      <c r="G91">
+        <v>0.67627476148655197</v>
+      </c>
+      <c r="H91">
+        <v>8.2429697347695396E-2</v>
+      </c>
+      <c r="I91">
+        <v>0.81338715367697201</v>
+      </c>
+      <c r="J91">
+        <v>0.101341282530792</v>
+      </c>
+      <c r="K91">
+        <v>63</v>
+      </c>
+      <c r="L91">
+        <v>0.91472843620776501</v>
+      </c>
+      <c r="M91">
+        <v>0.81338715367697201</v>
+      </c>
+      <c r="N91">
+        <v>0.101341282530792</v>
+      </c>
+      <c r="O91">
+        <v>63</v>
+      </c>
+      <c r="P91">
+        <v>8.2429697347695396E-2</v>
+      </c>
+      <c r="Q91">
+        <v>7.0089542065757696E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92">
+        <v>0.82859997047512501</v>
+      </c>
+      <c r="C92">
+        <v>78</v>
+      </c>
+      <c r="D92">
+        <v>9.4913984879054905E-2</v>
+      </c>
+      <c r="E92">
+        <v>0.10993982030687199</v>
+      </c>
+      <c r="F92">
+        <v>172</v>
+      </c>
+      <c r="G92">
+        <v>0.79418191075981504</v>
+      </c>
+      <c r="H92">
+        <v>8.9566102475354695E-2</v>
+      </c>
+      <c r="I92">
+        <v>0.82385503536729698</v>
+      </c>
+      <c r="J92">
+        <v>0.10871585246234899</v>
+      </c>
+      <c r="K92">
+        <v>93</v>
+      </c>
+      <c r="L92">
+        <v>0.93257088782964603</v>
+      </c>
+      <c r="M92">
+        <v>0.82385503536729698</v>
+      </c>
+      <c r="N92">
+        <v>0.10871585246234899</v>
+      </c>
+      <c r="O92">
+        <v>93</v>
+      </c>
+      <c r="P92">
+        <v>7.8645725068461403E-2</v>
+      </c>
+      <c r="Q92">
+        <v>8.7312216559902997E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>47</v>
+      </c>
+      <c r="B93">
+        <v>0.81808892742135197</v>
+      </c>
+      <c r="C93">
+        <v>26</v>
+      </c>
+      <c r="D93">
+        <v>0.116380145279579</v>
+      </c>
+      <c r="E93">
+        <v>0.11945556741013399</v>
+      </c>
+      <c r="F93">
+        <v>35</v>
+      </c>
+      <c r="G93">
+        <v>0.79750267725558699</v>
+      </c>
+      <c r="H93">
+        <v>9.5266134822667894E-2</v>
+      </c>
+      <c r="I93">
+        <v>0.79750267725558699</v>
+      </c>
+      <c r="J93">
+        <v>0.11945556741013399</v>
+      </c>
+      <c r="K93">
+        <v>35</v>
+      </c>
+      <c r="L93">
+        <v>0.93446907270093105</v>
+      </c>
+      <c r="M93">
+        <v>0.81808892742135197</v>
+      </c>
+      <c r="N93">
+        <v>0.116380145279579</v>
+      </c>
+      <c r="O93">
+        <v>26</v>
+      </c>
+      <c r="P93">
+        <v>9.5209308224911998E-2</v>
+      </c>
+      <c r="Q93">
+        <v>9.5266134822667894E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>46</v>
+      </c>
+      <c r="B94" s="1">
+        <v>0.84567247906361098</v>
+      </c>
+      <c r="C94" s="2">
+        <v>123</v>
+      </c>
+      <c r="D94">
+        <v>0.114009636901962</v>
+      </c>
+      <c r="E94">
+        <v>0.122091941580178</v>
+      </c>
+      <c r="F94">
+        <v>487</v>
+      </c>
+      <c r="G94">
+        <v>0.82959971901326801</v>
+      </c>
+      <c r="H94">
+        <v>0.1012874404287</v>
+      </c>
+      <c r="I94">
+        <v>0.82959971901326801</v>
+      </c>
+      <c r="J94">
+        <v>0.122091941580178</v>
+      </c>
+      <c r="K94">
+        <v>487</v>
+      </c>
+      <c r="L94" s="1">
+        <v>0.95968211596557296</v>
+      </c>
+      <c r="M94">
+        <v>0.84567247906361098</v>
+      </c>
+      <c r="N94">
+        <v>0.114009636901962</v>
+      </c>
+      <c r="O94" s="2">
+        <v>123</v>
+      </c>
+      <c r="P94">
+        <v>9.64148122760244E-2</v>
+      </c>
+      <c r="Q94">
+        <v>0.1012874404287</v>
+      </c>
+      <c r="R94">
         <v>2</v>
       </c>
-      <c r="G91">
-        <v>0.80002057983851305</v>
-      </c>
-      <c r="H91">
-        <v>8.9771249044824294E-2</v>
-      </c>
-      <c r="I91">
-        <v>0.80002057983851305</v>
-      </c>
-      <c r="J91">
-        <v>0.112211174696212</v>
-      </c>
-      <c r="K91">
-        <v>2</v>
-      </c>
-      <c r="L91">
-        <v>0.92029033540287897</v>
-      </c>
-      <c r="M91">
-        <v>0.81417954001245996</v>
-      </c>
-      <c r="N91">
-        <v>0.106110795390418</v>
-      </c>
-      <c r="O91">
-        <v>1</v>
-      </c>
-      <c r="P91">
-        <v>8.6393238581327206E-2</v>
-      </c>
-      <c r="Q91">
-        <v>8.9771249044824294E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>107</v>
-      </c>
-      <c r="B92">
-        <v>0.76782970902985703</v>
-      </c>
-      <c r="C92">
-        <v>19</v>
-      </c>
-      <c r="D92">
-        <v>0.101452154384649</v>
-      </c>
-      <c r="E92">
-        <v>0.105941246763622</v>
-      </c>
-      <c r="F92">
-        <v>50</v>
-      </c>
-      <c r="G92">
-        <v>0.75833358354413505</v>
-      </c>
-      <c r="H92">
-        <v>8.0834388424770198E-2</v>
-      </c>
-      <c r="I92">
-        <v>0.763925325837017</v>
-      </c>
-      <c r="J92">
-        <v>0.105814515752834</v>
-      </c>
-      <c r="K92">
-        <v>43</v>
-      </c>
-      <c r="L92">
-        <v>0.86973984158985196</v>
-      </c>
-      <c r="M92">
-        <v>0.763925325837017</v>
-      </c>
-      <c r="N92">
-        <v>0.105814515752834</v>
-      </c>
-      <c r="O92">
-        <v>43</v>
-      </c>
-      <c r="P92">
-        <v>7.78979781816177E-2</v>
-      </c>
-      <c r="Q92">
-        <v>8.0338805303391395E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93">
-        <v>0.80767640487110304</v>
-      </c>
-      <c r="C93">
-        <v>2</v>
-      </c>
-      <c r="D93">
-        <v>7.1009923340673201E-2</v>
-      </c>
-      <c r="E93">
-        <v>7.1392896826616106E-2</v>
-      </c>
-      <c r="F93">
-        <v>1</v>
-      </c>
-      <c r="G93">
-        <v>0.80464603928809997</v>
-      </c>
-      <c r="H93">
-        <v>5.7446011664840597E-2</v>
-      </c>
-      <c r="I93">
-        <v>0.80464603928809997</v>
-      </c>
-      <c r="J93">
-        <v>7.1392896826616106E-2</v>
-      </c>
-      <c r="K93">
-        <v>1</v>
-      </c>
-      <c r="L93">
-        <v>0.87868632821177695</v>
-      </c>
-      <c r="M93">
-        <v>0.80767640487110304</v>
-      </c>
-      <c r="N93">
-        <v>7.1009923340673201E-2</v>
-      </c>
-      <c r="O93">
-        <v>2</v>
-      </c>
-      <c r="P93">
-        <v>5.7353039593967599E-2</v>
-      </c>
-      <c r="Q93">
-        <v>5.7446011664840597E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>109</v>
-      </c>
-      <c r="B94">
-        <v>0.80307565373827405</v>
-      </c>
-      <c r="C94">
-        <v>2</v>
-      </c>
-      <c r="D94">
-        <v>6.9266795296101399E-2</v>
-      </c>
-      <c r="E94">
-        <v>6.9266795296101399E-2</v>
-      </c>
-      <c r="F94">
-        <v>2</v>
-      </c>
-      <c r="G94">
-        <v>0.80307565373827405</v>
-      </c>
-      <c r="H94">
-        <v>5.5626476914771898E-2</v>
-      </c>
-      <c r="I94">
-        <v>0.80307565373827405</v>
-      </c>
-      <c r="J94">
-        <v>6.9266795296101399E-2</v>
-      </c>
-      <c r="K94">
-        <v>2</v>
-      </c>
-      <c r="L94">
-        <v>0.87234244903437597</v>
-      </c>
-      <c r="M94">
-        <v>0.80307565373827405</v>
-      </c>
-      <c r="N94">
-        <v>6.9266795296101399E-2</v>
-      </c>
-      <c r="O94">
-        <v>2</v>
-      </c>
-      <c r="P94">
-        <v>5.5626476914771898E-2</v>
-      </c>
-      <c r="Q94">
-        <v>5.5626476914771898E-2</v>
+      <c r="S94">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -6378,13 +6470,14 @@
       </filters>
     </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:Q94">
-      <sortCondition ref="A1:A94"/>
+      <sortCondition descending="1" ref="A1:A94"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:Q95">
-    <sortCondition descending="1" ref="E1:E95"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:Q97">
+    <sortCondition descending="1" ref="L1:L97"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/auc_results_2.xlsx
+++ b/auc_results_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\deeplearning\model_building_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{52A308E8-6BBA-44F9-B72B-8E81417C3FE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F0A1CE-7920-4044-9527-5A463E6F4080}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FA728105-F3DD-4EDE-BFFC-2610425E74B1}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="114">
   <si>
     <t>Folder</t>
   </si>
@@ -365,6 +365,10 @@
   </si>
   <si>
     <t>Zhongda_GRU_BN_model_undersample_FocalLoss_50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +537,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,6 +726,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,7 +990,7 @@
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1339,19 +1349,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694E68C3-06E6-4DD2-9A74-D9631B28CDF6}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S94"/>
+  <dimension ref="A1:W94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:S94"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="57.77734375" customWidth="1"/>
-    <col min="2" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="61" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="3" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" customWidth="1"/>
+    <col min="9" max="9" width="8.88671875" style="3" customWidth="1"/>
+    <col min="10" max="13" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3" customWidth="1"/>
+    <col min="15" max="18" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="3" customWidth="1"/>
+    <col min="20" max="22" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1364,47 +1382,59 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1417,47 +1447,51 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2">
+      <c r="E2"/>
+      <c r="F2">
         <v>3</v>
-      </c>
-      <c r="F2">
-        <v>4</v>
       </c>
       <c r="G2">
         <v>4</v>
       </c>
       <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="I2"/>
+      <c r="J2">
         <v>12</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
       </c>
       <c r="K2">
         <v>4</v>
       </c>
       <c r="L2">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
-      <c r="N2">
+      <c r="N2"/>
+      <c r="O2">
+        <v>7</v>
+      </c>
+      <c r="P2">
+        <v>4</v>
+      </c>
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>4</v>
       </c>
-      <c r="P2">
+      <c r="S2"/>
+      <c r="T2">
         <v>12</v>
       </c>
-      <c r="Q2">
+      <c r="U2">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1470,47 +1504,51 @@
       <c r="D3">
         <v>0.16136668367510901</v>
       </c>
-      <c r="E3">
+      <c r="E3"/>
+      <c r="F3">
         <v>0.19284790242029601</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>8</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.77393392033556097</v>
       </c>
-      <c r="H3">
+      <c r="I3"/>
+      <c r="J3">
         <v>0.14925153314862899</v>
       </c>
-      <c r="I3">
+      <c r="K3">
         <v>0.77393392033556097</v>
       </c>
-      <c r="J3">
+      <c r="L3">
         <v>0.19284790242029601</v>
       </c>
-      <c r="K3">
+      <c r="M3">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="N3"/>
+      <c r="O3">
         <v>0.966781822755857</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>0.77393392033556097</v>
       </c>
-      <c r="N3">
+      <c r="Q3">
         <v>0.19284790242029601</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>8</v>
       </c>
-      <c r="P3">
+      <c r="S3"/>
+      <c r="T3">
         <v>0.126274693173693</v>
       </c>
-      <c r="Q3">
+      <c r="U3">
         <v>0.14925153314862899</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1523,47 +1561,51 @@
       <c r="D4">
         <v>0.174521330586622</v>
       </c>
-      <c r="E4">
+      <c r="E4"/>
+      <c r="F4">
         <v>0.17763365608413501</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>21</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.762646492676051</v>
       </c>
-      <c r="H4">
+      <c r="I4"/>
+      <c r="J4">
         <v>0.13611969665734999</v>
       </c>
-      <c r="I4">
+      <c r="K4">
         <v>0.76673857300327697</v>
       </c>
-      <c r="J4">
+      <c r="L4">
         <v>0.17753077965567399</v>
       </c>
-      <c r="K4">
+      <c r="M4">
         <v>12</v>
       </c>
-      <c r="L4">
+      <c r="N4"/>
+      <c r="O4">
         <v>0.94426935265895096</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>0.76673857300327697</v>
       </c>
-      <c r="N4">
+      <c r="Q4">
         <v>0.17753077965567399</v>
       </c>
-      <c r="O4">
+      <c r="R4">
         <v>12</v>
       </c>
-      <c r="P4">
+      <c r="S4"/>
+      <c r="T4">
         <v>0.133944019553599</v>
       </c>
-      <c r="Q4">
+      <c r="U4">
         <v>0.13547168479378899</v>
       </c>
     </row>
-    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1576,47 +1618,51 @@
       <c r="D5">
         <v>0.18996757494911601</v>
       </c>
-      <c r="E5">
+      <c r="E5"/>
+      <c r="F5">
         <v>0.19602364863083899</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>71</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.75910108796323605</v>
       </c>
-      <c r="H5">
+      <c r="I5"/>
+      <c r="J5">
         <v>0.14880176494219299</v>
       </c>
-      <c r="I5">
+      <c r="K5">
         <v>0.75910108796323605</v>
       </c>
-      <c r="J5">
+      <c r="L5">
         <v>0.19602364863083899</v>
       </c>
-      <c r="K5">
+      <c r="M5">
         <v>71</v>
       </c>
-      <c r="L5">
+      <c r="N5"/>
+      <c r="O5">
         <v>0.96264084019213803</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>0.77267326524302204</v>
       </c>
-      <c r="N5">
+      <c r="Q5">
         <v>0.18996757494911601</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>18</v>
       </c>
-      <c r="P5">
+      <c r="S5"/>
+      <c r="T5">
         <v>0.14678286642623201</v>
       </c>
-      <c r="Q5">
+      <c r="U5">
         <v>0.14880176494219299</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1629,47 +1675,51 @@
       <c r="D6">
         <v>0.19729962262173101</v>
       </c>
-      <c r="E6">
+      <c r="E6"/>
+      <c r="F6">
         <v>0.20208020954286901</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>38</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.748109512899923</v>
       </c>
-      <c r="H6">
+      <c r="I6"/>
+      <c r="J6">
         <v>0.15145290458039001</v>
       </c>
-      <c r="I6">
+      <c r="K6">
         <v>0.76762896232579603</v>
       </c>
-      <c r="J6">
+      <c r="L6">
         <v>0.19729962262173101</v>
       </c>
-      <c r="K6">
+      <c r="M6">
         <v>22</v>
       </c>
-      <c r="L6">
+      <c r="N6"/>
+      <c r="O6">
         <v>0.96492858494752698</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>0.76762896232579603</v>
       </c>
-      <c r="N6">
+      <c r="Q6">
         <v>0.19729962262173101</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>22</v>
       </c>
-      <c r="P6">
+      <c r="S6"/>
+      <c r="T6">
         <v>0.15145290458039001</v>
       </c>
-      <c r="Q6">
+      <c r="U6">
         <v>0.15117812712782999</v>
       </c>
     </row>
-    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1682,47 +1732,51 @@
       <c r="D7">
         <v>0.206767117433206</v>
       </c>
-      <c r="E7">
+      <c r="E7"/>
+      <c r="F7">
         <v>0.21438539505777601</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>30</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.74991528575722899</v>
       </c>
-      <c r="H7">
+      <c r="I7"/>
+      <c r="J7">
         <v>0.160770884796929</v>
       </c>
-      <c r="I7">
+      <c r="K7">
         <v>0.74991528575722899</v>
       </c>
-      <c r="J7">
+      <c r="L7">
         <v>0.21438539505777601</v>
       </c>
-      <c r="K7">
+      <c r="M7">
         <v>30</v>
       </c>
-      <c r="L7">
+      <c r="N7"/>
+      <c r="O7">
         <v>0.96434204114814404</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>0.75757492371493795</v>
       </c>
-      <c r="N7">
+      <c r="Q7">
         <v>0.206767117433206</v>
       </c>
-      <c r="O7">
+      <c r="R7">
         <v>24</v>
       </c>
-      <c r="P7">
+      <c r="S7"/>
+      <c r="T7">
         <v>0.15664158321621899</v>
       </c>
-      <c r="Q7">
+      <c r="U7">
         <v>0.160770884796929</v>
       </c>
     </row>
-    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1735,47 +1789,51 @@
       <c r="D8">
         <v>0.213478376629616</v>
       </c>
-      <c r="E8">
+      <c r="E8"/>
+      <c r="F8">
         <v>0.22068485498114801</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>31</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.72548693654249696</v>
       </c>
-      <c r="H8">
+      <c r="I8"/>
+      <c r="J8">
         <v>0.16010397938159901</v>
       </c>
-      <c r="I8">
+      <c r="K8">
         <v>0.72548693654249696</v>
       </c>
-      <c r="J8">
+      <c r="L8">
         <v>0.22068485498114801</v>
       </c>
-      <c r="K8">
+      <c r="M8">
         <v>31</v>
       </c>
-      <c r="L8">
+      <c r="N8"/>
+      <c r="O8">
         <v>0.95050840145155602</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0.73703002482194002</v>
       </c>
-      <c r="N8">
+      <c r="Q8">
         <v>0.213478376629616</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>25</v>
       </c>
-      <c r="P8">
+      <c r="S8"/>
+      <c r="T8">
         <v>0.15733997322627299</v>
       </c>
-      <c r="Q8">
+      <c r="U8">
         <v>0.16010397938159901</v>
       </c>
     </row>
-    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1788,47 +1846,51 @@
       <c r="D9">
         <v>0.17536255430182801</v>
       </c>
-      <c r="E9">
+      <c r="E9"/>
+      <c r="F9">
         <v>0.18395294155061601</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.75972452667335399</v>
       </c>
-      <c r="H9">
+      <c r="I9"/>
+      <c r="J9">
         <v>0.13975356144971299</v>
       </c>
-      <c r="I9">
+      <c r="K9">
         <v>0.75972452667335399</v>
       </c>
-      <c r="J9">
+      <c r="L9">
         <v>0.18395294155061601</v>
       </c>
-      <c r="K9">
+      <c r="M9">
         <v>2</v>
       </c>
-      <c r="L9">
+      <c r="N9"/>
+      <c r="O9">
         <v>0.94367746822397103</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.75972452667335399</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>0.18395294155061601</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>2</v>
       </c>
-      <c r="P9">
+      <c r="S9"/>
+      <c r="T9">
         <v>0.13391652543834601</v>
       </c>
-      <c r="Q9">
+      <c r="U9">
         <v>0.13975356144971299</v>
       </c>
     </row>
-    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1841,47 +1903,51 @@
       <c r="D10">
         <v>0.172222055772178</v>
       </c>
-      <c r="E10">
+      <c r="E10"/>
+      <c r="F10">
         <v>0.17847105369563299</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.75070976193292804</v>
       </c>
-      <c r="H10">
+      <c r="I10"/>
+      <c r="J10">
         <v>0.133979962231768</v>
       </c>
-      <c r="I10">
+      <c r="K10">
         <v>0.75070976193292804</v>
       </c>
-      <c r="J10">
+      <c r="L10">
         <v>0.17847105369563299</v>
       </c>
-      <c r="K10">
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="L10">
+      <c r="N10"/>
+      <c r="O10">
         <v>0.93088427446421396</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>0.75866221869203598</v>
       </c>
-      <c r="N10">
+      <c r="Q10">
         <v>0.172222055772178</v>
       </c>
-      <c r="O10">
+      <c r="R10">
         <v>2</v>
       </c>
-      <c r="P10">
+      <c r="S10"/>
+      <c r="T10">
         <v>0.13065836693982399</v>
       </c>
-      <c r="Q10">
+      <c r="U10">
         <v>0.133979962231768</v>
       </c>
     </row>
-    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1894,47 +1960,51 @@
       <c r="D11">
         <v>0.177219551348889</v>
       </c>
-      <c r="E11">
+      <c r="E11"/>
+      <c r="F11">
         <v>0.19357170823870801</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>8</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.77785031521533898</v>
       </c>
-      <c r="H11">
+      <c r="I11"/>
+      <c r="J11">
         <v>0.15056981427025101</v>
       </c>
-      <c r="I11">
+      <c r="K11">
         <v>0.77785031521533898</v>
       </c>
-      <c r="J11">
+      <c r="L11">
         <v>0.19357170823870801</v>
       </c>
-      <c r="K11">
+      <c r="M11">
         <v>8</v>
       </c>
-      <c r="L11">
+      <c r="N11"/>
+      <c r="O11">
         <v>0.97142202345404705</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>0.77785031521533898</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>0.19357170823870801</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>8</v>
       </c>
-      <c r="P11">
+      <c r="S11"/>
+      <c r="T11">
         <v>0.13811418323920099</v>
       </c>
-      <c r="Q11">
+      <c r="U11">
         <v>0.15056981427025101</v>
       </c>
     </row>
-    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1947,47 +2017,51 @@
       <c r="D12">
         <v>0.17358753673205901</v>
       </c>
-      <c r="E12">
+      <c r="E12"/>
+      <c r="F12">
         <v>0.17676233145804399</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>100</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.76431047644863603</v>
       </c>
-      <c r="H12">
+      <c r="I12"/>
+      <c r="J12">
         <v>0.13510130177486901</v>
       </c>
-      <c r="I12">
+      <c r="K12">
         <v>0.76431047644863603</v>
       </c>
-      <c r="J12">
+      <c r="L12">
         <v>0.17676233145804399</v>
       </c>
-      <c r="K12">
+      <c r="M12">
         <v>100</v>
       </c>
-      <c r="L12">
+      <c r="N12"/>
+      <c r="O12">
         <v>0.94142160965879595</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>0.76491560215480603</v>
       </c>
-      <c r="N12">
+      <c r="Q12">
         <v>0.17650600750399001</v>
       </c>
-      <c r="O12">
+      <c r="R12">
         <v>91</v>
       </c>
-      <c r="P12">
+      <c r="S12"/>
+      <c r="T12">
         <v>0.132964149157281</v>
       </c>
-      <c r="Q12">
+      <c r="U12">
         <v>0.13510130177486901</v>
       </c>
     </row>
-    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -2000,47 +2074,51 @@
       <c r="D13">
         <v>0.19239533300740699</v>
       </c>
-      <c r="E13">
+      <c r="E13"/>
+      <c r="F13">
         <v>0.19713217013764101</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>92</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.77344638958619205</v>
       </c>
-      <c r="H13">
+      <c r="I13"/>
+      <c r="J13">
         <v>0.15247116526425</v>
       </c>
-      <c r="I13">
+      <c r="K13">
         <v>0.77344638958619205</v>
       </c>
-      <c r="J13">
+      <c r="L13">
         <v>0.19713217013764101</v>
       </c>
-      <c r="K13">
+      <c r="M13">
         <v>92</v>
       </c>
-      <c r="L13">
+      <c r="N13"/>
+      <c r="O13">
         <v>0.970578559723834</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>0.77344638958619205</v>
       </c>
-      <c r="N13">
+      <c r="Q13">
         <v>0.19713217013764101</v>
       </c>
-      <c r="O13">
+      <c r="R13">
         <v>92</v>
       </c>
-      <c r="P13">
+      <c r="S13"/>
+      <c r="T13">
         <v>0.14916391777835999</v>
       </c>
-      <c r="Q13">
+      <c r="U13">
         <v>0.15247116526425</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -2053,47 +2131,51 @@
       <c r="D14">
         <v>0.18685265834555001</v>
       </c>
-      <c r="E14">
+      <c r="E14"/>
+      <c r="F14">
         <v>0.18889245566542001</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>97</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.75314694214212097</v>
       </c>
-      <c r="H14">
+      <c r="I14"/>
+      <c r="J14">
         <v>0.14226377537812701</v>
       </c>
-      <c r="I14">
+      <c r="K14">
         <v>0.75314694214212097</v>
       </c>
-      <c r="J14">
+      <c r="L14">
         <v>0.18889245566542001</v>
       </c>
-      <c r="K14">
+      <c r="M14">
         <v>97</v>
       </c>
-      <c r="L14">
+      <c r="N14"/>
+      <c r="O14">
         <v>0.94468619359077799</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>0.75783353524522801</v>
       </c>
-      <c r="N14">
+      <c r="Q14">
         <v>0.18685265834555001</v>
       </c>
-      <c r="O14">
+      <c r="R14">
         <v>51</v>
       </c>
-      <c r="P14">
+      <c r="S14"/>
+      <c r="T14">
         <v>0.14160321064397699</v>
       </c>
-      <c r="Q14">
+      <c r="U14">
         <v>0.14226377537812701</v>
       </c>
     </row>
-    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -2106,47 +2188,51 @@
       <c r="D15">
         <v>0.216009399547193</v>
       </c>
-      <c r="E15">
+      <c r="E15"/>
+      <c r="F15">
         <v>0.21754348272702201</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>72</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.75028492302224603</v>
       </c>
-      <c r="H15">
+      <c r="I15"/>
+      <c r="J15">
         <v>0.16341321818292301</v>
       </c>
-      <c r="I15">
+      <c r="K15">
         <v>0.75346079846873903</v>
       </c>
-      <c r="J15">
+      <c r="L15">
         <v>0.216883504111996</v>
       </c>
-      <c r="K15">
+      <c r="M15">
         <v>74</v>
       </c>
-      <c r="L15">
+      <c r="N15"/>
+      <c r="O15">
         <v>0.97034430258073601</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>0.75346079846873903</v>
       </c>
-      <c r="N15">
+      <c r="Q15">
         <v>0.216883504111996</v>
       </c>
-      <c r="O15">
+      <c r="R15">
         <v>74</v>
       </c>
-      <c r="P15">
+      <c r="S15"/>
+      <c r="T15">
         <v>0.16279852374710299</v>
       </c>
-      <c r="Q15">
+      <c r="U15">
         <v>0.16321959519183499</v>
       </c>
     </row>
-    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -2159,47 +2245,51 @@
       <c r="D16">
         <v>0.23746620122808201</v>
       </c>
-      <c r="E16">
+      <c r="E16"/>
+      <c r="F16">
         <v>0.24348230654403399</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>83</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.72439066712939404</v>
       </c>
-      <c r="H16">
+      <c r="I16"/>
+      <c r="J16">
         <v>0.17637631047163599</v>
       </c>
-      <c r="I16">
+      <c r="K16">
         <v>0.72439066712939404</v>
       </c>
-      <c r="J16">
+      <c r="L16">
         <v>0.24348230654403399</v>
       </c>
-      <c r="K16">
+      <c r="M16">
         <v>83</v>
       </c>
-      <c r="L16">
+      <c r="N16"/>
+      <c r="O16">
         <v>0.96964610128860296</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>0.72842786345689803</v>
       </c>
-      <c r="N16">
+      <c r="Q16">
         <v>0.24121823783170401</v>
       </c>
-      <c r="O16">
+      <c r="R16">
         <v>94</v>
       </c>
-      <c r="P16">
+      <c r="S16"/>
+      <c r="T16">
         <v>0.173059288220862</v>
       </c>
-      <c r="Q16">
+      <c r="U16">
         <v>0.17637631047163599</v>
       </c>
     </row>
-    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -2212,47 +2302,51 @@
       <c r="D17">
         <v>0.16499226428843999</v>
       </c>
-      <c r="E17">
+      <c r="E17"/>
+      <c r="F17">
         <v>0.180766462600568</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>7</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.76905220680955499</v>
       </c>
-      <c r="H17">
+      <c r="I17"/>
+      <c r="J17">
         <v>0.13901884698012301</v>
       </c>
-      <c r="I17">
+      <c r="K17">
         <v>0.76905220680955499</v>
       </c>
-      <c r="J17">
+      <c r="L17">
         <v>0.180766462600568</v>
       </c>
-      <c r="K17">
+      <c r="M17">
         <v>7</v>
       </c>
-      <c r="L17">
+      <c r="N17"/>
+      <c r="O17">
         <v>0.94981866941012305</v>
       </c>
-      <c r="M17">
+      <c r="P17">
         <v>0.76905220680955499</v>
       </c>
-      <c r="N17">
+      <c r="Q17">
         <v>0.180766462600568</v>
       </c>
-      <c r="O17">
+      <c r="R17">
         <v>7</v>
       </c>
-      <c r="P17">
+      <c r="S17"/>
+      <c r="T17">
         <v>0.12800874223730199</v>
       </c>
-      <c r="Q17">
+      <c r="U17">
         <v>0.13901884698012301</v>
       </c>
     </row>
-    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -2265,47 +2359,51 @@
       <c r="D18">
         <v>0.17767507441350699</v>
       </c>
-      <c r="E18">
+      <c r="E18"/>
+      <c r="F18">
         <v>0.179893289606738</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>86</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.76231918444795099</v>
       </c>
-      <c r="H18">
+      <c r="I18"/>
+      <c r="J18">
         <v>0.13713610582066799</v>
       </c>
-      <c r="I18">
+      <c r="K18">
         <v>0.76231918444795099</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>0.179893289606738</v>
       </c>
-      <c r="K18">
+      <c r="M18">
         <v>86</v>
       </c>
-      <c r="L18">
+      <c r="N18"/>
+      <c r="O18">
         <v>0.94710905501765397</v>
       </c>
-      <c r="M18">
+      <c r="P18">
         <v>0.76943398060414703</v>
       </c>
-      <c r="N18">
+      <c r="Q18">
         <v>0.17767507441350699</v>
       </c>
-      <c r="O18">
+      <c r="R18">
         <v>49</v>
       </c>
-      <c r="P18">
+      <c r="S18"/>
+      <c r="T18">
         <v>0.136709239760122</v>
       </c>
-      <c r="Q18">
+      <c r="U18">
         <v>0.13713610582066799</v>
       </c>
     </row>
-    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2318,47 +2416,51 @@
       <c r="D19">
         <v>0.19843672691427799</v>
       </c>
-      <c r="E19">
+      <c r="E19"/>
+      <c r="F19">
         <v>0.199028932757708</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>51</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.76416750974957204</v>
       </c>
-      <c r="H19">
+      <c r="I19"/>
+      <c r="J19">
         <v>0.15209144391357299</v>
       </c>
-      <c r="I19">
+      <c r="K19">
         <v>0.76416750974957204</v>
       </c>
-      <c r="J19">
+      <c r="L19">
         <v>0.199028932757708</v>
       </c>
-      <c r="K19">
+      <c r="M19">
         <v>51</v>
       </c>
-      <c r="L19">
+      <c r="N19"/>
+      <c r="O19">
         <v>0.96468507043886598</v>
       </c>
-      <c r="M19">
+      <c r="P19">
         <v>0.76624834352458704</v>
       </c>
-      <c r="N19">
+      <c r="Q19">
         <v>0.19843672691427799</v>
       </c>
-      <c r="O19">
+      <c r="R19">
         <v>55</v>
       </c>
-      <c r="P19">
+      <c r="S19"/>
+      <c r="T19">
         <v>0.152051813292507</v>
       </c>
-      <c r="Q19">
+      <c r="U19">
         <v>0.15209144391357299</v>
       </c>
     </row>
-    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2371,47 +2473,51 @@
       <c r="D20">
         <v>0.19311714745779901</v>
       </c>
-      <c r="E20">
+      <c r="E20"/>
+      <c r="F20">
         <v>0.20044038916436499</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>88</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.74338451062970401</v>
       </c>
-      <c r="H20">
+      <c r="I20"/>
+      <c r="J20">
         <v>0.14900428060937901</v>
       </c>
-      <c r="I20">
+      <c r="K20">
         <v>0.74338451062970401</v>
       </c>
-      <c r="J20">
+      <c r="L20">
         <v>0.20044038916436499</v>
       </c>
-      <c r="K20">
+      <c r="M20">
         <v>88</v>
       </c>
-      <c r="L20">
+      <c r="N20"/>
+      <c r="O20">
         <v>0.94528640776991002</v>
       </c>
-      <c r="M20">
+      <c r="P20">
         <v>0.74648329992036699</v>
       </c>
-      <c r="N20">
+      <c r="Q20">
         <v>0.198803107849543</v>
       </c>
-      <c r="O20">
+      <c r="R20">
         <v>93</v>
       </c>
-      <c r="P20">
+      <c r="S20"/>
+      <c r="T20">
         <v>0.145134600734038</v>
       </c>
-      <c r="Q20">
+      <c r="U20">
         <v>0.14900428060937901</v>
       </c>
     </row>
-    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -2424,47 +2530,51 @@
       <c r="D21">
         <v>0.20687242394472</v>
       </c>
-      <c r="E21">
+      <c r="E21"/>
+      <c r="F21">
         <v>0.21152990119358001</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>29</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.73600297815903204</v>
       </c>
-      <c r="H21">
+      <c r="I21"/>
+      <c r="J21">
         <v>0.15687300998457801</v>
       </c>
-      <c r="I21">
+      <c r="K21">
         <v>0.746501425715976</v>
       </c>
-      <c r="J21">
+      <c r="L21">
         <v>0.21014428717817901</v>
       </c>
-      <c r="K21">
+      <c r="M21">
         <v>12</v>
       </c>
-      <c r="L21">
+      <c r="N21"/>
+      <c r="O21">
         <v>0.95664571289415501</v>
       </c>
-      <c r="M21">
+      <c r="P21">
         <v>0.746501425715976</v>
       </c>
-      <c r="N21">
+      <c r="Q21">
         <v>0.21014428717817901</v>
       </c>
-      <c r="O21">
+      <c r="R21">
         <v>12</v>
       </c>
-      <c r="P21">
+      <c r="S21"/>
+      <c r="T21">
         <v>0.15458879112113399</v>
       </c>
-      <c r="Q21">
+      <c r="U21">
         <v>0.15568663724816101</v>
       </c>
     </row>
-    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -2477,47 +2587,51 @@
       <c r="D22">
         <v>0.22205775857162099</v>
       </c>
-      <c r="E22">
+      <c r="E22"/>
+      <c r="F22">
         <v>0.22453752703666599</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>39</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.72040250556983199</v>
       </c>
-      <c r="H22">
+      <c r="I22"/>
+      <c r="J22">
         <v>0.16235367683235399</v>
       </c>
-      <c r="I22">
+      <c r="K22">
         <v>0.72486161478069799</v>
       </c>
-      <c r="J22">
+      <c r="L22">
         <v>0.22397885820105501</v>
       </c>
-      <c r="K22">
+      <c r="M22">
         <v>24</v>
       </c>
-      <c r="L22">
+      <c r="N22"/>
+      <c r="O22">
         <v>0.95096997135915895</v>
       </c>
-      <c r="M22">
+      <c r="P22">
         <v>0.72794371098495803</v>
       </c>
-      <c r="N22">
+      <c r="Q22">
         <v>0.22302626037420001</v>
       </c>
-      <c r="O22">
+      <c r="R22">
         <v>29</v>
       </c>
-      <c r="P22">
+      <c r="S22"/>
+      <c r="T22">
         <v>0.16185918467027599</v>
       </c>
-      <c r="Q22">
+      <c r="U22">
         <v>0.161757397071668</v>
       </c>
     </row>
-    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -2530,47 +2644,51 @@
       <c r="D23">
         <v>0.21209203034309199</v>
       </c>
-      <c r="E23">
+      <c r="E23"/>
+      <c r="F23">
         <v>0.21209203034309199</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.78598493755402199</v>
       </c>
-      <c r="H23">
+      <c r="I23"/>
+      <c r="J23">
         <v>0.166701141224921</v>
       </c>
-      <c r="I23">
+      <c r="K23">
         <v>0.78598493755402199</v>
       </c>
-      <c r="J23">
+      <c r="L23">
         <v>0.21209203034309199</v>
       </c>
-      <c r="K23">
+      <c r="M23">
         <v>1</v>
       </c>
-      <c r="L23">
+      <c r="N23"/>
+      <c r="O23">
         <v>0.99807696789711497</v>
       </c>
-      <c r="M23">
+      <c r="P23">
         <v>0.78598493755402199</v>
       </c>
-      <c r="N23">
+      <c r="Q23">
         <v>0.21209203034309199</v>
       </c>
-      <c r="O23">
+      <c r="R23">
         <v>1</v>
       </c>
-      <c r="P23">
+      <c r="S23"/>
+      <c r="T23">
         <v>0.166701141224921</v>
       </c>
-      <c r="Q23">
+      <c r="U23">
         <v>0.166701141224921</v>
       </c>
     </row>
-    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
@@ -2583,47 +2701,51 @@
       <c r="D24">
         <v>0.161087621192439</v>
       </c>
-      <c r="E24">
+      <c r="E24"/>
+      <c r="F24">
         <v>0.16760322174508299</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>2</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.71825710914702501</v>
       </c>
-      <c r="H24">
+      <c r="I24"/>
+      <c r="J24">
         <v>0.12110757555634299</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>0.75181180689027105</v>
       </c>
-      <c r="J24">
+      <c r="L24">
         <v>0.161087621192439</v>
       </c>
-      <c r="K24">
+      <c r="M24">
         <v>9</v>
       </c>
-      <c r="L24">
+      <c r="N24"/>
+      <c r="O24">
         <v>0.91289942808271096</v>
       </c>
-      <c r="M24">
+      <c r="P24">
         <v>0.75181180689027105</v>
       </c>
-      <c r="N24">
+      <c r="Q24">
         <v>0.161087621192439</v>
       </c>
-      <c r="O24">
+      <c r="R24">
         <v>9</v>
       </c>
-      <c r="P24">
+      <c r="S24"/>
+      <c r="T24">
         <v>0.12110757555634299</v>
       </c>
-      <c r="Q24">
+      <c r="U24">
         <v>0.120382205534351</v>
       </c>
     </row>
-    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>40</v>
       </c>
@@ -2636,47 +2758,51 @@
       <c r="D25">
         <v>0.16372802276729201</v>
       </c>
-      <c r="E25">
+      <c r="E25"/>
+      <c r="F25">
         <v>0.17252824824915899</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.72179304248694698</v>
       </c>
-      <c r="H25">
+      <c r="I25"/>
+      <c r="J25">
         <v>0.124529689218704</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>0.72179304248694698</v>
       </c>
-      <c r="J25">
+      <c r="L25">
         <v>0.17252824824915899</v>
       </c>
-      <c r="K25">
+      <c r="M25">
         <v>3</v>
       </c>
-      <c r="L25">
+      <c r="N25"/>
+      <c r="O25">
         <v>0.89874413580049395</v>
       </c>
-      <c r="M25">
+      <c r="P25">
         <v>0.73501611303320202</v>
       </c>
-      <c r="N25">
+      <c r="Q25">
         <v>0.16372802276729201</v>
       </c>
-      <c r="O25">
+      <c r="R25">
         <v>5</v>
       </c>
-      <c r="P25">
+      <c r="S25"/>
+      <c r="T25">
         <v>0.120342734889026</v>
       </c>
-      <c r="Q25">
+      <c r="U25">
         <v>0.124529689218704</v>
       </c>
     </row>
-    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>41</v>
       </c>
@@ -2689,47 +2815,51 @@
       <c r="D26">
         <v>0.16645850546361199</v>
       </c>
-      <c r="E26">
+      <c r="E26"/>
+      <c r="F26">
         <v>0.16645850546361199</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>100</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.71753103776238203</v>
       </c>
-      <c r="H26">
+      <c r="I26"/>
+      <c r="J26">
         <v>0.119439144169681</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>0.71753103776238203</v>
       </c>
-      <c r="J26">
+      <c r="L26">
         <v>0.16645850546361199</v>
       </c>
-      <c r="K26">
+      <c r="M26">
         <v>100</v>
       </c>
-      <c r="L26">
+      <c r="N26"/>
+      <c r="O26">
         <v>0.88398954322599499</v>
       </c>
-      <c r="M26">
+      <c r="P26">
         <v>0.71753103776238203</v>
       </c>
-      <c r="N26">
+      <c r="Q26">
         <v>0.16645850546361199</v>
       </c>
-      <c r="O26">
+      <c r="R26">
         <v>100</v>
       </c>
-      <c r="P26">
+      <c r="S26"/>
+      <c r="T26">
         <v>0.119439144169681</v>
       </c>
-      <c r="Q26">
+      <c r="U26">
         <v>0.119439144169681</v>
       </c>
     </row>
-    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -2742,47 +2872,51 @@
       <c r="D27">
         <v>0.180759888264346</v>
       </c>
-      <c r="E27">
+      <c r="E27"/>
+      <c r="F27">
         <v>0.18185949740958099</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>98</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.70483938911153898</v>
       </c>
-      <c r="H27">
+      <c r="I27"/>
+      <c r="J27">
         <v>0.12818173705830099</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>0.70483938911153898</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>0.18185949740958099</v>
       </c>
-      <c r="K27">
+      <c r="M27">
         <v>98</v>
       </c>
-      <c r="L27">
+      <c r="N27"/>
+      <c r="O27">
         <v>0.88669888652112105</v>
       </c>
-      <c r="M27">
+      <c r="P27">
         <v>0.70483938911153898</v>
       </c>
-      <c r="N27">
+      <c r="Q27">
         <v>0.18185949740958099</v>
       </c>
-      <c r="O27">
+      <c r="R27">
         <v>98</v>
       </c>
-      <c r="P27">
+      <c r="S27"/>
+      <c r="T27">
         <v>0.127432231612053</v>
       </c>
-      <c r="Q27">
+      <c r="U27">
         <v>0.12818173705830099</v>
       </c>
     </row>
-    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -2795,47 +2929,51 @@
       <c r="D28">
         <v>0.190455917922315</v>
       </c>
-      <c r="E28">
+      <c r="E28"/>
+      <c r="F28">
         <v>0.20912784846872501</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>25</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.60940685648977799</v>
       </c>
-      <c r="H28">
+      <c r="I28"/>
+      <c r="J28">
         <v>0.13436184045993399</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>0.69959808988860295</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>0.192055756586369</v>
       </c>
-      <c r="K28">
+      <c r="M28">
         <v>93</v>
       </c>
-      <c r="L28">
+      <c r="N28"/>
+      <c r="O28">
         <v>0.89167499253580595</v>
       </c>
-      <c r="M28">
+      <c r="P28">
         <v>0.69995699879916495</v>
       </c>
-      <c r="N28">
+      <c r="Q28">
         <v>0.191717993736641</v>
       </c>
-      <c r="O28">
+      <c r="R28">
         <v>94</v>
       </c>
-      <c r="P28">
+      <c r="S28"/>
+      <c r="T28">
         <v>0.13347260147704701</v>
       </c>
-      <c r="Q28">
+      <c r="U28">
         <v>0.12744394473979601</v>
       </c>
     </row>
-    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>44</v>
       </c>
@@ -2848,47 +2986,51 @@
       <c r="D29">
         <v>0.216441338130787</v>
       </c>
-      <c r="E29">
+      <c r="E29"/>
+      <c r="F29">
         <v>0.21834444848218801</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>43</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.696383550674324</v>
       </c>
-      <c r="H29">
+      <c r="I29"/>
+      <c r="J29">
         <v>0.15215240426513599</v>
       </c>
-      <c r="I29">
+      <c r="K29">
         <v>0.70020344327874295</v>
       </c>
-      <c r="J29">
+      <c r="L29">
         <v>0.21729742366400501</v>
       </c>
-      <c r="K29">
+      <c r="M29">
         <v>100</v>
       </c>
-      <c r="L29">
+      <c r="N29"/>
+      <c r="O29">
         <v>0.91750086694274802</v>
       </c>
-      <c r="M29">
+      <c r="P29">
         <v>0.70020344327874295</v>
       </c>
-      <c r="N29">
+      <c r="Q29">
         <v>0.21729742366400501</v>
       </c>
-      <c r="O29">
+      <c r="R29">
         <v>100</v>
       </c>
-      <c r="P29">
+      <c r="S29"/>
+      <c r="T29">
         <v>0.15161315796002101</v>
       </c>
-      <c r="Q29">
+      <c r="U29">
         <v>0.15205148230405299</v>
       </c>
     </row>
-    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>45</v>
       </c>
@@ -2901,47 +3043,51 @@
       <c r="D30">
         <v>0.18837819985653301</v>
       </c>
-      <c r="E30">
+      <c r="E30"/>
+      <c r="F30">
         <v>0.20540363891189301</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>54</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.659669744443658</v>
       </c>
-      <c r="H30">
+      <c r="I30"/>
+      <c r="J30">
         <v>0.135498565988806</v>
       </c>
-      <c r="I30">
+      <c r="K30">
         <v>0.659669744443658</v>
       </c>
-      <c r="J30">
+      <c r="L30">
         <v>0.20540363891189301</v>
       </c>
-      <c r="K30">
+      <c r="M30">
         <v>54</v>
       </c>
-      <c r="L30">
+      <c r="N30"/>
+      <c r="O30">
         <v>0.86507338335555195</v>
       </c>
-      <c r="M30">
+      <c r="P30">
         <v>0.659669744443658</v>
       </c>
-      <c r="N30">
+      <c r="Q30">
         <v>0.20540363891189301</v>
       </c>
-      <c r="O30">
+      <c r="R30">
         <v>54</v>
       </c>
-      <c r="P30">
+      <c r="S30"/>
+      <c r="T30">
         <v>0.124641511167023</v>
       </c>
-      <c r="Q30">
+      <c r="U30">
         <v>0.135498565988806</v>
       </c>
     </row>
-    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>108</v>
       </c>
@@ -2954,47 +3100,51 @@
       <c r="D31">
         <v>6.9266795296101399E-2</v>
       </c>
-      <c r="E31">
+      <c r="E31"/>
+      <c r="F31">
         <v>6.9266795296101399E-2</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>2</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.80307565373827405</v>
       </c>
-      <c r="H31">
+      <c r="I31"/>
+      <c r="J31">
         <v>5.5626476914771898E-2</v>
       </c>
-      <c r="I31">
+      <c r="K31">
         <v>0.80307565373827405</v>
       </c>
-      <c r="J31">
+      <c r="L31">
         <v>6.9266795296101399E-2</v>
       </c>
-      <c r="K31">
+      <c r="M31">
         <v>2</v>
       </c>
-      <c r="L31">
+      <c r="N31"/>
+      <c r="O31">
         <v>0.87234244903437597</v>
       </c>
-      <c r="M31">
+      <c r="P31">
         <v>0.80307565373827405</v>
       </c>
-      <c r="N31">
+      <c r="Q31">
         <v>6.9266795296101399E-2</v>
       </c>
-      <c r="O31">
+      <c r="R31">
         <v>2</v>
       </c>
-      <c r="P31">
+      <c r="S31"/>
+      <c r="T31">
         <v>5.5626476914771898E-2</v>
       </c>
-      <c r="Q31">
+      <c r="U31">
         <v>5.5626476914771898E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -3007,47 +3157,51 @@
       <c r="D32">
         <v>7.1009923340673201E-2</v>
       </c>
-      <c r="E32">
+      <c r="E32"/>
+      <c r="F32">
         <v>7.1392896826616106E-2</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>1</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.80464603928809997</v>
       </c>
-      <c r="H32">
+      <c r="I32"/>
+      <c r="J32">
         <v>5.7446011664840597E-2</v>
       </c>
-      <c r="I32">
+      <c r="K32">
         <v>0.80464603928809997</v>
       </c>
-      <c r="J32">
+      <c r="L32">
         <v>7.1392896826616106E-2</v>
       </c>
-      <c r="K32">
+      <c r="M32">
         <v>1</v>
       </c>
-      <c r="L32">
+      <c r="N32"/>
+      <c r="O32">
         <v>0.87868632821177695</v>
       </c>
-      <c r="M32">
+      <c r="P32">
         <v>0.80767640487110304</v>
       </c>
-      <c r="N32">
+      <c r="Q32">
         <v>7.1009923340673201E-2</v>
       </c>
-      <c r="O32">
+      <c r="R32">
         <v>2</v>
       </c>
-      <c r="P32">
+      <c r="S32"/>
+      <c r="T32">
         <v>5.7353039593967599E-2</v>
       </c>
-      <c r="Q32">
+      <c r="U32">
         <v>5.7446011664840597E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>106</v>
       </c>
@@ -3060,47 +3214,51 @@
       <c r="D33">
         <v>0.101452154384649</v>
       </c>
-      <c r="E33">
+      <c r="E33"/>
+      <c r="F33">
         <v>0.105941246763622</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>50</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.75833358354413505</v>
       </c>
-      <c r="H33">
+      <c r="I33"/>
+      <c r="J33">
         <v>8.0834388424770198E-2</v>
       </c>
-      <c r="I33">
+      <c r="K33">
         <v>0.763925325837017</v>
       </c>
-      <c r="J33">
+      <c r="L33">
         <v>0.105814515752834</v>
       </c>
-      <c r="K33">
+      <c r="M33">
         <v>43</v>
       </c>
-      <c r="L33">
+      <c r="N33"/>
+      <c r="O33">
         <v>0.86973984158985196</v>
       </c>
-      <c r="M33">
+      <c r="P33">
         <v>0.763925325837017</v>
       </c>
-      <c r="N33">
+      <c r="Q33">
         <v>0.105814515752834</v>
       </c>
-      <c r="O33">
+      <c r="R33">
         <v>43</v>
       </c>
-      <c r="P33">
+      <c r="S33"/>
+      <c r="T33">
         <v>7.78979781816177E-2</v>
       </c>
-      <c r="Q33">
+      <c r="U33">
         <v>8.0338805303391395E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>105</v>
       </c>
@@ -3113,47 +3271,51 @@
       <c r="D34">
         <v>0.106110795390418</v>
       </c>
-      <c r="E34">
+      <c r="E34"/>
+      <c r="F34">
         <v>0.112211174696212</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>2</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.80002057983851305</v>
       </c>
-      <c r="H34">
+      <c r="I34"/>
+      <c r="J34">
         <v>8.9771249044824294E-2</v>
       </c>
-      <c r="I34">
+      <c r="K34">
         <v>0.80002057983851305</v>
       </c>
-      <c r="J34">
+      <c r="L34">
         <v>0.112211174696212</v>
       </c>
-      <c r="K34">
+      <c r="M34">
         <v>2</v>
       </c>
-      <c r="L34">
+      <c r="N34"/>
+      <c r="O34">
         <v>0.92029033540287897</v>
       </c>
-      <c r="M34">
+      <c r="P34">
         <v>0.81417954001245996</v>
       </c>
-      <c r="N34">
+      <c r="Q34">
         <v>0.106110795390418</v>
       </c>
-      <c r="O34">
+      <c r="R34">
         <v>1</v>
       </c>
-      <c r="P34">
+      <c r="S34"/>
+      <c r="T34">
         <v>8.6393238581327206E-2</v>
       </c>
-      <c r="Q34">
+      <c r="U34">
         <v>8.9771249044824294E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -3166,53 +3328,53 @@
       <c r="D35">
         <v>0.101284762815966</v>
       </c>
-      <c r="E35" s="1">
+      <c r="F35" s="1">
         <v>0.13458572414259001</v>
       </c>
-      <c r="F35" s="2">
+      <c r="G35" s="2">
         <v>12</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.77641131403207198</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>0.10482654445727201</v>
       </c>
-      <c r="I35">
+      <c r="K35">
         <v>0.78894812629640398</v>
       </c>
-      <c r="J35">
+      <c r="L35">
         <v>0.13286874125598599</v>
       </c>
-      <c r="K35">
+      <c r="M35">
         <v>9</v>
       </c>
-      <c r="L35">
+      <c r="O35">
         <v>0.92181686755239101</v>
       </c>
-      <c r="M35">
+      <c r="P35">
         <v>0.78894812629640398</v>
       </c>
-      <c r="N35">
+      <c r="Q35">
         <v>0.13286874125598599</v>
       </c>
-      <c r="O35">
+      <c r="R35">
         <v>9</v>
       </c>
-      <c r="P35">
+      <c r="T35">
         <v>8.2011157895156103E-2</v>
       </c>
-      <c r="Q35">
+      <c r="U35">
         <v>0.104493878931506</v>
       </c>
-      <c r="R35">
+      <c r="V35">
         <v>1</v>
       </c>
-      <c r="S35">
+      <c r="W35">
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>103</v>
       </c>
@@ -3225,47 +3387,51 @@
       <c r="D36">
         <v>0.108257881395315</v>
       </c>
-      <c r="E36">
+      <c r="E36"/>
+      <c r="F36">
         <v>0.108257881395315</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>22</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.81786639618878898</v>
       </c>
-      <c r="H36">
+      <c r="I36"/>
+      <c r="J36">
         <v>8.8540483315819804E-2</v>
       </c>
-      <c r="I36">
+      <c r="K36">
         <v>0.81786639618878898</v>
       </c>
-      <c r="J36">
+      <c r="L36">
         <v>0.108257881395315</v>
       </c>
-      <c r="K36">
+      <c r="M36">
         <v>22</v>
       </c>
-      <c r="L36">
+      <c r="N36"/>
+      <c r="O36">
         <v>0.92612427758410398</v>
       </c>
-      <c r="M36">
+      <c r="P36">
         <v>0.81786639618878898</v>
       </c>
-      <c r="N36">
+      <c r="Q36">
         <v>0.108257881395315</v>
       </c>
-      <c r="O36">
+      <c r="R36">
         <v>22</v>
       </c>
-      <c r="P36">
+      <c r="S36"/>
+      <c r="T36">
         <v>8.8540483315819804E-2</v>
       </c>
-      <c r="Q36">
+      <c r="U36">
         <v>8.8540483315819804E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -3278,47 +3444,51 @@
       <c r="D37">
         <v>3.09300159319825E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37"/>
+      <c r="F37">
         <v>3.0981153128851999E-2</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>40</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.56656811488679204</v>
       </c>
-      <c r="H37">
+      <c r="I37"/>
+      <c r="J37">
         <v>1.83947171178294E-2</v>
       </c>
-      <c r="I37">
+      <c r="K37">
         <v>0.59472058334146505</v>
       </c>
-      <c r="J37">
+      <c r="L37">
         <v>3.09300159319825E-2</v>
       </c>
-      <c r="K37">
+      <c r="M37">
         <v>4</v>
       </c>
-      <c r="L37">
+      <c r="N37"/>
+      <c r="O37">
         <v>0.62565059927344702</v>
       </c>
-      <c r="M37">
+      <c r="P37">
         <v>0.59472058334146505</v>
       </c>
-      <c r="N37">
+      <c r="Q37">
         <v>3.09300159319825E-2</v>
       </c>
-      <c r="O37">
+      <c r="R37">
         <v>4</v>
       </c>
-      <c r="P37">
+      <c r="S37"/>
+      <c r="T37">
         <v>1.83947171178294E-2</v>
       </c>
-      <c r="Q37">
+      <c r="U37">
         <v>1.7552933525232701E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>101</v>
       </c>
@@ -3331,47 +3501,51 @@
       <c r="D38">
         <v>9.4032896448846603E-2</v>
       </c>
-      <c r="E38">
+      <c r="E38"/>
+      <c r="F38">
         <v>0.102589048424001</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>50</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>0.81394011955072099</v>
       </c>
-      <c r="H38">
+      <c r="I38"/>
+      <c r="J38">
         <v>8.3501342338826195E-2</v>
       </c>
-      <c r="I38">
+      <c r="K38">
         <v>0.81394011955072099</v>
       </c>
-      <c r="J38">
+      <c r="L38">
         <v>0.102589048424001</v>
       </c>
-      <c r="K38">
+      <c r="M38">
         <v>50</v>
       </c>
-      <c r="L38">
+      <c r="N38"/>
+      <c r="O38">
         <v>0.91880045746967598</v>
       </c>
-      <c r="M38">
+      <c r="P38">
         <v>0.81778413938743399</v>
       </c>
-      <c r="N38">
+      <c r="Q38">
         <v>0.101016318082242</v>
       </c>
-      <c r="O38">
+      <c r="R38">
         <v>36</v>
       </c>
-      <c r="P38">
+      <c r="S38"/>
+      <c r="T38">
         <v>7.6928918361414397E-2</v>
       </c>
-      <c r="Q38">
+      <c r="U38">
         <v>8.3501342338826195E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -3384,53 +3558,53 @@
       <c r="D39">
         <v>0.14755732104420199</v>
       </c>
-      <c r="E39" s="1">
+      <c r="F39" s="1">
         <v>0.14962503316658801</v>
       </c>
-      <c r="F39" s="2">
+      <c r="G39" s="2">
         <v>4</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>0.83248746443878896</v>
       </c>
-      <c r="H39" s="1">
+      <c r="J39" s="1">
         <v>0.124560964477422</v>
       </c>
-      <c r="I39">
+      <c r="K39">
         <v>0.83248746443878896</v>
       </c>
-      <c r="J39">
+      <c r="L39">
         <v>0.14962503316658801</v>
       </c>
-      <c r="K39" s="2">
+      <c r="M39" s="2">
         <v>4</v>
       </c>
-      <c r="L39" s="1">
+      <c r="O39" s="1">
         <v>0.98531766538430898</v>
       </c>
-      <c r="M39">
+      <c r="P39">
         <v>0.83776034434010604</v>
       </c>
-      <c r="N39">
+      <c r="Q39">
         <v>0.14755732104420199</v>
       </c>
-      <c r="O39" s="2">
+      <c r="R39" s="2">
         <v>3</v>
       </c>
-      <c r="P39">
+      <c r="T39">
         <v>0.123617672087894</v>
       </c>
-      <c r="Q39">
+      <c r="U39">
         <v>0.124560964477422</v>
       </c>
-      <c r="R39">
+      <c r="V39">
         <v>3</v>
       </c>
-      <c r="S39" t="s">
+      <c r="W39" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>99</v>
       </c>
@@ -3443,47 +3617,51 @@
       <c r="D40">
         <v>0.10240620540272399</v>
       </c>
-      <c r="E40">
+      <c r="E40"/>
+      <c r="F40">
         <v>0.124331322106701</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>23</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.76097221283931704</v>
       </c>
-      <c r="H40">
+      <c r="I40"/>
+      <c r="J40">
         <v>9.5647499275487699E-2</v>
       </c>
-      <c r="I40">
+      <c r="K40">
         <v>0.78731581357293501</v>
       </c>
-      <c r="J40">
+      <c r="L40">
         <v>0.121485555893292</v>
       </c>
-      <c r="K40">
+      <c r="M40">
         <v>11</v>
       </c>
-      <c r="L40">
+      <c r="N40"/>
+      <c r="O40">
         <v>0.92378303450239896</v>
       </c>
-      <c r="M40">
+      <c r="P40">
         <v>0.80913951253931404</v>
       </c>
-      <c r="N40">
+      <c r="Q40">
         <v>0.114643521963084</v>
       </c>
-      <c r="O40">
+      <c r="R40">
         <v>6</v>
       </c>
-      <c r="P40">
+      <c r="S40"/>
+      <c r="T40">
         <v>8.4074226802726901E-2</v>
       </c>
-      <c r="Q40">
+      <c r="U40">
         <v>9.4612681308774205E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>98</v>
       </c>
@@ -3496,47 +3674,51 @@
       <c r="D41">
         <v>5.0767364484091401E-2</v>
       </c>
-      <c r="E41">
+      <c r="E41"/>
+      <c r="F41">
         <v>8.4179019569897207E-2</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>21</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>0.63168422520973899</v>
       </c>
-      <c r="H41">
+      <c r="I41"/>
+      <c r="J41">
         <v>5.3174558755925999E-2</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>0.63168422520973899</v>
       </c>
-      <c r="J41">
+      <c r="L41">
         <v>8.4179019569897207E-2</v>
       </c>
-      <c r="K41">
+      <c r="M41">
         <v>21</v>
       </c>
-      <c r="L41">
+      <c r="N41"/>
+      <c r="O41">
         <v>0.83915861536295699</v>
       </c>
-      <c r="M41">
+      <c r="P41">
         <v>0.78839125087886497</v>
       </c>
-      <c r="N41">
+      <c r="Q41">
         <v>5.0767364484091401E-2</v>
       </c>
-      <c r="O41">
+      <c r="R41">
         <v>27</v>
       </c>
-      <c r="P41">
+      <c r="S41"/>
+      <c r="T41">
         <v>4.0024545989436097E-2</v>
       </c>
-      <c r="Q41">
+      <c r="U41">
         <v>5.3174558755925999E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -3549,47 +3731,51 @@
       <c r="D42">
         <v>4.8751363636149403E-2</v>
       </c>
-      <c r="E42">
+      <c r="E42"/>
+      <c r="F42">
         <v>5.8215912188466501E-2</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>32</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>0.53152703027300496</v>
       </c>
-      <c r="H42">
+      <c r="I42"/>
+      <c r="J42">
         <v>3.0943330920169598E-2</v>
       </c>
-      <c r="I42">
+      <c r="K42">
         <v>0.53152703027300496</v>
       </c>
-      <c r="J42">
+      <c r="L42">
         <v>5.8215912188466501E-2</v>
       </c>
-      <c r="K42">
+      <c r="M42">
         <v>32</v>
       </c>
-      <c r="L42">
+      <c r="N42"/>
+      <c r="O42">
         <v>0.67169947867306801</v>
       </c>
-      <c r="M42">
+      <c r="P42">
         <v>0.62294811503691805</v>
       </c>
-      <c r="N42">
+      <c r="Q42">
         <v>4.8751363636149403E-2</v>
       </c>
-      <c r="O42">
+      <c r="R42">
         <v>29</v>
       </c>
-      <c r="P42">
+      <c r="S42"/>
+      <c r="T42">
         <v>3.0369570082618601E-2</v>
       </c>
-      <c r="Q42">
+      <c r="U42">
         <v>3.0943330920169598E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>96</v>
       </c>
@@ -3602,53 +3788,53 @@
       <c r="D43">
         <v>0.12718788577458801</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>0.12885567689041699</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>19</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>0.81435687691880398</v>
       </c>
-      <c r="H43" s="1">
+      <c r="J43" s="1">
         <v>0.10512297010751</v>
       </c>
-      <c r="I43">
+      <c r="K43">
         <v>0.81763760968615995</v>
       </c>
-      <c r="J43">
+      <c r="L43">
         <v>0.128569147091778</v>
       </c>
-      <c r="K43" s="2">
+      <c r="M43" s="2">
         <v>18</v>
       </c>
-      <c r="L43">
+      <c r="O43">
         <v>0.94932334740100799</v>
       </c>
-      <c r="M43">
+      <c r="P43">
         <v>0.82213546162642004</v>
       </c>
-      <c r="N43">
+      <c r="Q43">
         <v>0.12718788577458801</v>
       </c>
-      <c r="O43">
+      <c r="R43">
         <v>12</v>
       </c>
-      <c r="P43">
+      <c r="T43">
         <v>0.104565671184579</v>
       </c>
-      <c r="Q43">
+      <c r="U43">
         <v>0.104934506605739</v>
       </c>
-      <c r="R43">
+      <c r="V43">
         <v>1</v>
       </c>
-      <c r="S43">
+      <c r="W43">
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -3661,47 +3847,51 @@
       <c r="D44">
         <v>9.9390849980228999E-2</v>
       </c>
-      <c r="E44">
+      <c r="E44"/>
+      <c r="F44">
         <v>0.10582565450575</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>4</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.73435682062137297</v>
       </c>
-      <c r="H44">
+      <c r="I44"/>
+      <c r="J44">
         <v>7.9837717795525606E-2</v>
       </c>
-      <c r="I44">
+      <c r="K44">
         <v>0.76236666891856297</v>
       </c>
-      <c r="J44">
+      <c r="L44">
         <v>0.104723515665732</v>
       </c>
-      <c r="K44">
+      <c r="M44">
         <v>2</v>
       </c>
-      <c r="L44">
+      <c r="N44"/>
+      <c r="O44">
         <v>0.86709018458429599</v>
       </c>
-      <c r="M44">
+      <c r="P44">
         <v>0.76236666891856297</v>
       </c>
-      <c r="N44">
+      <c r="Q44">
         <v>0.104723515665732</v>
       </c>
-      <c r="O44">
+      <c r="R44">
         <v>2</v>
       </c>
-      <c r="P44">
+      <c r="S44"/>
+      <c r="T44">
         <v>7.5805035685686098E-2</v>
       </c>
-      <c r="Q44">
+      <c r="U44">
         <v>7.7713791183018494E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -3714,47 +3904,51 @@
       <c r="D45">
         <v>0.11462299210172799</v>
       </c>
-      <c r="E45">
+      <c r="E45"/>
+      <c r="F45">
         <v>0.123840531691435</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>6</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.766545189322003</v>
       </c>
-      <c r="H45">
+      <c r="I45"/>
+      <c r="J45">
         <v>9.785846325316E-2</v>
       </c>
-      <c r="I45">
+      <c r="K45">
         <v>0.80436517766217996</v>
       </c>
-      <c r="J45">
+      <c r="L45">
         <v>0.121659248772525</v>
       </c>
-      <c r="K45">
+      <c r="M45">
         <v>2</v>
       </c>
-      <c r="L45">
+      <c r="N45"/>
+      <c r="O45">
         <v>0.92798465555318499</v>
       </c>
-      <c r="M45">
+      <c r="P45">
         <v>0.813361663451457</v>
       </c>
-      <c r="N45">
+      <c r="Q45">
         <v>0.11462299210172799</v>
       </c>
-      <c r="O45">
+      <c r="R45">
         <v>1</v>
       </c>
-      <c r="P45">
+      <c r="S45"/>
+      <c r="T45">
         <v>9.3229947525644799E-2</v>
       </c>
-      <c r="Q45">
+      <c r="U45">
         <v>9.4929363811148998E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>93</v>
       </c>
@@ -3767,47 +3961,51 @@
       <c r="D46">
         <v>5.0671072618986499E-2</v>
       </c>
-      <c r="E46">
+      <c r="E46"/>
+      <c r="F46">
         <v>5.0671072618986499E-2</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>51</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>0.66169028656643203</v>
       </c>
-      <c r="H46">
+      <c r="I46"/>
+      <c r="J46">
         <v>3.3528556561885699E-2</v>
       </c>
-      <c r="I46">
+      <c r="K46">
         <v>0.66169028656643203</v>
       </c>
-      <c r="J46">
+      <c r="L46">
         <v>5.0671072618986499E-2</v>
       </c>
-      <c r="K46">
+      <c r="M46">
         <v>51</v>
       </c>
-      <c r="L46">
+      <c r="N46"/>
+      <c r="O46">
         <v>0.71236135918541799</v>
       </c>
-      <c r="M46">
+      <c r="P46">
         <v>0.66169028656643203</v>
       </c>
-      <c r="N46">
+      <c r="Q46">
         <v>5.0671072618986499E-2</v>
       </c>
-      <c r="O46">
+      <c r="R46">
         <v>51</v>
       </c>
-      <c r="P46">
+      <c r="S46"/>
+      <c r="T46">
         <v>3.3528556561885699E-2</v>
       </c>
-      <c r="Q46">
+      <c r="U46">
         <v>3.3528556561885699E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -3820,47 +4018,51 @@
       <c r="D47">
         <v>6.1829913304786897E-2</v>
       </c>
-      <c r="E47">
+      <c r="E47"/>
+      <c r="F47">
         <v>7.7044799038180206E-2</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>13</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>0.56334399231352394</v>
       </c>
-      <c r="H47">
+      <c r="I47"/>
+      <c r="J47">
         <v>4.3402724677161601E-2</v>
       </c>
-      <c r="I47">
+      <c r="K47">
         <v>0.56334399231352394</v>
       </c>
-      <c r="J47">
+      <c r="L47">
         <v>7.7044799038180206E-2</v>
       </c>
-      <c r="K47">
+      <c r="M47">
         <v>13</v>
       </c>
-      <c r="L47">
+      <c r="N47"/>
+      <c r="O47">
         <v>0.69844125836299797</v>
       </c>
-      <c r="M47">
+      <c r="P47">
         <v>0.63661134505821104</v>
       </c>
-      <c r="N47">
+      <c r="Q47">
         <v>6.1829913304786897E-2</v>
       </c>
-      <c r="O47">
+      <c r="R47">
         <v>44</v>
       </c>
-      <c r="P47">
+      <c r="S47"/>
+      <c r="T47">
         <v>3.9361624273793E-2</v>
       </c>
-      <c r="Q47">
+      <c r="U47">
         <v>4.3402724677161601E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -3873,47 +4075,51 @@
       <c r="D48">
         <v>0.117869849701308</v>
       </c>
-      <c r="E48">
+      <c r="E48"/>
+      <c r="F48">
         <v>0.12256241317917101</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>39</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>0.81730670589971999</v>
       </c>
-      <c r="H48">
+      <c r="I48"/>
+      <c r="J48">
         <v>0.10017108218258899</v>
       </c>
-      <c r="I48">
+      <c r="K48">
         <v>0.81730670589971999</v>
       </c>
-      <c r="J48">
+      <c r="L48">
         <v>0.12256241317917101</v>
       </c>
-      <c r="K48">
+      <c r="M48">
         <v>39</v>
       </c>
-      <c r="L48">
+      <c r="N48"/>
+      <c r="O48">
         <v>0.94476369526619597</v>
       </c>
-      <c r="M48">
+      <c r="P48">
         <v>0.82689384556488799</v>
       </c>
-      <c r="N48">
+      <c r="Q48">
         <v>0.117869849701308</v>
       </c>
-      <c r="O48">
+      <c r="R48">
         <v>11</v>
       </c>
-      <c r="P48">
+      <c r="S48"/>
+      <c r="T48">
         <v>9.7465853295669994E-2</v>
       </c>
-      <c r="Q48">
+      <c r="U48">
         <v>0.10017108218258899</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>90</v>
       </c>
@@ -3926,47 +4132,51 @@
       <c r="D49">
         <v>8.6303524471431206E-2</v>
       </c>
-      <c r="E49">
+      <c r="E49"/>
+      <c r="F49">
         <v>0.116219716655065</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>2</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.81773268979114899</v>
       </c>
-      <c r="H49">
+      <c r="I49"/>
+      <c r="J49">
         <v>9.5036661507112097E-2</v>
       </c>
-      <c r="I49">
+      <c r="K49">
         <v>0.81773268979114899</v>
       </c>
-      <c r="J49">
+      <c r="L49">
         <v>0.116219716655065</v>
       </c>
-      <c r="K49">
+      <c r="M49">
         <v>2</v>
       </c>
-      <c r="L49">
+      <c r="N49"/>
+      <c r="O49">
         <v>0.93654350683260401</v>
       </c>
-      <c r="M49">
+      <c r="P49">
         <v>0.82702645729026703</v>
       </c>
-      <c r="N49">
+      <c r="Q49">
         <v>0.109517049542337</v>
       </c>
-      <c r="O49">
+      <c r="R49">
         <v>4</v>
       </c>
-      <c r="P49">
+      <c r="S49"/>
+      <c r="T49">
         <v>7.1459218065841101E-2</v>
       </c>
-      <c r="Q49">
+      <c r="U49">
         <v>9.5036661507112097E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>89</v>
       </c>
@@ -3979,47 +4189,51 @@
       <c r="D50">
         <v>0.100731607260291</v>
       </c>
-      <c r="E50">
+      <c r="E50"/>
+      <c r="F50">
         <v>0.128559119082266</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>5</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>0.79282389162869704</v>
       </c>
-      <c r="H50">
+      <c r="I50"/>
+      <c r="J50">
         <v>0.102938469897048</v>
       </c>
-      <c r="I50">
+      <c r="K50">
         <v>0.80950356925709899</v>
       </c>
-      <c r="J50">
+      <c r="L50">
         <v>0.127162465746158</v>
       </c>
-      <c r="K50">
+      <c r="M50">
         <v>4</v>
       </c>
-      <c r="L50">
+      <c r="N50"/>
+      <c r="O50">
         <v>0.94388376878492797</v>
       </c>
-      <c r="M50">
+      <c r="P50">
         <v>0.83062573968568498</v>
       </c>
-      <c r="N50">
+      <c r="Q50">
         <v>0.113258029099243</v>
       </c>
-      <c r="O50">
+      <c r="R50">
         <v>2</v>
       </c>
-      <c r="P50">
+      <c r="S50"/>
+      <c r="T50">
         <v>8.4098484066043297E-2</v>
       </c>
-      <c r="Q50">
+      <c r="U50">
         <v>0.101924741095159</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>88</v>
       </c>
@@ -4032,47 +4246,51 @@
       <c r="D51">
         <v>4.1257725053118199E-2</v>
       </c>
-      <c r="E51">
+      <c r="E51"/>
+      <c r="F51">
         <v>9.5463806772286997E-2</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>2</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>0.68720694059745302</v>
       </c>
-      <c r="H51">
+      <c r="I51"/>
+      <c r="J51">
         <v>6.56033905897698E-2</v>
       </c>
-      <c r="I51">
+      <c r="K51">
         <v>0.68720694059745302</v>
       </c>
-      <c r="J51">
+      <c r="L51">
         <v>9.5463806772286997E-2</v>
       </c>
-      <c r="K51">
+      <c r="M51">
         <v>2</v>
       </c>
-      <c r="L51">
+      <c r="N51"/>
+      <c r="O51">
         <v>0.78267074736973996</v>
       </c>
-      <c r="M51">
+      <c r="P51">
         <v>0.68720694059745302</v>
       </c>
-      <c r="N51">
+      <c r="Q51">
         <v>9.5463806772286997E-2</v>
       </c>
-      <c r="O51">
+      <c r="R51">
         <v>2</v>
       </c>
-      <c r="P51">
+      <c r="S51"/>
+      <c r="T51">
         <v>2.8666605222839099E-2</v>
       </c>
-      <c r="Q51">
+      <c r="U51">
         <v>6.56033905897698E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -4085,47 +4303,51 @@
       <c r="D52">
         <v>5.46972291843172E-2</v>
       </c>
-      <c r="E52">
+      <c r="E52"/>
+      <c r="F52">
         <v>7.5675811599809295E-2</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>18</v>
       </c>
-      <c r="G52">
+      <c r="H52">
         <v>0.74035515546848196</v>
       </c>
-      <c r="H52">
+      <c r="I52"/>
+      <c r="J52">
         <v>5.6026977262180401E-2</v>
       </c>
-      <c r="I52">
+      <c r="K52">
         <v>0.74035515546848196</v>
       </c>
-      <c r="J52">
+      <c r="L52">
         <v>7.5675811599809295E-2</v>
       </c>
-      <c r="K52">
+      <c r="M52">
         <v>18</v>
       </c>
-      <c r="L52">
+      <c r="N52"/>
+      <c r="O52">
         <v>0.85162395244866695</v>
       </c>
-      <c r="M52">
+      <c r="P52">
         <v>0.79692672326434999</v>
       </c>
-      <c r="N52">
+      <c r="Q52">
         <v>5.46972291843172E-2</v>
       </c>
-      <c r="O52">
+      <c r="R52">
         <v>28</v>
       </c>
-      <c r="P52">
+      <c r="S52"/>
+      <c r="T52">
         <v>4.3589683625497103E-2</v>
       </c>
-      <c r="Q52">
+      <c r="U52">
         <v>5.6026977262180401E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>86</v>
       </c>
@@ -4138,47 +4360,51 @@
       <c r="D53">
         <v>6.7762516868234896E-2</v>
       </c>
-      <c r="E53">
+      <c r="E53"/>
+      <c r="F53">
         <v>6.8217564458707095E-2</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>48</v>
       </c>
-      <c r="G53">
+      <c r="H53">
         <v>0.80244043106316998</v>
       </c>
-      <c r="H53">
+      <c r="I53"/>
+      <c r="J53">
         <v>5.4740531830324603E-2</v>
       </c>
-      <c r="I53">
+      <c r="K53">
         <v>0.80244043106316998</v>
       </c>
-      <c r="J53">
+      <c r="L53">
         <v>6.8217564458707095E-2</v>
       </c>
-      <c r="K53">
+      <c r="M53">
         <v>48</v>
       </c>
-      <c r="L53">
+      <c r="N53"/>
+      <c r="O53">
         <v>0.87253334879413202</v>
       </c>
-      <c r="M53">
+      <c r="P53">
         <v>0.80477083192589705</v>
       </c>
-      <c r="N53">
+      <c r="Q53">
         <v>6.7762516868234896E-2</v>
       </c>
-      <c r="O53">
+      <c r="R53">
         <v>3</v>
       </c>
-      <c r="P53">
+      <c r="S53"/>
+      <c r="T53">
         <v>5.4533297073441997E-2</v>
       </c>
-      <c r="Q53">
+      <c r="U53">
         <v>5.4740531830324603E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -4191,47 +4417,51 @@
       <c r="D54">
         <v>6.1054359010763698E-2</v>
       </c>
-      <c r="E54">
+      <c r="E54"/>
+      <c r="F54">
         <v>7.83163647359333E-2</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>28</v>
       </c>
-      <c r="G54">
+      <c r="H54">
         <v>0.80112604244075603</v>
       </c>
-      <c r="H54">
+      <c r="I54"/>
+      <c r="J54">
         <v>6.2741279339245004E-2</v>
       </c>
-      <c r="I54">
+      <c r="K54">
         <v>0.80112604244075603</v>
       </c>
-      <c r="J54">
+      <c r="L54">
         <v>7.83163647359333E-2</v>
       </c>
-      <c r="K54">
+      <c r="M54">
         <v>28</v>
       </c>
-      <c r="L54">
+      <c r="N54"/>
+      <c r="O54">
         <v>0.88459380855102698</v>
       </c>
-      <c r="M54">
+      <c r="P54">
         <v>0.80758101200261201</v>
       </c>
-      <c r="N54">
+      <c r="Q54">
         <v>7.7012796548414794E-2</v>
       </c>
-      <c r="O54">
+      <c r="R54">
         <v>2</v>
       </c>
-      <c r="P54">
+      <c r="S54"/>
+      <c r="T54">
         <v>4.98875530598408E-2</v>
       </c>
-      <c r="Q54">
+      <c r="U54">
         <v>6.2741279339245004E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>84</v>
       </c>
@@ -4244,47 +4474,51 @@
       <c r="D55">
         <v>8.7404340630519994E-2</v>
       </c>
-      <c r="E55">
+      <c r="E55"/>
+      <c r="F55">
         <v>9.4358894414039302E-2</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>28</v>
       </c>
-      <c r="G55">
+      <c r="H55">
         <v>0.80723884873005503</v>
       </c>
-      <c r="H55">
+      <c r="I55"/>
+      <c r="J55">
         <v>7.6170165294229902E-2</v>
       </c>
-      <c r="I55">
+      <c r="K55">
         <v>0.80723884873005503</v>
       </c>
-      <c r="J55">
+      <c r="L55">
         <v>9.4358894414039302E-2</v>
       </c>
-      <c r="K55">
+      <c r="M55">
         <v>28</v>
       </c>
-      <c r="L55">
+      <c r="N55"/>
+      <c r="O55">
         <v>0.90159774314409402</v>
       </c>
-      <c r="M55">
+      <c r="P55">
         <v>0.80723884873005503</v>
       </c>
-      <c r="N55">
+      <c r="Q55">
         <v>9.4358894414039302E-2</v>
       </c>
-      <c r="O55">
+      <c r="R55">
         <v>28</v>
       </c>
-      <c r="P55">
+      <c r="S55"/>
+      <c r="T55">
         <v>7.0892696393100599E-2</v>
       </c>
-      <c r="Q55">
+      <c r="U55">
         <v>7.6170165294229902E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>83</v>
       </c>
@@ -4297,47 +4531,51 @@
       <c r="D56">
         <v>8.2260652358195699E-2</v>
       </c>
-      <c r="E56">
+      <c r="E56"/>
+      <c r="F56">
         <v>8.6746086378793802E-2</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>2</v>
       </c>
-      <c r="G56">
+      <c r="H56">
         <v>0.80921613959761096</v>
       </c>
-      <c r="H56">
+      <c r="I56"/>
+      <c r="J56">
         <v>7.0196333144648501E-2</v>
       </c>
-      <c r="I56">
+      <c r="K56">
         <v>0.80921613959761096</v>
       </c>
-      <c r="J56">
+      <c r="L56">
         <v>8.6746086378793802E-2</v>
       </c>
-      <c r="K56">
+      <c r="M56">
         <v>2</v>
       </c>
-      <c r="L56">
+      <c r="N56"/>
+      <c r="O56">
         <v>0.89596222597640496</v>
       </c>
-      <c r="M56">
+      <c r="P56">
         <v>0.80921613959761096</v>
       </c>
-      <c r="N56">
+      <c r="Q56">
         <v>8.6746086378793802E-2</v>
       </c>
-      <c r="O56">
+      <c r="R56">
         <v>2</v>
       </c>
-      <c r="P56">
+      <c r="S56"/>
+      <c r="T56">
         <v>6.6568422783037207E-2</v>
       </c>
-      <c r="Q56">
+      <c r="U56">
         <v>7.0196333144648501E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>82</v>
       </c>
@@ -4350,47 +4588,51 @@
       <c r="D57">
         <v>9.8539979803038594E-2</v>
       </c>
-      <c r="E57">
+      <c r="E57"/>
+      <c r="F57">
         <v>9.8539979803038594E-2</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>1</v>
       </c>
-      <c r="G57">
+      <c r="H57">
         <v>0.81709183737298596</v>
       </c>
-      <c r="H57">
+      <c r="I57"/>
+      <c r="J57">
         <v>8.0516213151961794E-2</v>
       </c>
-      <c r="I57">
+      <c r="K57">
         <v>0.81709183737298596</v>
       </c>
-      <c r="J57">
+      <c r="L57">
         <v>9.8539979803038594E-2</v>
       </c>
-      <c r="K57">
+      <c r="M57">
         <v>1</v>
       </c>
-      <c r="L57">
+      <c r="N57"/>
+      <c r="O57">
         <v>0.91563181717602504</v>
       </c>
-      <c r="M57">
+      <c r="P57">
         <v>0.81709183737298596</v>
       </c>
-      <c r="N57">
+      <c r="Q57">
         <v>9.8539979803038594E-2</v>
       </c>
-      <c r="O57">
+      <c r="R57">
         <v>1</v>
       </c>
-      <c r="P57">
+      <c r="S57"/>
+      <c r="T57">
         <v>8.0516213151961794E-2</v>
       </c>
-      <c r="Q57">
+      <c r="U57">
         <v>8.0516213151961794E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>81</v>
       </c>
@@ -4403,47 +4645,51 @@
       <c r="D58">
         <v>7.5032867506288306E-2</v>
       </c>
-      <c r="E58">
+      <c r="E58"/>
+      <c r="F58">
         <v>8.5833775208981902E-2</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>34</v>
       </c>
-      <c r="G58">
+      <c r="H58">
         <v>0.74344979395140398</v>
       </c>
-      <c r="H58">
+      <c r="I58"/>
+      <c r="J58">
         <v>6.4306023880973298E-2</v>
       </c>
-      <c r="I58">
+      <c r="K58">
         <v>0.76193239679429903</v>
       </c>
-      <c r="J58">
+      <c r="L58">
         <v>8.4398595139844407E-2</v>
       </c>
-      <c r="K58">
+      <c r="M58">
         <v>31</v>
       </c>
-      <c r="L58">
+      <c r="N58"/>
+      <c r="O58">
         <v>0.90376154016300103</v>
       </c>
-      <c r="M58">
+      <c r="P58">
         <v>0.82872867265671302</v>
       </c>
-      <c r="N58">
+      <c r="Q58">
         <v>7.5032867506288306E-2</v>
       </c>
-      <c r="O58">
+      <c r="R58">
         <v>10</v>
       </c>
-      <c r="P58">
+      <c r="S58"/>
+      <c r="T58">
         <v>6.2181888694113299E-2</v>
       </c>
-      <c r="Q58">
+      <c r="U58">
         <v>6.3813102493188695E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>80</v>
       </c>
@@ -4456,47 +4702,51 @@
       <c r="D59">
         <v>6.9129591770693999E-2</v>
       </c>
-      <c r="E59">
+      <c r="E59"/>
+      <c r="F59">
         <v>0.106917541323924</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>44</v>
       </c>
-      <c r="G59">
+      <c r="H59">
         <v>0.78579234254859698</v>
       </c>
-      <c r="H59">
+      <c r="I59"/>
+      <c r="J59">
         <v>8.4014985256463198E-2</v>
       </c>
-      <c r="I59">
+      <c r="K59">
         <v>0.78579234254859698</v>
       </c>
-      <c r="J59">
+      <c r="L59">
         <v>0.106917541323924</v>
       </c>
-      <c r="K59">
+      <c r="M59">
         <v>44</v>
       </c>
-      <c r="L59">
+      <c r="N59"/>
+      <c r="O59">
         <v>0.89270988387252104</v>
       </c>
-      <c r="M59">
+      <c r="P59">
         <v>0.78579234254859698</v>
       </c>
-      <c r="N59">
+      <c r="Q59">
         <v>0.106917541323924</v>
       </c>
-      <c r="O59">
+      <c r="R59">
         <v>44</v>
       </c>
-      <c r="P59">
+      <c r="S59"/>
+      <c r="T59">
         <v>5.4951675739779597E-2</v>
       </c>
-      <c r="Q59">
+      <c r="U59">
         <v>8.4014985256463198E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -4509,53 +4759,53 @@
       <c r="D60">
         <v>9.7892795188504106E-2</v>
       </c>
-      <c r="E60">
+      <c r="F60">
         <v>9.8872553266767194E-2</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>1</v>
       </c>
-      <c r="G60">
+      <c r="H60">
         <v>0.70023354050787701</v>
       </c>
-      <c r="H60">
+      <c r="J60">
         <v>8.3157339808227093E-2</v>
       </c>
-      <c r="I60">
+      <c r="K60">
         <v>0.84262194023464698</v>
       </c>
-      <c r="J60">
+      <c r="L60">
         <v>9.8688790117511097E-2</v>
       </c>
-      <c r="K60">
+      <c r="M60">
         <v>40</v>
       </c>
-      <c r="L60">
+      <c r="O60">
         <v>0.94177001174345099</v>
       </c>
-      <c r="M60">
+      <c r="P60">
         <v>0.84387721655494696</v>
       </c>
-      <c r="N60">
+      <c r="Q60">
         <v>9.7892795188504106E-2</v>
       </c>
-      <c r="O60">
+      <c r="R60">
         <v>35</v>
       </c>
-      <c r="P60">
+      <c r="T60">
         <v>8.2609499524458396E-2</v>
       </c>
-      <c r="Q60">
+      <c r="U60">
         <v>6.9233878033042207E-2</v>
       </c>
-      <c r="R60">
+      <c r="V60">
         <v>1</v>
       </c>
-      <c r="S60">
+      <c r="W60">
         <v>35</v>
       </c>
     </row>
-    <row r="61" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>79</v>
       </c>
@@ -4568,47 +4818,51 @@
       <c r="D61">
         <v>9.7305785707876902E-2</v>
       </c>
-      <c r="E61">
+      <c r="E61"/>
+      <c r="F61">
         <v>9.7574857389649799E-2</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>2</v>
       </c>
-      <c r="G61">
+      <c r="H61">
         <v>0.82340590697662697</v>
       </c>
-      <c r="H61">
+      <c r="I61"/>
+      <c r="J61">
         <v>8.1607490603331306E-2</v>
       </c>
-      <c r="I61">
+      <c r="K61">
         <v>0.83867048613456796</v>
       </c>
-      <c r="J61">
+      <c r="L61">
         <v>9.7305785707876902E-2</v>
       </c>
-      <c r="K61">
+      <c r="M61">
         <v>1</v>
       </c>
-      <c r="L61">
+      <c r="N61"/>
+      <c r="O61">
         <v>0.93597627184244503</v>
       </c>
-      <c r="M61">
+      <c r="P61">
         <v>0.83867048613456796</v>
       </c>
-      <c r="N61">
+      <c r="Q61">
         <v>9.7305785707876902E-2</v>
       </c>
-      <c r="O61">
+      <c r="R61">
         <v>1</v>
       </c>
-      <c r="P61">
+      <c r="S61"/>
+      <c r="T61">
         <v>8.1607490603331306E-2</v>
       </c>
-      <c r="Q61">
+      <c r="U61">
         <v>8.0343713947039694E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>78</v>
       </c>
@@ -4621,47 +4875,51 @@
       <c r="D62">
         <v>7.8117878787664796E-2</v>
       </c>
-      <c r="E62">
+      <c r="E62"/>
+      <c r="F62">
         <v>0.112763128276301</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>19</v>
       </c>
-      <c r="G62">
+      <c r="H62">
         <v>0.81505574696681904</v>
       </c>
-      <c r="H62">
+      <c r="I62"/>
+      <c r="J62">
         <v>9.1908235747556397E-2</v>
       </c>
-      <c r="I62">
+      <c r="K62">
         <v>0.81505574696681904</v>
       </c>
-      <c r="J62">
+      <c r="L62">
         <v>0.112763128276301</v>
       </c>
-      <c r="K62">
+      <c r="M62">
         <v>19</v>
       </c>
-      <c r="L62">
+      <c r="N62"/>
+      <c r="O62">
         <v>0.92793000737075804</v>
       </c>
-      <c r="M62">
+      <c r="P62">
         <v>0.817695001789007</v>
       </c>
-      <c r="N62">
+      <c r="Q62">
         <v>0.11023500558175101</v>
       </c>
-      <c r="O62">
+      <c r="R62">
         <v>23</v>
       </c>
-      <c r="P62">
+      <c r="S62"/>
+      <c r="T62">
         <v>6.4780024466268904E-2</v>
       </c>
-      <c r="Q62">
+      <c r="U62">
         <v>9.1908235747556397E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>77</v>
       </c>
@@ -4674,53 +4932,53 @@
       <c r="D63">
         <v>7.8245179348537294E-2</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>9.5648187937887305E-2</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>33</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>0.79124255935625698</v>
       </c>
-      <c r="H63">
+      <c r="J63">
         <v>7.5680917021762301E-2</v>
       </c>
-      <c r="I63">
+      <c r="K63">
         <v>0.79124255935625698</v>
       </c>
-      <c r="J63">
+      <c r="L63">
         <v>9.5648187937887305E-2</v>
       </c>
-      <c r="K63">
+      <c r="M63">
         <v>33</v>
       </c>
-      <c r="L63">
+      <c r="O63">
         <v>0.92461668484191495</v>
       </c>
-      <c r="M63">
+      <c r="P63">
         <v>0.84637150549337803</v>
       </c>
-      <c r="N63">
+      <c r="Q63">
         <v>7.8245179348537294E-2</v>
       </c>
-      <c r="O63">
+      <c r="R63">
         <v>38</v>
       </c>
-      <c r="P63">
+      <c r="T63">
         <v>6.6224490242820899E-2</v>
       </c>
-      <c r="Q63">
+      <c r="U63">
         <v>7.5680917021762301E-2</v>
       </c>
-      <c r="R63">
+      <c r="V63">
         <v>1</v>
       </c>
-      <c r="S63">
+      <c r="W63">
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>76</v>
       </c>
@@ -4733,47 +4991,51 @@
       <c r="D64">
         <v>3.8438939829242E-2</v>
       </c>
-      <c r="E64">
+      <c r="E64"/>
+      <c r="F64">
         <v>3.8438939829242E-2</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>30</v>
       </c>
-      <c r="G64">
+      <c r="H64">
         <v>0.64999121134555804</v>
       </c>
-      <c r="H64">
+      <c r="I64"/>
+      <c r="J64">
         <v>2.4984973062447999E-2</v>
       </c>
-      <c r="I64">
+      <c r="K64">
         <v>0.64999121134555804</v>
       </c>
-      <c r="J64">
+      <c r="L64">
         <v>3.8438939829242E-2</v>
       </c>
-      <c r="K64">
+      <c r="M64">
         <v>30</v>
       </c>
-      <c r="L64">
+      <c r="N64"/>
+      <c r="O64">
         <v>0.6884301511748</v>
       </c>
-      <c r="M64">
+      <c r="P64">
         <v>0.64999121134555804</v>
       </c>
-      <c r="N64">
+      <c r="Q64">
         <v>3.8438939829242E-2</v>
       </c>
-      <c r="O64">
+      <c r="R64">
         <v>30</v>
       </c>
-      <c r="P64">
+      <c r="S64"/>
+      <c r="T64">
         <v>2.4984973062447999E-2</v>
       </c>
-      <c r="Q64">
+      <c r="U64">
         <v>2.4984973062447999E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -4786,47 +5048,51 @@
       <c r="D65">
         <v>8.6040367654578204E-2</v>
       </c>
-      <c r="E65">
+      <c r="E65"/>
+      <c r="F65">
         <v>9.7688671408667896E-2</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>7</v>
       </c>
-      <c r="G65">
+      <c r="H65">
         <v>0.808437984001521</v>
       </c>
-      <c r="H65">
+      <c r="I65"/>
+      <c r="J65">
         <v>7.8975232573410506E-2</v>
       </c>
-      <c r="I65">
+      <c r="K65">
         <v>0.808437984001521</v>
       </c>
-      <c r="J65">
+      <c r="L65">
         <v>9.7688671408667896E-2</v>
       </c>
-      <c r="K65">
+      <c r="M65">
         <v>7</v>
       </c>
-      <c r="L65">
+      <c r="N65"/>
+      <c r="O65">
         <v>0.91560020932118202</v>
       </c>
-      <c r="M65">
+      <c r="P65">
         <v>0.82955984166660401</v>
       </c>
-      <c r="N65">
+      <c r="Q65">
         <v>8.6040367654578204E-2</v>
       </c>
-      <c r="O65">
+      <c r="R65">
         <v>11</v>
       </c>
-      <c r="P65">
+      <c r="S65"/>
+      <c r="T65">
         <v>7.1375633768468297E-2</v>
       </c>
-      <c r="Q65">
+      <c r="U65">
         <v>7.8975232573410506E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -4839,47 +5105,51 @@
       <c r="D66">
         <v>6.9772849388556102E-2</v>
       </c>
-      <c r="E66">
+      <c r="E66"/>
+      <c r="F66">
         <v>6.9772849388556102E-2</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>1</v>
       </c>
-      <c r="G66">
+      <c r="H66">
         <v>0.77762327260717101</v>
       </c>
-      <c r="H66">
+      <c r="I66"/>
+      <c r="J66">
         <v>5.42569914806562E-2</v>
       </c>
-      <c r="I66">
+      <c r="K66">
         <v>0.77762327260717101</v>
       </c>
-      <c r="J66">
+      <c r="L66">
         <v>6.9772849388556102E-2</v>
       </c>
-      <c r="K66">
+      <c r="M66">
         <v>1</v>
       </c>
-      <c r="L66">
+      <c r="N66"/>
+      <c r="O66">
         <v>0.847396121995727</v>
       </c>
-      <c r="M66">
+      <c r="P66">
         <v>0.77762327260717101</v>
       </c>
-      <c r="N66">
+      <c r="Q66">
         <v>6.9772849388556102E-2</v>
       </c>
-      <c r="O66">
+      <c r="R66">
         <v>1</v>
       </c>
-      <c r="P66">
+      <c r="S66"/>
+      <c r="T66">
         <v>5.42569914806562E-2</v>
       </c>
-      <c r="Q66">
+      <c r="U66">
         <v>5.42569914806562E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>73</v>
       </c>
@@ -4892,53 +5162,53 @@
       <c r="D67">
         <v>8.72364205158805E-2</v>
       </c>
-      <c r="E67">
+      <c r="F67">
         <v>8.72364205158805E-2</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>1</v>
       </c>
-      <c r="G67">
+      <c r="H67">
         <v>0.84299569262103302</v>
       </c>
-      <c r="H67">
+      <c r="J67">
         <v>7.3539926734564401E-2</v>
       </c>
-      <c r="I67">
+      <c r="K67">
         <v>0.84299569262103302</v>
       </c>
-      <c r="J67">
+      <c r="L67">
         <v>8.72364205158805E-2</v>
       </c>
-      <c r="K67">
+      <c r="M67">
         <v>1</v>
       </c>
-      <c r="L67">
+      <c r="O67">
         <v>0.93023211313691301</v>
       </c>
-      <c r="M67">
+      <c r="P67">
         <v>0.84299569262103302</v>
       </c>
-      <c r="N67">
+      <c r="Q67">
         <v>8.72364205158805E-2</v>
-      </c>
-      <c r="O67">
-        <v>1</v>
-      </c>
-      <c r="P67">
-        <v>7.3539926734564401E-2</v>
-      </c>
-      <c r="Q67">
-        <v>7.3539926734564401E-2</v>
       </c>
       <c r="R67">
         <v>1</v>
       </c>
-      <c r="S67">
+      <c r="T67">
+        <v>7.3539926734564401E-2</v>
+      </c>
+      <c r="U67">
+        <v>7.3539926734564401E-2</v>
+      </c>
+      <c r="V67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -4951,47 +5221,51 @@
       <c r="D68">
         <v>6.6482656812145893E-2</v>
       </c>
-      <c r="E68">
+      <c r="E68"/>
+      <c r="F68">
         <v>7.5993584641255496E-2</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>38</v>
       </c>
-      <c r="G68">
+      <c r="H68">
         <v>0.79826347447724699</v>
       </c>
-      <c r="H68">
+      <c r="I68"/>
+      <c r="J68">
         <v>6.06629029137093E-2</v>
       </c>
-      <c r="I68">
+      <c r="K68">
         <v>0.79826347447724699</v>
       </c>
-      <c r="J68">
+      <c r="L68">
         <v>7.5993584641255496E-2</v>
       </c>
-      <c r="K68">
+      <c r="M68">
         <v>38</v>
       </c>
-      <c r="L68">
+      <c r="N68"/>
+      <c r="O68">
         <v>0.87425705911850204</v>
       </c>
-      <c r="M68">
+      <c r="P68">
         <v>0.79826347447724699</v>
       </c>
-      <c r="N68">
+      <c r="Q68">
         <v>7.5993584641255496E-2</v>
       </c>
-      <c r="O68">
+      <c r="R68">
         <v>38</v>
       </c>
-      <c r="P68">
+      <c r="S68"/>
+      <c r="T68">
         <v>5.3499497848551597E-2</v>
       </c>
-      <c r="Q68">
+      <c r="U68">
         <v>6.06629029137093E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -5004,47 +5278,51 @@
       <c r="D69">
         <v>4.9353737674168001E-2</v>
       </c>
-      <c r="E69">
+      <c r="E69"/>
+      <c r="F69">
         <v>5.14340909902503E-2</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>50</v>
       </c>
-      <c r="G69">
+      <c r="H69">
         <v>0.75110124029494796</v>
       </c>
-      <c r="H69">
+      <c r="I69"/>
+      <c r="J69">
         <v>3.8632209536220298E-2</v>
       </c>
-      <c r="I69">
+      <c r="K69">
         <v>0.75110124029494796</v>
       </c>
-      <c r="J69">
+      <c r="L69">
         <v>5.14340909902503E-2</v>
       </c>
-      <c r="K69">
+      <c r="M69">
         <v>50</v>
       </c>
-      <c r="L69">
+      <c r="N69"/>
+      <c r="O69">
         <v>0.81301993894874103</v>
       </c>
-      <c r="M69">
+      <c r="P69">
         <v>0.76366620127457296</v>
       </c>
-      <c r="N69">
+      <c r="Q69">
         <v>4.9353737674168001E-2</v>
       </c>
-      <c r="O69">
+      <c r="R69">
         <v>44</v>
       </c>
-      <c r="P69">
+      <c r="S69"/>
+      <c r="T69">
         <v>3.7689781368333702E-2</v>
       </c>
-      <c r="Q69">
+      <c r="U69">
         <v>3.8632209536220298E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>70</v>
       </c>
@@ -5057,47 +5335,51 @@
       <c r="D70">
         <v>7.4300605878978798E-2</v>
       </c>
-      <c r="E70">
+      <c r="E70"/>
+      <c r="F70">
         <v>7.8763926478089497E-2</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>10</v>
       </c>
-      <c r="G70">
+      <c r="H70">
         <v>0.80751189126839296</v>
       </c>
-      <c r="H70">
+      <c r="I70"/>
+      <c r="J70">
         <v>6.3602807234046696E-2</v>
       </c>
-      <c r="I70">
+      <c r="K70">
         <v>0.80751189126839296</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>7.8763926478089497E-2</v>
       </c>
-      <c r="K70">
+      <c r="M70">
         <v>10</v>
       </c>
-      <c r="L70">
+      <c r="N70"/>
+      <c r="O70">
         <v>0.88860446938398097</v>
       </c>
-      <c r="M70">
+      <c r="P70">
         <v>0.81430386350500295</v>
       </c>
-      <c r="N70">
+      <c r="Q70">
         <v>7.4300605878978798E-2</v>
       </c>
-      <c r="O70">
+      <c r="R70">
         <v>17</v>
       </c>
-      <c r="P70">
+      <c r="S70"/>
+      <c r="T70">
         <v>6.0503270428015003E-2</v>
       </c>
-      <c r="Q70">
+      <c r="U70">
         <v>6.3602807234046696E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -5110,47 +5392,51 @@
       <c r="D71">
         <v>7.6846409875860097E-2</v>
       </c>
-      <c r="E71">
+      <c r="E71"/>
+      <c r="F71">
         <v>7.7692405228075995E-2</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>2</v>
       </c>
-      <c r="G71">
+      <c r="H71">
         <v>0.780521808373554</v>
       </c>
-      <c r="H71">
+      <c r="I71"/>
+      <c r="J71">
         <v>6.0640616625508799E-2</v>
       </c>
-      <c r="I71">
+      <c r="K71">
         <v>0.780521808373554</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>7.7692405228075995E-2</v>
       </c>
-      <c r="K71">
+      <c r="M71">
         <v>2</v>
       </c>
-      <c r="L71">
+      <c r="N71"/>
+      <c r="O71">
         <v>0.85821421360162997</v>
       </c>
-      <c r="M71">
+      <c r="P71">
         <v>0.780521808373554</v>
       </c>
-      <c r="N71">
+      <c r="Q71">
         <v>7.7692405228075995E-2</v>
       </c>
-      <c r="O71">
+      <c r="R71">
         <v>2</v>
       </c>
-      <c r="P71">
+      <c r="S71"/>
+      <c r="T71">
         <v>6.0011507929267703E-2</v>
       </c>
-      <c r="Q71">
+      <c r="U71">
         <v>6.0640616625508799E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>68</v>
       </c>
@@ -5163,47 +5449,51 @@
       <c r="D72">
         <v>0.104791285756637</v>
       </c>
-      <c r="E72">
+      <c r="E72"/>
+      <c r="F72">
         <v>0.10529297364416999</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>3</v>
       </c>
-      <c r="G72">
+      <c r="H72">
         <v>0.81477379066863798</v>
       </c>
-      <c r="H72">
+      <c r="I72"/>
+      <c r="J72">
         <v>8.5789955266833404E-2</v>
       </c>
-      <c r="I72">
+      <c r="K72">
         <v>0.81477379066863798</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>0.10529297364416999</v>
       </c>
-      <c r="K72">
+      <c r="M72">
         <v>3</v>
       </c>
-      <c r="L72">
+      <c r="N72"/>
+      <c r="O72">
         <v>0.92006676431280798</v>
       </c>
-      <c r="M72">
+      <c r="P72">
         <v>0.81477379066863798</v>
       </c>
-      <c r="N72">
+      <c r="Q72">
         <v>0.10529297364416999</v>
       </c>
-      <c r="O72">
+      <c r="R72">
         <v>3</v>
       </c>
-      <c r="P72">
+      <c r="S72"/>
+      <c r="T72">
         <v>8.5423587444729498E-2</v>
       </c>
-      <c r="Q72">
+      <c r="U72">
         <v>8.5789955266833404E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>67</v>
       </c>
@@ -5216,47 +5506,51 @@
       <c r="D73">
         <v>8.2516763361971807E-2</v>
       </c>
-      <c r="E73">
+      <c r="E73"/>
+      <c r="F73">
         <v>8.2516763361971807E-2</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>40</v>
       </c>
-      <c r="G73">
+      <c r="H73">
         <v>0.78009551171862301</v>
       </c>
-      <c r="H73">
+      <c r="I73"/>
+      <c r="J73">
         <v>6.4370956740221905E-2</v>
       </c>
-      <c r="I73">
+      <c r="K73">
         <v>0.78009551171862301</v>
       </c>
-      <c r="J73">
+      <c r="L73">
         <v>8.2516763361971807E-2</v>
       </c>
-      <c r="K73">
+      <c r="M73">
         <v>40</v>
       </c>
-      <c r="L73">
+      <c r="N73"/>
+      <c r="O73">
         <v>0.86261227508059402</v>
       </c>
-      <c r="M73">
+      <c r="P73">
         <v>0.78009551171862301</v>
       </c>
-      <c r="N73">
+      <c r="Q73">
         <v>8.2516763361971807E-2</v>
       </c>
-      <c r="O73">
+      <c r="R73">
         <v>40</v>
       </c>
-      <c r="P73">
+      <c r="S73"/>
+      <c r="T73">
         <v>6.4370956740221905E-2</v>
       </c>
-      <c r="Q73">
+      <c r="U73">
         <v>6.4370956740221905E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>66</v>
       </c>
@@ -5269,47 +5563,51 @@
       <c r="D74">
         <v>5.1942646917981297E-2</v>
       </c>
-      <c r="E74">
+      <c r="E74"/>
+      <c r="F74">
         <v>5.1942646917981297E-2</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>50</v>
       </c>
-      <c r="G74">
+      <c r="H74">
         <v>0.73390659755844201</v>
       </c>
-      <c r="H74">
+      <c r="I74"/>
+      <c r="J74">
         <v>3.8121051267755203E-2</v>
       </c>
-      <c r="I74">
+      <c r="K74">
         <v>0.73390659755844201</v>
       </c>
-      <c r="J74">
+      <c r="L74">
         <v>5.1942646917981297E-2</v>
       </c>
-      <c r="K74">
+      <c r="M74">
         <v>50</v>
       </c>
-      <c r="L74">
+      <c r="N74"/>
+      <c r="O74">
         <v>0.78584924447642401</v>
       </c>
-      <c r="M74">
+      <c r="P74">
         <v>0.73390659755844201</v>
       </c>
-      <c r="N74">
+      <c r="Q74">
         <v>5.1942646917981297E-2</v>
       </c>
-      <c r="O74">
+      <c r="R74">
         <v>50</v>
       </c>
-      <c r="P74">
+      <c r="S74"/>
+      <c r="T74">
         <v>3.8121051267755203E-2</v>
       </c>
-      <c r="Q74">
+      <c r="U74">
         <v>3.8121051267755203E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -5322,47 +5620,51 @@
       <c r="D75">
         <v>5.6643031039796198E-2</v>
       </c>
-      <c r="E75">
+      <c r="E75"/>
+      <c r="F75">
         <v>6.1536690644817697E-2</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>20</v>
       </c>
-      <c r="G75">
+      <c r="H75">
         <v>0.79473409472480505</v>
       </c>
-      <c r="H75">
+      <c r="I75"/>
+      <c r="J75">
         <v>4.8905306131969598E-2</v>
       </c>
-      <c r="I75">
+      <c r="K75">
         <v>0.79473409472480505</v>
       </c>
-      <c r="J75">
+      <c r="L75">
         <v>6.1536690644817697E-2</v>
       </c>
-      <c r="K75">
+      <c r="M75">
         <v>20</v>
       </c>
-      <c r="L75">
+      <c r="N75"/>
+      <c r="O75">
         <v>0.86073547892714097</v>
       </c>
-      <c r="M75">
+      <c r="P75">
         <v>0.80409244788734502</v>
       </c>
-      <c r="N75">
+      <c r="Q75">
         <v>5.6643031039796198E-2</v>
       </c>
-      <c r="O75">
+      <c r="R75">
         <v>62</v>
       </c>
-      <c r="P75">
+      <c r="S75"/>
+      <c r="T75">
         <v>4.5546233484548601E-2</v>
       </c>
-      <c r="Q75">
+      <c r="U75">
         <v>4.8905306131969598E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>64</v>
       </c>
@@ -5375,47 +5677,51 @@
       <c r="D76">
         <v>9.4437500108685499E-2</v>
       </c>
-      <c r="E76">
+      <c r="E76"/>
+      <c r="F76">
         <v>0.119633123862761</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>17</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>0.81723821069250802</v>
       </c>
-      <c r="H76">
+      <c r="I76"/>
+      <c r="J76">
         <v>9.7768760085158696E-2</v>
       </c>
-      <c r="I76">
+      <c r="K76">
         <v>0.81723821069250802</v>
       </c>
-      <c r="J76">
+      <c r="L76">
         <v>0.119633123862761</v>
       </c>
-      <c r="K76">
+      <c r="M76">
         <v>17</v>
       </c>
-      <c r="L76">
+      <c r="N76"/>
+      <c r="O76">
         <v>0.93687133455527005</v>
       </c>
-      <c r="M76">
+      <c r="P76">
         <v>0.81723821069250802</v>
       </c>
-      <c r="N76">
+      <c r="Q76">
         <v>0.119633123862761</v>
       </c>
-      <c r="O76">
+      <c r="R76">
         <v>17</v>
       </c>
-      <c r="P76">
+      <c r="S76"/>
+      <c r="T76">
         <v>7.8961722930257605E-2</v>
       </c>
-      <c r="Q76">
+      <c r="U76">
         <v>9.7768760085158696E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>63</v>
       </c>
@@ -5428,47 +5734,51 @@
       <c r="D77">
         <v>8.3990915130297994E-2</v>
       </c>
-      <c r="E77">
+      <c r="E77"/>
+      <c r="F77">
         <v>8.8021657468896203E-2</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>10</v>
       </c>
-      <c r="G77">
+      <c r="H77">
         <v>0.80960678121317198</v>
       </c>
-      <c r="H77">
+      <c r="I77"/>
+      <c r="J77">
         <v>7.1262930780441394E-2</v>
       </c>
-      <c r="I77">
+      <c r="K77">
         <v>0.80960678121317198</v>
       </c>
-      <c r="J77">
+      <c r="L77">
         <v>8.8021657468896203E-2</v>
       </c>
-      <c r="K77">
+      <c r="M77">
         <v>10</v>
       </c>
-      <c r="L77">
+      <c r="N77"/>
+      <c r="O77">
         <v>0.89921183636590596</v>
       </c>
-      <c r="M77">
+      <c r="P77">
         <v>0.81171386893457698</v>
       </c>
-      <c r="N77">
+      <c r="Q77">
         <v>8.7497967431329204E-2</v>
       </c>
-      <c r="O77">
+      <c r="R77">
         <v>15</v>
       </c>
-      <c r="P77">
+      <c r="S77"/>
+      <c r="T77">
         <v>6.8371351213015102E-2</v>
       </c>
-      <c r="Q77">
+      <c r="U77">
         <v>7.1262930780441394E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -5481,47 +5791,51 @@
       <c r="D78">
         <v>8.4728935351589499E-2</v>
       </c>
-      <c r="E78">
+      <c r="E78"/>
+      <c r="F78">
         <v>8.8021657468896203E-2</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>10</v>
       </c>
-      <c r="G78">
+      <c r="H78">
         <v>0.80960678121317198</v>
       </c>
-      <c r="H78">
+      <c r="I78"/>
+      <c r="J78">
         <v>7.1262930780441394E-2</v>
       </c>
-      <c r="I78">
+      <c r="K78">
         <v>0.80960678121317198</v>
       </c>
-      <c r="J78">
+      <c r="L78">
         <v>8.8021657468896203E-2</v>
       </c>
-      <c r="K78">
+      <c r="M78">
         <v>10</v>
       </c>
-      <c r="L78">
+      <c r="N78"/>
+      <c r="O78">
         <v>0.90709271433538297</v>
       </c>
-      <c r="M78">
+      <c r="P78">
         <v>0.82236377898379298</v>
       </c>
-      <c r="N78">
+      <c r="Q78">
         <v>8.4728935351589499E-2</v>
       </c>
-      <c r="O78">
+      <c r="R78">
         <v>100</v>
       </c>
-      <c r="P78">
+      <c r="S78"/>
+      <c r="T78">
         <v>6.96780074650067E-2</v>
       </c>
-      <c r="Q78">
+      <c r="U78">
         <v>7.1262930780441394E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>61</v>
       </c>
@@ -5534,47 +5848,51 @@
       <c r="D79">
         <v>0.111798384405177</v>
       </c>
-      <c r="E79">
+      <c r="E79"/>
+      <c r="F79">
         <v>0.11614015766048801</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>78</v>
       </c>
-      <c r="G79">
+      <c r="H79">
         <v>0.81073742127742598</v>
       </c>
-      <c r="H79">
+      <c r="I79"/>
+      <c r="J79">
         <v>9.4159171928417995E-2</v>
       </c>
-      <c r="I79">
+      <c r="K79">
         <v>0.81073742127742598</v>
       </c>
-      <c r="J79">
+      <c r="L79">
         <v>0.11614015766048801</v>
       </c>
-      <c r="K79">
+      <c r="M79">
         <v>78</v>
       </c>
-      <c r="L79">
+      <c r="N79"/>
+      <c r="O79">
         <v>0.926877578937914</v>
       </c>
-      <c r="M79">
+      <c r="P79">
         <v>0.81073742127742598</v>
       </c>
-      <c r="N79">
+      <c r="Q79">
         <v>0.11614015766048801</v>
       </c>
-      <c r="O79">
+      <c r="R79">
         <v>78</v>
       </c>
-      <c r="P79">
+      <c r="S79"/>
+      <c r="T79">
         <v>9.09069069831583E-2</v>
       </c>
-      <c r="Q79">
+      <c r="U79">
         <v>9.4159171928417995E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>60</v>
       </c>
@@ -5587,53 +5905,53 @@
       <c r="D80">
         <v>0.12624748282131401</v>
       </c>
-      <c r="E80" s="1">
+      <c r="F80" s="1">
         <v>0.13094741572923599</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>3</v>
       </c>
-      <c r="G80">
+      <c r="H80">
         <v>0.78281889992318499</v>
       </c>
-      <c r="H80" s="1">
+      <c r="J80" s="1">
         <v>0.106387842414169</v>
       </c>
-      <c r="I80">
+      <c r="K80">
         <v>0.84269278116813395</v>
       </c>
-      <c r="J80">
+      <c r="L80">
         <v>0.12624748282131401</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>1</v>
       </c>
-      <c r="L80" s="1">
+      <c r="O80" s="1">
         <v>0.96894026398944799</v>
       </c>
-      <c r="M80">
+      <c r="P80">
         <v>0.84269278116813395</v>
       </c>
-      <c r="N80">
+      <c r="Q80">
         <v>0.12624748282131401</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>1</v>
       </c>
-      <c r="P80">
+      <c r="T80">
         <v>0.106387842414169</v>
       </c>
-      <c r="Q80">
+      <c r="U80">
         <v>0.102508111928945</v>
       </c>
-      <c r="R80">
+      <c r="V80">
         <v>4</v>
       </c>
-      <c r="S80" t="s">
+      <c r="W80" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>59</v>
       </c>
@@ -5646,47 +5964,51 @@
       <c r="D81">
         <v>6.9928161244141196E-2</v>
       </c>
-      <c r="E81">
+      <c r="E81"/>
+      <c r="F81">
         <v>6.9928161244141196E-2</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>50</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>0.773903419881249</v>
       </c>
-      <c r="H81">
+      <c r="I81"/>
+      <c r="J81">
         <v>5.4117643132848302E-2</v>
       </c>
-      <c r="I81">
+      <c r="K81">
         <v>0.773903419881249</v>
       </c>
-      <c r="J81">
+      <c r="L81">
         <v>6.9928161244141196E-2</v>
       </c>
-      <c r="K81">
+      <c r="M81">
         <v>50</v>
       </c>
-      <c r="L81">
+      <c r="N81"/>
+      <c r="O81">
         <v>0.84383158112539103</v>
       </c>
-      <c r="M81">
+      <c r="P81">
         <v>0.773903419881249</v>
       </c>
-      <c r="N81">
+      <c r="Q81">
         <v>6.9928161244141196E-2</v>
       </c>
-      <c r="O81">
+      <c r="R81">
         <v>50</v>
       </c>
-      <c r="P81">
+      <c r="S81"/>
+      <c r="T81">
         <v>5.4117643132848302E-2</v>
       </c>
-      <c r="Q81">
+      <c r="U81">
         <v>5.4117643132848302E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>58</v>
       </c>
@@ -5699,53 +6021,53 @@
       <c r="D82">
         <v>0.14797902474751201</v>
       </c>
-      <c r="E82" s="1">
+      <c r="F82" s="1">
         <v>0.14797902474751201</v>
       </c>
-      <c r="F82" s="2">
+      <c r="G82" s="2">
         <v>6</v>
       </c>
-      <c r="G82">
+      <c r="H82">
         <v>0.84757627050790296</v>
       </c>
-      <c r="H82" s="1">
+      <c r="J82" s="1">
         <v>0.125423509908893</v>
       </c>
-      <c r="I82">
+      <c r="K82">
         <v>0.84757627050790296</v>
       </c>
-      <c r="J82">
+      <c r="L82">
         <v>0.14797902474751201</v>
       </c>
-      <c r="K82" s="2">
+      <c r="M82" s="2">
         <v>6</v>
       </c>
-      <c r="L82" s="1">
+      <c r="O82" s="1">
         <v>0.99555529525541497</v>
       </c>
-      <c r="M82">
+      <c r="P82">
         <v>0.84757627050790296</v>
       </c>
-      <c r="N82">
+      <c r="Q82">
         <v>0.14797902474751201</v>
       </c>
-      <c r="O82" s="2">
+      <c r="R82" s="2">
         <v>6</v>
       </c>
-      <c r="P82">
+      <c r="T82">
         <v>0.125423509908893</v>
       </c>
-      <c r="Q82">
+      <c r="U82">
         <v>0.125423509908893</v>
       </c>
-      <c r="R82">
+      <c r="V82">
         <v>4</v>
       </c>
-      <c r="S82">
+      <c r="W82">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>57</v>
       </c>
@@ -5758,47 +6080,51 @@
       <c r="D83">
         <v>0.119370367715673</v>
       </c>
-      <c r="E83">
+      <c r="E83"/>
+      <c r="F83">
         <v>0.12812442967194199</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>34</v>
       </c>
-      <c r="G83">
+      <c r="H83">
         <v>0.82563950753509796</v>
       </c>
-      <c r="H83" s="1">
+      <c r="I83"/>
+      <c r="J83" s="1">
         <v>0.10578459101755699</v>
       </c>
-      <c r="I83">
+      <c r="K83">
         <v>0.82563950753509796</v>
       </c>
-      <c r="J83">
+      <c r="L83">
         <v>0.12812442967194199</v>
       </c>
-      <c r="K83">
+      <c r="M83">
         <v>34</v>
       </c>
-      <c r="L83" s="1">
+      <c r="N83"/>
+      <c r="O83" s="1">
         <v>0.954504161584665</v>
       </c>
-      <c r="M83">
+      <c r="P83">
         <v>0.82810126906919002</v>
       </c>
-      <c r="N83">
+      <c r="Q83">
         <v>0.12640289251547401</v>
       </c>
-      <c r="O83">
+      <c r="R83">
         <v>21</v>
       </c>
-      <c r="P83">
+      <c r="S83"/>
+      <c r="T83">
         <v>9.8957026202189505E-2</v>
       </c>
-      <c r="Q83">
+      <c r="U83">
         <v>0.10578459101755699</v>
       </c>
     </row>
-    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -5811,47 +6137,51 @@
       <c r="D84">
         <v>4.5414335423674998E-2</v>
       </c>
-      <c r="E84">
+      <c r="E84"/>
+      <c r="F84">
         <v>6.0967947360242497E-2</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>40</v>
       </c>
-      <c r="G84">
+      <c r="H84">
         <v>0.66914297170365999</v>
       </c>
-      <c r="H84">
+      <c r="I84"/>
+      <c r="J84">
         <v>4.0796273475304998E-2</v>
       </c>
-      <c r="I84">
+      <c r="K84">
         <v>0.66914297170365999</v>
       </c>
-      <c r="J84">
+      <c r="L84">
         <v>6.0967947360242497E-2</v>
       </c>
-      <c r="K84">
+      <c r="M84">
         <v>40</v>
       </c>
-      <c r="L84">
+      <c r="N84"/>
+      <c r="O84">
         <v>0.74911606737036895</v>
       </c>
-      <c r="M84">
+      <c r="P84">
         <v>0.69162316126336398</v>
       </c>
-      <c r="N84">
+      <c r="Q84">
         <v>5.7492906107004797E-2</v>
       </c>
-      <c r="O84">
+      <c r="R84">
         <v>28</v>
       </c>
-      <c r="P84">
+      <c r="S84"/>
+      <c r="T84">
         <v>3.15688963920467E-2</v>
       </c>
-      <c r="Q84">
+      <c r="U84">
         <v>4.0796273475304998E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>55</v>
       </c>
@@ -5864,47 +6194,51 @@
       <c r="D85">
         <v>6.3213312644115296E-2</v>
       </c>
-      <c r="E85">
+      <c r="E85"/>
+      <c r="F85">
         <v>6.3213312644115296E-2</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>50</v>
       </c>
-      <c r="G85">
+      <c r="H85">
         <v>0.70157904909886504</v>
       </c>
-      <c r="H85">
+      <c r="I85"/>
+      <c r="J85">
         <v>4.4349135775247697E-2</v>
       </c>
-      <c r="I85">
+      <c r="K85">
         <v>0.70157904909886504</v>
       </c>
-      <c r="J85">
+      <c r="L85">
         <v>6.3213312644115296E-2</v>
       </c>
-      <c r="K85">
+      <c r="M85">
         <v>50</v>
       </c>
-      <c r="L85">
+      <c r="N85"/>
+      <c r="O85">
         <v>0.76479236174298104</v>
       </c>
-      <c r="M85">
+      <c r="P85">
         <v>0.70157904909886504</v>
       </c>
-      <c r="N85">
+      <c r="Q85">
         <v>6.3213312644115296E-2</v>
       </c>
-      <c r="O85">
+      <c r="R85">
         <v>50</v>
       </c>
-      <c r="P85">
+      <c r="S85"/>
+      <c r="T85">
         <v>4.4349135775247697E-2</v>
       </c>
-      <c r="Q85">
+      <c r="U85">
         <v>4.4349135775247697E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -5917,106 +6251,110 @@
       <c r="D86">
         <v>0.10241671823878599</v>
       </c>
-      <c r="E86">
+      <c r="E86"/>
+      <c r="F86">
         <v>0.105376668341954</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>46</v>
       </c>
-      <c r="G86">
+      <c r="H86">
         <v>0.82507356197596404</v>
       </c>
-      <c r="H86">
+      <c r="I86"/>
+      <c r="J86">
         <v>8.6943503098056693E-2</v>
       </c>
-      <c r="I86">
+      <c r="K86">
         <v>0.82507356197596404</v>
       </c>
-      <c r="J86">
+      <c r="L86">
         <v>0.105376668341954</v>
       </c>
-      <c r="K86">
+      <c r="M86">
         <v>46</v>
       </c>
-      <c r="L86">
+      <c r="N86"/>
+      <c r="O86">
         <v>0.93836303426003398</v>
       </c>
-      <c r="M86">
+      <c r="P86">
         <v>0.83594631602124703</v>
       </c>
-      <c r="N86">
+      <c r="Q86">
         <v>0.10241671823878599</v>
       </c>
-      <c r="O86">
+      <c r="R86">
         <v>100</v>
       </c>
-      <c r="P86">
+      <c r="S86"/>
+      <c r="T86">
         <v>8.5614878310699805E-2</v>
       </c>
-      <c r="Q86">
+      <c r="U86">
         <v>8.6943503098056693E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>53</v>
       </c>
       <c r="B87">
         <v>0.80439551572199497</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>2</v>
       </c>
       <c r="D87">
         <v>0.131025425241689</v>
       </c>
-      <c r="E87" s="1">
+      <c r="F87" s="1">
         <v>0.131025425241689</v>
       </c>
-      <c r="F87" s="2">
+      <c r="G87" s="2">
         <v>2</v>
       </c>
-      <c r="G87">
+      <c r="H87">
         <v>0.80439551572199497</v>
       </c>
-      <c r="H87" s="1">
+      <c r="J87" s="1">
         <v>0.105396264509982</v>
       </c>
-      <c r="I87">
+      <c r="K87">
         <v>0.80439551572199497</v>
       </c>
-      <c r="J87">
+      <c r="L87">
         <v>0.131025425241689</v>
       </c>
-      <c r="K87" s="2">
+      <c r="M87" s="2">
         <v>2</v>
       </c>
-      <c r="L87">
+      <c r="O87">
         <v>0.935420940963684</v>
       </c>
-      <c r="M87">
+      <c r="P87">
         <v>0.80439551572199497</v>
       </c>
-      <c r="N87">
+      <c r="Q87">
         <v>0.131025425241689</v>
-      </c>
-      <c r="O87" s="3">
-        <v>2</v>
-      </c>
-      <c r="P87">
-        <v>0.105396264509982</v>
-      </c>
-      <c r="Q87">
-        <v>0.105396264509982</v>
       </c>
       <c r="R87">
         <v>2</v>
       </c>
-      <c r="S87">
+      <c r="T87">
+        <v>0.105396264509982</v>
+      </c>
+      <c r="U87">
+        <v>0.105396264509982</v>
+      </c>
+      <c r="V87">
         <v>2</v>
       </c>
-    </row>
-    <row r="88" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="W87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>52</v>
       </c>
@@ -6029,47 +6367,51 @@
       <c r="D88">
         <v>0.103068627403402</v>
       </c>
-      <c r="E88">
+      <c r="E88"/>
+      <c r="F88">
         <v>0.125891528557183</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>35</v>
       </c>
-      <c r="G88">
+      <c r="H88">
         <v>0.78071775470834104</v>
       </c>
-      <c r="H88">
+      <c r="I88"/>
+      <c r="J88">
         <v>9.8285751511965294E-2</v>
       </c>
-      <c r="I88">
+      <c r="K88">
         <v>0.78071775470834104</v>
       </c>
-      <c r="J88">
+      <c r="L88">
         <v>0.125891528557183</v>
       </c>
-      <c r="K88">
+      <c r="M88">
         <v>35</v>
       </c>
-      <c r="L88">
+      <c r="N88"/>
+      <c r="O88">
         <v>0.92639337225093699</v>
       </c>
-      <c r="M88">
+      <c r="P88">
         <v>0.82332474484753404</v>
       </c>
-      <c r="N88">
+      <c r="Q88">
         <v>0.103068627403402</v>
       </c>
-      <c r="O88">
+      <c r="R88">
         <v>52</v>
       </c>
-      <c r="P88">
+      <c r="S88"/>
+      <c r="T88">
         <v>8.48589513586923E-2</v>
       </c>
-      <c r="Q88">
+      <c r="U88">
         <v>9.8285751511965294E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -6082,47 +6424,51 @@
       <c r="D89">
         <v>0.107778281069905</v>
       </c>
-      <c r="E89">
+      <c r="E89"/>
+      <c r="F89">
         <v>0.115777355101869</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>15</v>
       </c>
-      <c r="G89">
+      <c r="H89">
         <v>0.81803106617325005</v>
       </c>
-      <c r="H89">
+      <c r="I89"/>
+      <c r="J89">
         <v>9.4709473232701402E-2</v>
       </c>
-      <c r="I89">
+      <c r="K89">
         <v>0.81803106617325005</v>
       </c>
-      <c r="J89">
+      <c r="L89">
         <v>0.115777355101869</v>
       </c>
-      <c r="K89">
+      <c r="M89">
         <v>15</v>
       </c>
-      <c r="L89">
+      <c r="N89"/>
+      <c r="O89">
         <v>0.93685765449470004</v>
       </c>
-      <c r="M89">
+      <c r="P89">
         <v>0.82456891806346799</v>
       </c>
-      <c r="N89">
+      <c r="Q89">
         <v>0.11228873643123199</v>
       </c>
-      <c r="O89">
+      <c r="R89">
         <v>27</v>
       </c>
-      <c r="P89">
+      <c r="S89"/>
+      <c r="T89">
         <v>8.9001091733497101E-2</v>
       </c>
-      <c r="Q89">
+      <c r="U89">
         <v>9.4709473232701402E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>50</v>
       </c>
@@ -6135,53 +6481,53 @@
       <c r="D90">
         <v>0.10345484240477699</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>0.123255831431392</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>226</v>
       </c>
-      <c r="G90">
+      <c r="H90">
         <v>0.81996081698831202</v>
       </c>
-      <c r="H90">
+      <c r="J90">
         <v>0.101676238684241</v>
       </c>
-      <c r="I90">
+      <c r="K90">
         <v>0.825690175222625</v>
       </c>
-      <c r="J90">
+      <c r="L90">
         <v>0.12314090894545</v>
       </c>
-      <c r="K90">
+      <c r="M90">
         <v>236</v>
       </c>
-      <c r="L90" s="1">
+      <c r="O90" s="1">
         <v>0.95383200069489305</v>
       </c>
-      <c r="M90">
+      <c r="P90">
         <v>0.83626689861208003</v>
       </c>
-      <c r="N90">
+      <c r="Q90">
         <v>0.117565102082812</v>
       </c>
-      <c r="O90" s="2">
+      <c r="R90" s="2">
         <v>97</v>
       </c>
-      <c r="P90">
+      <c r="T90">
         <v>8.7033570587266698E-2</v>
       </c>
-      <c r="Q90">
+      <c r="U90">
         <v>0.101064952239057</v>
       </c>
-      <c r="R90">
+      <c r="V90">
         <v>2</v>
       </c>
-      <c r="S90" t="s">
+      <c r="W90" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="91" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>49</v>
       </c>
@@ -6194,47 +6540,51 @@
       <c r="D91">
         <v>0.101341282530792</v>
       </c>
-      <c r="E91">
+      <c r="E91"/>
+      <c r="F91">
         <v>0.10364062960399401</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>807</v>
       </c>
-      <c r="G91">
+      <c r="H91">
         <v>0.67627476148655197</v>
       </c>
-      <c r="H91">
+      <c r="I91"/>
+      <c r="J91">
         <v>8.2429697347695396E-2</v>
       </c>
-      <c r="I91">
+      <c r="K91">
         <v>0.81338715367697201</v>
       </c>
-      <c r="J91">
+      <c r="L91">
         <v>0.101341282530792</v>
       </c>
-      <c r="K91">
+      <c r="M91">
         <v>63</v>
       </c>
-      <c r="L91">
+      <c r="N91"/>
+      <c r="O91">
         <v>0.91472843620776501</v>
       </c>
-      <c r="M91">
+      <c r="P91">
         <v>0.81338715367697201</v>
       </c>
-      <c r="N91">
+      <c r="Q91">
         <v>0.101341282530792</v>
       </c>
-      <c r="O91">
+      <c r="R91">
         <v>63</v>
       </c>
-      <c r="P91">
+      <c r="S91"/>
+      <c r="T91">
         <v>8.2429697347695396E-2</v>
       </c>
-      <c r="Q91">
+      <c r="U91">
         <v>7.0089542065757696E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>48</v>
       </c>
@@ -6247,47 +6597,51 @@
       <c r="D92">
         <v>9.4913984879054905E-2</v>
       </c>
-      <c r="E92">
+      <c r="E92"/>
+      <c r="F92">
         <v>0.10993982030687199</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>172</v>
       </c>
-      <c r="G92">
+      <c r="H92">
         <v>0.79418191075981504</v>
       </c>
-      <c r="H92">
+      <c r="I92"/>
+      <c r="J92">
         <v>8.9566102475354695E-2</v>
       </c>
-      <c r="I92">
+      <c r="K92">
         <v>0.82385503536729698</v>
       </c>
-      <c r="J92">
+      <c r="L92">
         <v>0.10871585246234899</v>
       </c>
-      <c r="K92">
+      <c r="M92">
         <v>93</v>
       </c>
-      <c r="L92">
+      <c r="N92"/>
+      <c r="O92">
         <v>0.93257088782964603</v>
       </c>
-      <c r="M92">
+      <c r="P92">
         <v>0.82385503536729698</v>
       </c>
-      <c r="N92">
+      <c r="Q92">
         <v>0.10871585246234899</v>
       </c>
-      <c r="O92">
+      <c r="R92">
         <v>93</v>
       </c>
-      <c r="P92">
+      <c r="S92"/>
+      <c r="T92">
         <v>7.8645725068461403E-2</v>
       </c>
-      <c r="Q92">
+      <c r="U92">
         <v>8.7312216559902997E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:23" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>47</v>
       </c>
@@ -6300,47 +6654,51 @@
       <c r="D93">
         <v>0.116380145279579</v>
       </c>
-      <c r="E93">
+      <c r="E93"/>
+      <c r="F93">
         <v>0.11945556741013399</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>35</v>
       </c>
-      <c r="G93">
+      <c r="H93">
         <v>0.79750267725558699</v>
       </c>
-      <c r="H93">
+      <c r="I93"/>
+      <c r="J93">
         <v>9.5266134822667894E-2</v>
       </c>
-      <c r="I93">
+      <c r="K93">
         <v>0.79750267725558699</v>
       </c>
-      <c r="J93">
+      <c r="L93">
         <v>0.11945556741013399</v>
       </c>
-      <c r="K93">
+      <c r="M93">
         <v>35</v>
       </c>
-      <c r="L93">
+      <c r="N93"/>
+      <c r="O93">
         <v>0.93446907270093105</v>
       </c>
-      <c r="M93">
+      <c r="P93">
         <v>0.81808892742135197</v>
       </c>
-      <c r="N93">
+      <c r="Q93">
         <v>0.116380145279579</v>
       </c>
-      <c r="O93">
+      <c r="R93">
         <v>26</v>
       </c>
-      <c r="P93">
+      <c r="S93"/>
+      <c r="T93">
         <v>9.5209308224911998E-2</v>
       </c>
-      <c r="Q93">
+      <c r="U93">
         <v>9.5266134822667894E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>46</v>
       </c>
@@ -6353,49 +6711,49 @@
       <c r="D94">
         <v>0.114009636901962</v>
       </c>
-      <c r="E94">
+      <c r="F94">
         <v>0.122091941580178</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>487</v>
       </c>
-      <c r="G94">
+      <c r="H94">
         <v>0.82959971901326801</v>
       </c>
-      <c r="H94">
+      <c r="J94">
         <v>0.1012874404287</v>
       </c>
-      <c r="I94">
+      <c r="K94">
         <v>0.82959971901326801</v>
       </c>
-      <c r="J94">
+      <c r="L94">
         <v>0.122091941580178</v>
       </c>
-      <c r="K94">
+      <c r="M94">
         <v>487</v>
       </c>
-      <c r="L94" s="1">
+      <c r="O94" s="1">
         <v>0.95968211596557296</v>
       </c>
-      <c r="M94">
+      <c r="P94">
         <v>0.84567247906361098</v>
       </c>
-      <c r="N94">
+      <c r="Q94">
         <v>0.114009636901962</v>
       </c>
-      <c r="O94" s="2">
+      <c r="R94" s="2">
         <v>123</v>
       </c>
-      <c r="P94">
+      <c r="T94">
         <v>9.64148122760244E-2</v>
       </c>
-      <c r="Q94">
+      <c r="U94">
         <v>0.1012874404287</v>
       </c>
-      <c r="R94">
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="S94">
+      <c r="W94">
         <v>123</v>
       </c>
     </row>
@@ -6473,8 +6831,8 @@
       <sortCondition descending="1" ref="A1:A94"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:Q97">
-    <sortCondition descending="1" ref="L1:L97"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A31:U97">
+    <sortCondition descending="1" ref="O1:O97"/>
   </sortState>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
